--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,33 +2893,80 @@
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>+33334691787</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
       <c r="G51" t="n">
-        <v>16753.96</v>
+        <v>468.68</v>
       </c>
       <c r="H51" t="n">
-        <v>13833.27</v>
+        <v>374.77</v>
       </c>
       <c r="I51" t="n">
-        <v>2920.69</v>
+        <v>93.91</v>
       </c>
       <c r="J51" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6</v>
+      </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>16753.96</v>
+      </c>
+      <c r="H52" t="n">
+        <v>13833.27</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2920.69</v>
+      </c>
+      <c r="J52" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -2903,10 +2903,8 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>+33334691787</t>
-        </is>
+      <c r="C51" t="n">
+        <v>33334691787</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>46200</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,78 +2893,33 @@
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Claudine Fleury</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>33334691787</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>46200</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>46203</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3</v>
-      </c>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>468.68</v>
+        <v>16753.96</v>
       </c>
       <c r="H51" t="n">
-        <v>374.77</v>
+        <v>13833.27</v>
       </c>
       <c r="I51" t="n">
-        <v>93.91</v>
+        <v>2920.69</v>
       </c>
       <c r="J51" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2026</v>
-      </c>
-      <c r="L51" t="n">
-        <v>6</v>
-      </c>
+        <v>17.43</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
-        <v>16753.96</v>
-      </c>
-      <c r="H52" t="n">
-        <v>13833.27</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2920.69</v>
-      </c>
-      <c r="J52" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2848,78 +2848,33 @@
       <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Claudine Fleury</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>33334691787</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>46200</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>46203</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
-      </c>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>468.68</v>
+        <v>16753.96</v>
       </c>
       <c r="H50" t="n">
-        <v>374.77</v>
+        <v>13833.27</v>
       </c>
       <c r="I50" t="n">
-        <v>93.91</v>
+        <v>2920.69</v>
       </c>
       <c r="J50" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2026</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6</v>
-      </c>
+        <v>17.43</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
-        <v>16753.96</v>
-      </c>
-      <c r="H51" t="n">
-        <v>13833.27</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2920.69</v>
-      </c>
-      <c r="J51" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,37 +1155,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ray Teguh</t>
+          <t>Christian Kohlberg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Airbnb</t>
+          <t>Booking</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33617722379</v>
+        <v>1776721532</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45809</v>
+        <v>45811</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45811</v>
+        <v>45814</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>559.12</v>
+        <v>387.5</v>
       </c>
       <c r="H15" t="n">
-        <v>500</v>
+        <v>321.62</v>
       </c>
       <c r="I15" t="n">
-        <v>59.12</v>
+        <v>65.88</v>
       </c>
       <c r="J15" t="n">
-        <v>10.57</v>
+        <v>17</v>
       </c>
       <c r="K15" t="n">
         <v>2025</v>
@@ -1195,16 +1195,16 @@
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" s="3" t="n">
-        <v>45809</v>
+        <v>45811</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>45809</v>
+        <v>45811</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Christian Kohlberg</t>
+          <t>Wendy Agema</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1213,25 +1213,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1776721532</v>
+        <v>33650232246</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45811</v>
+        <v>45815</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45814</v>
+        <v>45816</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>387.5</v>
+        <v>162.5</v>
       </c>
       <c r="H16" t="n">
-        <v>321.62</v>
+        <v>134.87</v>
       </c>
       <c r="I16" t="n">
-        <v>65.88</v>
+        <v>27.63</v>
       </c>
       <c r="J16" t="n">
         <v>17</v>
@@ -1244,16 +1244,16 @@
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" s="3" t="n">
-        <v>45811</v>
+        <v>45815</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>45811</v>
+        <v>45815</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Wendy Agema</t>
+          <t>maxime prodromidès</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33650232246</v>
+        <v>33619201804</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45815</v>
+        <v>45816</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1293,46 +1293,44 @@
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" s="3" t="n">
-        <v>45815</v>
+        <v>45816</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>45815</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>maxime prodromidès</t>
+          <t>Evie Ward</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>33619201804</v>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" s="2" t="n">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45817</v>
+        <v>45820</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>162.5</v>
+        <v>600.67</v>
       </c>
       <c r="H18" t="n">
-        <v>134.87</v>
+        <v>482</v>
       </c>
       <c r="I18" t="n">
-        <v>27.63</v>
+        <v>118.67</v>
       </c>
       <c r="J18" t="n">
-        <v>17</v>
+        <v>19.76</v>
       </c>
       <c r="K18" t="n">
         <v>2025</v>
@@ -1342,44 +1340,46 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" s="3" t="n">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>45816</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Evie Ward</t>
+          <t>Amelia Eaton</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>61402780503</v>
+      </c>
       <c r="D19" s="2" t="n">
-        <v>45817</v>
+        <v>45821</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45820</v>
+        <v>45825</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>600.67</v>
+        <v>500</v>
       </c>
       <c r="H19" t="n">
-        <v>482</v>
+        <v>415</v>
       </c>
       <c r="I19" t="n">
-        <v>118.67</v>
+        <v>85</v>
       </c>
       <c r="J19" t="n">
-        <v>19.76</v>
+        <v>17</v>
       </c>
       <c r="K19" t="n">
         <v>2025</v>
@@ -1389,44 +1389,46 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" s="3" t="n">
-        <v>45817</v>
+        <v>45821</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>45817</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Evie Ward</t>
+          <t>Corinna Berndt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>15226502647</v>
+      </c>
       <c r="D20" s="2" t="n">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45820</v>
+        <v>45832</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>600.67</v>
+        <v>833.5</v>
       </c>
       <c r="H20" t="n">
-        <v>482</v>
+        <v>691.8</v>
       </c>
       <c r="I20" t="n">
-        <v>118.67</v>
+        <v>141.7</v>
       </c>
       <c r="J20" t="n">
-        <v>19.76</v>
+        <v>17</v>
       </c>
       <c r="K20" t="n">
         <v>2025</v>
@@ -1436,16 +1438,16 @@
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" s="3" t="n">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>45817</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Amelia Eaton</t>
+          <t>Eric BOS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1454,28 +1456,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>61402780503</v>
+        <v>33666358910</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45821</v>
+        <v>45832</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45825</v>
+        <v>45839</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>500</v>
+        <v>837.5</v>
       </c>
       <c r="H21" t="n">
-        <v>415</v>
+        <v>696.12</v>
       </c>
       <c r="I21" t="n">
-        <v>85</v>
+        <v>141.38</v>
       </c>
       <c r="J21" t="n">
-        <v>17</v>
+        <v>16.88</v>
       </c>
       <c r="K21" t="n">
         <v>2025</v>
@@ -1485,65 +1487,63 @@
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" s="3" t="n">
-        <v>45821</v>
+        <v>45832</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>45821</v>
+        <v>45832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Corinna Berndt</t>
+          <t>LillyLuong</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>15226502647</v>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" s="2" t="n">
-        <v>45825</v>
+        <v>45839</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45832</v>
+        <v>45841</v>
       </c>
       <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>308.79</v>
+      </c>
+      <c r="H22" t="n">
+        <v>250.64</v>
+      </c>
+      <c r="I22" t="n">
+        <v>58.15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L22" t="n">
         <v>7</v>
-      </c>
-      <c r="G22" t="n">
-        <v>833.5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>691.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>17</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2025</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" s="3" t="n">
-        <v>45825</v>
+        <v>45839</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>45825</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Eric BOS</t>
+          <t>Dorothrr SAMSON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1552,47 +1552,47 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>33666358910</v>
+        <v>33617722379</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45832</v>
+        <v>45841</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45839</v>
+        <v>45842</v>
       </c>
       <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>134.87</v>
+      </c>
+      <c r="I23" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="J23" t="n">
+        <v>17</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L23" t="n">
         <v>7</v>
-      </c>
-      <c r="G23" t="n">
-        <v>837.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>696.12</v>
-      </c>
-      <c r="I23" t="n">
-        <v>141.38</v>
-      </c>
-      <c r="J23" t="n">
-        <v>16.88</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2025</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" s="3" t="n">
-        <v>45832</v>
+        <v>45841</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>45832</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lilly Luong</t>
+          <t>Monica Eng</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1602,25 +1602,25 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="2" t="n">
-        <v>45839</v>
+        <v>45842</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45841</v>
+        <v>45846</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>308.79</v>
+        <v>559.9400000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>250.64</v>
+        <v>453.08</v>
       </c>
       <c r="I24" t="n">
-        <v>58.15</v>
+        <v>106.86</v>
       </c>
       <c r="J24" t="n">
-        <v>18.83</v>
+        <v>19.08</v>
       </c>
       <c r="K24" t="n">
         <v>2025</v>
@@ -1630,44 +1630,46 @@
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" s="3" t="n">
-        <v>45839</v>
+        <v>45842</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>45839</v>
+        <v>45842</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LillyLuong</t>
+          <t>RED Swan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>33617722379</v>
+      </c>
       <c r="D25" s="2" t="n">
-        <v>45839</v>
+        <v>45847</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45841</v>
+        <v>45849</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>308.79</v>
+        <v>275</v>
       </c>
       <c r="H25" t="n">
-        <v>250.64</v>
+        <v>224.27</v>
       </c>
       <c r="I25" t="n">
-        <v>58.15</v>
+        <v>50.73</v>
       </c>
       <c r="J25" t="n">
-        <v>18.83</v>
+        <v>18.45</v>
       </c>
       <c r="K25" t="n">
         <v>2025</v>
@@ -1677,46 +1679,44 @@
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" s="3" t="n">
-        <v>45839</v>
+        <v>45847</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>45839</v>
+        <v>45847</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dorothrr SAMSON</t>
+          <t>Karsten Popp</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>33617722379</v>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" s="2" t="n">
-        <v>45841</v>
+        <v>45849</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45842</v>
+        <v>45852</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>162.5</v>
+        <v>490.94</v>
       </c>
       <c r="H26" t="n">
-        <v>134.87</v>
+        <v>395.24</v>
       </c>
       <c r="I26" t="n">
-        <v>27.63</v>
+        <v>95.7</v>
       </c>
       <c r="J26" t="n">
-        <v>17</v>
+        <v>19.49</v>
       </c>
       <c r="K26" t="n">
         <v>2025</v>
@@ -1726,44 +1726,46 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" s="3" t="n">
-        <v>45841</v>
+        <v>45849</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>45841</v>
+        <v>45849</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Monica Eng</t>
+          <t>TIRA RIX</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6140753729</v>
+      </c>
       <c r="D27" s="2" t="n">
-        <v>45842</v>
+        <v>45852</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45846</v>
+        <v>45854</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>559.9400000000001</v>
+        <v>309.12</v>
       </c>
       <c r="H27" t="n">
-        <v>453.08</v>
+        <v>253.79</v>
       </c>
       <c r="I27" t="n">
-        <v>106.86</v>
+        <v>55.33</v>
       </c>
       <c r="J27" t="n">
-        <v>19.08</v>
+        <v>17.9</v>
       </c>
       <c r="K27" t="n">
         <v>2025</v>
@@ -1773,44 +1775,46 @@
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" s="3" t="n">
-        <v>45842</v>
+        <v>45852</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>45842</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MonicaEng</t>
+          <t>Caroline Cavitte</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3363475330</v>
+      </c>
       <c r="D28" s="2" t="n">
-        <v>45842</v>
+        <v>45855</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45846</v>
+        <v>45859</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>559.9400000000001</v>
+        <v>508.04</v>
       </c>
       <c r="H28" t="n">
-        <v>453.08</v>
+        <v>415.93</v>
       </c>
       <c r="I28" t="n">
-        <v>106.86</v>
+        <v>92.11</v>
       </c>
       <c r="J28" t="n">
-        <v>19.08</v>
+        <v>18.13</v>
       </c>
       <c r="K28" t="n">
         <v>2025</v>
@@ -1820,16 +1824,16 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" s="3" t="n">
-        <v>45842</v>
+        <v>45855</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>45842</v>
+        <v>45855</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RED Swan</t>
+          <t>Martens leon</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1838,28 +1842,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>33617722379</v>
+        <v>33315713097</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45847</v>
+        <v>45860</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45849</v>
+        <v>45865</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>275</v>
+        <v>697.8</v>
       </c>
       <c r="H29" t="n">
-        <v>224.27</v>
+        <v>573.28</v>
       </c>
       <c r="I29" t="n">
-        <v>50.73</v>
+        <v>124.52</v>
       </c>
       <c r="J29" t="n">
-        <v>18.45</v>
+        <v>17.84</v>
       </c>
       <c r="K29" t="n">
         <v>2025</v>
@@ -1869,44 +1873,46 @@
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" s="3" t="n">
-        <v>45847</v>
+        <v>45860</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>45847</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Karsten Popp</t>
+          <t>Louann Menard</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3364942650</v>
+      </c>
       <c r="D30" s="2" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45852</v>
+        <v>45870</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>490.94</v>
+        <v>401.18</v>
       </c>
       <c r="H30" t="n">
-        <v>395.24</v>
+        <v>329.68</v>
       </c>
       <c r="I30" t="n">
-        <v>95.7</v>
+        <v>71.5</v>
       </c>
       <c r="J30" t="n">
-        <v>19.49</v>
+        <v>17.82</v>
       </c>
       <c r="K30" t="n">
         <v>2025</v>
@@ -1916,63 +1922,65 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" s="3" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KarstenPopp</t>
+          <t>Costabile Alessio</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>44749116568</v>
+      </c>
       <c r="D31" s="2" t="n">
-        <v>45849</v>
+        <v>45871</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45852</v>
+        <v>45877</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>490.94</v>
+        <v>752.36</v>
       </c>
       <c r="H31" t="n">
-        <v>395.24</v>
+        <v>618.58</v>
       </c>
       <c r="I31" t="n">
-        <v>95.7</v>
+        <v>133.78</v>
       </c>
       <c r="J31" t="n">
-        <v>19.49</v>
+        <v>17.78</v>
       </c>
       <c r="K31" t="n">
         <v>2025</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" s="3" t="n">
-        <v>45849</v>
+        <v>45871</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>45849</v>
+        <v>45871</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TIRA RIX</t>
+          <t>Mika Thielen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1981,47 +1989,47 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6140753729</v>
+        <v>4178406508</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45852</v>
+        <v>45879</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45854</v>
+        <v>45884</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>309.12</v>
+        <v>622.55</v>
       </c>
       <c r="H32" t="n">
-        <v>253.79</v>
+        <v>509.71</v>
       </c>
       <c r="I32" t="n">
-        <v>55.33</v>
+        <v>112.84</v>
       </c>
       <c r="J32" t="n">
-        <v>17.9</v>
+        <v>18.13</v>
       </c>
       <c r="K32" t="n">
         <v>2025</v>
       </c>
       <c r="L32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" s="3" t="n">
-        <v>45852</v>
+        <v>45879</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>45852</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Caroline Cavitte</t>
+          <t>Maria Belen Anaya</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2030,47 +2038,47 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3363475330</v>
+        <v>54911645777</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45855</v>
+        <v>45885</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45859</v>
+        <v>45891</v>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G33" t="n">
-        <v>508.04</v>
+        <v>671.1799999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>415.93</v>
+        <v>550</v>
       </c>
       <c r="I33" t="n">
-        <v>92.11</v>
+        <v>121.18</v>
       </c>
       <c r="J33" t="n">
-        <v>18.13</v>
+        <v>18.05</v>
       </c>
       <c r="K33" t="n">
         <v>2025</v>
       </c>
       <c r="L33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" s="3" t="n">
-        <v>45855</v>
+        <v>45885</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>45855</v>
+        <v>45885</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Martens leon</t>
+          <t>Arnaud Tinhe</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2079,47 +2087,47 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>33315713097</v>
+        <v>4178406508</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45860</v>
+        <v>45893</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45865</v>
+        <v>45900</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G34" t="n">
-        <v>697.8</v>
+        <v>869.42</v>
       </c>
       <c r="H34" t="n">
-        <v>573.28</v>
+        <v>714.87</v>
       </c>
       <c r="I34" t="n">
-        <v>124.52</v>
+        <v>154.55</v>
       </c>
       <c r="J34" t="n">
-        <v>17.84</v>
+        <v>17.78</v>
       </c>
       <c r="K34" t="n">
         <v>2025</v>
       </c>
       <c r="L34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" s="3" t="n">
-        <v>45860</v>
+        <v>45893</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>45860</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Louann Menard</t>
+          <t>Lorens ter Hedde</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2128,47 +2136,47 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3364942650</v>
+        <v>3164007930</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45867</v>
+        <v>45902</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45870</v>
+        <v>45908</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>401.18</v>
+        <v>752.36</v>
       </c>
       <c r="H35" t="n">
-        <v>329.68</v>
+        <v>618.58</v>
       </c>
       <c r="I35" t="n">
-        <v>71.5</v>
+        <v>133.78</v>
       </c>
       <c r="J35" t="n">
-        <v>17.82</v>
+        <v>17.78</v>
       </c>
       <c r="K35" t="n">
         <v>2025</v>
       </c>
       <c r="L35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" s="3" t="n">
-        <v>45867</v>
+        <v>45902</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>45867</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Costabile Alessio</t>
+          <t>Dario Ottobretti</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2177,47 +2185,47 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>44749116568</v>
+        <v>39328785808</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45871</v>
+        <v>45909</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45877</v>
+        <v>45913</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>752.36</v>
+        <v>473.24</v>
       </c>
       <c r="H36" t="n">
-        <v>618.58</v>
+        <v>389.26</v>
       </c>
       <c r="I36" t="n">
-        <v>133.78</v>
+        <v>83.98</v>
       </c>
       <c r="J36" t="n">
-        <v>17.78</v>
+        <v>17.75</v>
       </c>
       <c r="K36" t="n">
         <v>2025</v>
       </c>
       <c r="L36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" s="3" t="n">
-        <v>45871</v>
+        <v>45909</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>45871</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Guillaume ETANDIN</t>
+          <t>Mateusz Lipkowski</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2226,47 +2234,47 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>33687762155</v>
+        <v>4853000719</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45877</v>
+        <v>45914</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45878</v>
+        <v>45917</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>167.06</v>
+        <v>401.18</v>
       </c>
       <c r="H37" t="n">
-        <v>137.1</v>
+        <v>329.88</v>
       </c>
       <c r="I37" t="n">
-        <v>29.96</v>
+        <v>71.3</v>
       </c>
       <c r="J37" t="n">
-        <v>17.93</v>
+        <v>17.77</v>
       </c>
       <c r="K37" t="n">
         <v>2025</v>
       </c>
       <c r="L37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" s="3" t="n">
-        <v>45877</v>
+        <v>45914</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>45877</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mika Thielen</t>
+          <t>Mauro Hugo Peruzzi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2275,47 +2283,47 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4178406508</v>
+        <v>54346645992</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45879</v>
+        <v>45920</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45884</v>
+        <v>45922</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>622.55</v>
+        <v>284.12</v>
       </c>
       <c r="H38" t="n">
-        <v>509.71</v>
+        <v>233.39</v>
       </c>
       <c r="I38" t="n">
-        <v>112.84</v>
+        <v>50.73</v>
       </c>
       <c r="J38" t="n">
-        <v>18.13</v>
+        <v>17.86</v>
       </c>
       <c r="K38" t="n">
         <v>2025</v>
       </c>
       <c r="L38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" s="3" t="n">
-        <v>45879</v>
+        <v>45920</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>45879</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Maria Belen Anaya</t>
+          <t>gauthier charroin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2324,47 +2332,47 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>54911645777</v>
+        <v>3378902994</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45885</v>
+        <v>45926</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45891</v>
+        <v>45928</v>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>671.1799999999999</v>
+        <v>309.12</v>
       </c>
       <c r="H39" t="n">
-        <v>550</v>
+        <v>253.79</v>
       </c>
       <c r="I39" t="n">
-        <v>121.18</v>
+        <v>55.33</v>
       </c>
       <c r="J39" t="n">
-        <v>18.05</v>
+        <v>17.9</v>
       </c>
       <c r="K39" t="n">
         <v>2025</v>
       </c>
       <c r="L39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" s="3" t="n">
-        <v>45885</v>
+        <v>45926</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>45885</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Arnaud Tinhe</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2373,47 +2381,47 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4178406508</v>
+        <v>3163400854</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45893</v>
+        <v>45928</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45900</v>
+        <v>45930</v>
       </c>
       <c r="F40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>869.42</v>
+        <v>284.12</v>
       </c>
       <c r="H40" t="n">
-        <v>714.87</v>
+        <v>233.39</v>
       </c>
       <c r="I40" t="n">
-        <v>154.55</v>
+        <v>50.73</v>
       </c>
       <c r="J40" t="n">
-        <v>17.78</v>
+        <v>17.86</v>
       </c>
       <c r="K40" t="n">
         <v>2025</v>
       </c>
       <c r="L40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" s="3" t="n">
-        <v>45893</v>
+        <v>45928</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>45893</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lorens ter Hedde</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2422,47 +2430,47 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3164007930</v>
+        <v>1250317939</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45902</v>
+        <v>45933</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45908</v>
+        <v>45938</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>752.36</v>
+        <v>647.8</v>
       </c>
       <c r="H41" t="n">
-        <v>618.58</v>
+        <v>532.48</v>
       </c>
       <c r="I41" t="n">
-        <v>133.78</v>
+        <v>115.32</v>
       </c>
       <c r="J41" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K41" t="n">
         <v>2025</v>
       </c>
       <c r="L41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" s="3" t="n">
-        <v>45902</v>
+        <v>45933</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>45902</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dario Ottobretti</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2471,47 +2479,47 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>39328785808</v>
+        <v>3376774051</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45909</v>
+        <v>45939</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45913</v>
+        <v>45943</v>
       </c>
       <c r="F42" t="n">
         <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>473.24</v>
+        <v>528.24</v>
       </c>
       <c r="H42" t="n">
-        <v>389.26</v>
+        <v>434.14</v>
       </c>
       <c r="I42" t="n">
-        <v>83.98</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>17.75</v>
+        <v>17.81</v>
       </c>
       <c r="K42" t="n">
         <v>2025</v>
       </c>
       <c r="L42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" s="3" t="n">
-        <v>45909</v>
+        <v>45939</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>45909</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mateusz Lipkowski</t>
+          <t>Claudine Fleury</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2520,361 +2528,67 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4853000719</v>
+        <v>33334691787</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45914</v>
+        <v>46200</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45917</v>
+        <v>46203</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>401.18</v>
+        <v>468.68</v>
       </c>
       <c r="H43" t="n">
-        <v>329.88</v>
+        <v>374.77</v>
       </c>
       <c r="I43" t="n">
-        <v>71.3</v>
+        <v>93.91</v>
       </c>
       <c r="J43" t="n">
-        <v>17.77</v>
+        <v>20.04</v>
       </c>
       <c r="K43" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="L43" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" s="3" t="n">
-        <v>45914</v>
-      </c>
-      <c r="O43" s="3" t="n">
-        <v>45914</v>
-      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mauro Hugo Peruzzi</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>54346645992</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>45920</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>45922</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>284.12</v>
+        <v>18916.8</v>
       </c>
       <c r="H44" t="n">
-        <v>233.39</v>
+        <v>15527.26</v>
       </c>
       <c r="I44" t="n">
-        <v>50.73</v>
+        <v>3389.54</v>
       </c>
       <c r="J44" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2025</v>
-      </c>
-      <c r="L44" t="n">
-        <v>9</v>
-      </c>
+        <v>17.92</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" s="3" t="n">
-        <v>45920</v>
-      </c>
-      <c r="O44" s="3" t="n">
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>gauthier charroin</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>3378902994</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="n">
-        <v>309.12</v>
-      </c>
-      <c r="H45" t="n">
-        <v>253.79</v>
-      </c>
-      <c r="I45" t="n">
-        <v>55.33</v>
-      </c>
-      <c r="J45" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2025</v>
-      </c>
-      <c r="L45" t="n">
-        <v>9</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" s="3" t="n">
-        <v>45926</v>
-      </c>
-      <c r="O45" s="3" t="n">
-        <v>45926</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Andrey Averyanov</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>3163400854</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>45930</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>284.12</v>
-      </c>
-      <c r="H46" t="n">
-        <v>233.39</v>
-      </c>
-      <c r="I46" t="n">
-        <v>50.73</v>
-      </c>
-      <c r="J46" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2025</v>
-      </c>
-      <c r="L46" t="n">
-        <v>9</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="O46" s="3" t="n">
-        <v>45928</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Timothy Hoffman</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1250317939</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>45933</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="F47" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" t="n">
-        <v>647.8</v>
-      </c>
-      <c r="H47" t="n">
-        <v>532.48</v>
-      </c>
-      <c r="I47" t="n">
-        <v>115.32</v>
-      </c>
-      <c r="J47" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2025</v>
-      </c>
-      <c r="L47" t="n">
-        <v>10</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" s="3" t="n">
-        <v>45933</v>
-      </c>
-      <c r="O47" s="3" t="n">
-        <v>45933</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Enzo Potherat</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>3376774051</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>45939</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>45943</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" t="n">
-        <v>528.24</v>
-      </c>
-      <c r="H48" t="n">
-        <v>434.14</v>
-      </c>
-      <c r="I48" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="J48" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2025</v>
-      </c>
-      <c r="L48" t="n">
-        <v>10</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" s="3" t="n">
-        <v>45939</v>
-      </c>
-      <c r="O48" s="3" t="n">
-        <v>45939</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Claudine Fleury</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>33334691787</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>46200</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>46203</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="n">
-        <v>468.68</v>
-      </c>
-      <c r="H49" t="n">
-        <v>374.77</v>
-      </c>
-      <c r="I49" t="n">
-        <v>93.91</v>
-      </c>
-      <c r="J49" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2026</v>
-      </c>
-      <c r="L49" t="n">
-        <v>6</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="n">
-        <v>16753.96</v>
-      </c>
-      <c r="H50" t="n">
-        <v>13833.27</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2920.69</v>
-      </c>
-      <c r="J50" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2519,7 +2519,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2527,29 +2527,31 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>33334691787</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>+4917661016719</t>
+        </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H43" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I43" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J43" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K43" t="n">
         <v>2026</v>
@@ -2562,33 +2564,78 @@
       <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>33334691787</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
       <c r="G44" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H44" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I44" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J44" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L44" t="n">
+        <v>6</v>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H45" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J45" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2078,7 +2078,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Arnaud Tinhe</t>
+          <t>Luna Ciccardi</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2086,29 +2086,31 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>4178406508</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>+393485814122</t>
+        </is>
       </c>
       <c r="D34" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <v>45893</v>
       </c>
-      <c r="E34" s="2" t="n">
-        <v>45900</v>
-      </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>869.42</v>
+        <v>261.62</v>
       </c>
       <c r="H34" t="n">
-        <v>714.87</v>
+        <v>215.04</v>
       </c>
       <c r="I34" t="n">
-        <v>154.55</v>
+        <v>46.58</v>
       </c>
       <c r="J34" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K34" t="n">
         <v>2025</v>
@@ -2117,17 +2119,13 @@
         <v>8</v>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" s="3" t="n">
-        <v>45893</v>
-      </c>
-      <c r="O34" s="3" t="n">
-        <v>45893</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lorens ter Hedde</t>
+          <t>Arnaud Tinhe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2136,25 +2134,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3164007930</v>
+        <v>4178406508</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45908</v>
+        <v>45900</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G35" t="n">
-        <v>752.36</v>
+        <v>869.42</v>
       </c>
       <c r="H35" t="n">
-        <v>618.58</v>
+        <v>714.87</v>
       </c>
       <c r="I35" t="n">
-        <v>133.78</v>
+        <v>154.55</v>
       </c>
       <c r="J35" t="n">
         <v>17.78</v>
@@ -2163,20 +2161,20 @@
         <v>2025</v>
       </c>
       <c r="L35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" s="3" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dario Ottobretti</t>
+          <t>Lorens ter Hedde</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2185,28 +2183,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>39328785808</v>
+        <v>3164007930</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45913</v>
+        <v>45908</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>473.24</v>
+        <v>752.36</v>
       </c>
       <c r="H36" t="n">
-        <v>389.26</v>
+        <v>618.58</v>
       </c>
       <c r="I36" t="n">
-        <v>83.98</v>
+        <v>133.78</v>
       </c>
       <c r="J36" t="n">
-        <v>17.75</v>
+        <v>17.78</v>
       </c>
       <c r="K36" t="n">
         <v>2025</v>
@@ -2216,16 +2214,16 @@
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mateusz Lipkowski</t>
+          <t>Dario Ottobretti</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2234,28 +2232,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4853000719</v>
+        <v>39328785808</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45917</v>
+        <v>45913</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>401.18</v>
+        <v>473.24</v>
       </c>
       <c r="H37" t="n">
-        <v>329.88</v>
+        <v>389.26</v>
       </c>
       <c r="I37" t="n">
-        <v>71.3</v>
+        <v>83.98</v>
       </c>
       <c r="J37" t="n">
-        <v>17.77</v>
+        <v>17.75</v>
       </c>
       <c r="K37" t="n">
         <v>2025</v>
@@ -2265,16 +2263,16 @@
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mauro Hugo Peruzzi</t>
+          <t>Mateusz Lipkowski</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2283,28 +2281,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>54346645992</v>
+        <v>4853000719</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>284.12</v>
+        <v>401.18</v>
       </c>
       <c r="H38" t="n">
-        <v>233.39</v>
+        <v>329.88</v>
       </c>
       <c r="I38" t="n">
-        <v>50.73</v>
+        <v>71.3</v>
       </c>
       <c r="J38" t="n">
-        <v>17.86</v>
+        <v>17.77</v>
       </c>
       <c r="K38" t="n">
         <v>2025</v>
@@ -2314,16 +2312,16 @@
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>gauthier charroin</t>
+          <t>Mauro Hugo Peruzzi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2332,28 +2330,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3378902994</v>
+        <v>54346645992</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45928</v>
+        <v>45922</v>
       </c>
       <c r="F39" t="n">
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>309.12</v>
+        <v>284.12</v>
       </c>
       <c r="H39" t="n">
-        <v>253.79</v>
+        <v>233.39</v>
       </c>
       <c r="I39" t="n">
-        <v>55.33</v>
+        <v>50.73</v>
       </c>
       <c r="J39" t="n">
-        <v>17.9</v>
+        <v>17.86</v>
       </c>
       <c r="K39" t="n">
         <v>2025</v>
@@ -2363,16 +2361,16 @@
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>gauthier charroin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2381,28 +2379,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3163400854</v>
+        <v>3378902994</v>
       </c>
       <c r="D40" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="E40" s="2" t="n">
         <v>45928</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>45930</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>284.12</v>
+        <v>309.12</v>
       </c>
       <c r="H40" t="n">
-        <v>233.39</v>
+        <v>253.79</v>
       </c>
       <c r="I40" t="n">
-        <v>50.73</v>
+        <v>55.33</v>
       </c>
       <c r="J40" t="n">
-        <v>17.86</v>
+        <v>17.9</v>
       </c>
       <c r="K40" t="n">
         <v>2025</v>
@@ -2412,16 +2410,16 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2430,47 +2428,47 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1250317939</v>
+        <v>3163400854</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H41" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I41" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J41" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K41" t="n">
         <v>2025</v>
       </c>
       <c r="L41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2479,28 +2477,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3376774051</v>
+        <v>1250317939</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H42" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I42" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J42" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K42" t="n">
         <v>2025</v>
@@ -2510,16 +2508,16 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2527,46 +2525,48 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>+4917661016719</t>
-        </is>
+      <c r="C43" t="n">
+        <v>3376774051</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>46176</v>
+        <v>45939</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>46181</v>
+        <v>45943</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>657.8</v>
+        <v>528.24</v>
       </c>
       <c r="H43" t="n">
-        <v>540.64</v>
+        <v>434.14</v>
       </c>
       <c r="I43" t="n">
-        <v>117.16</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J43" t="n">
         <v>17.81</v>
       </c>
       <c r="K43" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="N43" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="O43" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2575,28 +2575,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>33334691787</v>
+        <v>4917661016719</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H44" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I44" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J44" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K44" t="n">
         <v>2026</v>
@@ -2609,33 +2609,78 @@
       <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>33334691787</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
       <c r="G45" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H45" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I45" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J45" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L45" t="n">
+        <v>6</v>
+      </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H46" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J46" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,37 +1980,35 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mika Thielen</t>
+          <t>Fermeture</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>4178406508</v>
-      </c>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" s="2" t="n">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45884</v>
+        <v>45880</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>622.55</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>509.71</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>112.84</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>18.13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>2025</v>
@@ -2019,17 +2017,13 @@
         <v>8</v>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" s="3" t="n">
-        <v>45879</v>
-      </c>
-      <c r="O32" s="3" t="n">
-        <v>45879</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Maria Belen Anaya</t>
+          <t>Mika Thielen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2038,28 +2032,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>54911645777</v>
+        <v>4178406508</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>671.1799999999999</v>
+        <v>622.55</v>
       </c>
       <c r="H33" t="n">
-        <v>550</v>
+        <v>509.71</v>
       </c>
       <c r="I33" t="n">
-        <v>121.18</v>
+        <v>112.84</v>
       </c>
       <c r="J33" t="n">
-        <v>18.05</v>
+        <v>18.13</v>
       </c>
       <c r="K33" t="n">
         <v>2025</v>
@@ -2069,16 +2063,16 @@
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Luna Ciccardi</t>
+          <t>Maria Belen Anaya</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2086,31 +2080,29 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>+393485814122</t>
-        </is>
+      <c r="C34" t="n">
+        <v>54911645777</v>
       </c>
       <c r="D34" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="E34" s="2" t="n">
-        <v>45893</v>
-      </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>261.62</v>
+        <v>671.1799999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>215.04</v>
+        <v>550</v>
       </c>
       <c r="I34" t="n">
-        <v>46.58</v>
+        <v>121.18</v>
       </c>
       <c r="J34" t="n">
-        <v>17.8</v>
+        <v>18.05</v>
       </c>
       <c r="K34" t="n">
         <v>2025</v>
@@ -2119,13 +2111,17 @@
         <v>8</v>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="N34" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>45885</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Arnaud Tinhe</t>
+          <t>Luna Ciccardi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2134,28 +2130,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4178406508</v>
+        <v>393485814122</v>
       </c>
       <c r="D35" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>45893</v>
       </c>
-      <c r="E35" s="2" t="n">
-        <v>45900</v>
-      </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>869.42</v>
+        <v>261.62</v>
       </c>
       <c r="H35" t="n">
-        <v>714.87</v>
+        <v>215.04</v>
       </c>
       <c r="I35" t="n">
-        <v>154.55</v>
+        <v>46.58</v>
       </c>
       <c r="J35" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K35" t="n">
         <v>2025</v>
@@ -2164,17 +2160,13 @@
         <v>8</v>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" s="3" t="n">
-        <v>45893</v>
-      </c>
-      <c r="O35" s="3" t="n">
-        <v>45893</v>
-      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lorens ter Hedde</t>
+          <t>Arnaud Tinhe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2183,25 +2175,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3164007930</v>
+        <v>4178406508</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45908</v>
+        <v>45900</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>752.36</v>
+        <v>869.42</v>
       </c>
       <c r="H36" t="n">
-        <v>618.58</v>
+        <v>714.87</v>
       </c>
       <c r="I36" t="n">
-        <v>133.78</v>
+        <v>154.55</v>
       </c>
       <c r="J36" t="n">
         <v>17.78</v>
@@ -2210,20 +2202,20 @@
         <v>2025</v>
       </c>
       <c r="L36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" s="3" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dario Ottobretti</t>
+          <t>Lorens ter Hedde</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2232,28 +2224,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>39328785808</v>
+        <v>3164007930</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45913</v>
+        <v>45908</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>473.24</v>
+        <v>752.36</v>
       </c>
       <c r="H37" t="n">
-        <v>389.26</v>
+        <v>618.58</v>
       </c>
       <c r="I37" t="n">
-        <v>83.98</v>
+        <v>133.78</v>
       </c>
       <c r="J37" t="n">
-        <v>17.75</v>
+        <v>17.78</v>
       </c>
       <c r="K37" t="n">
         <v>2025</v>
@@ -2263,16 +2255,16 @@
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mateusz Lipkowski</t>
+          <t>Dario Ottobretti</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2281,28 +2273,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4853000719</v>
+        <v>39328785808</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45917</v>
+        <v>45913</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>401.18</v>
+        <v>473.24</v>
       </c>
       <c r="H38" t="n">
-        <v>329.88</v>
+        <v>389.26</v>
       </c>
       <c r="I38" t="n">
-        <v>71.3</v>
+        <v>83.98</v>
       </c>
       <c r="J38" t="n">
-        <v>17.77</v>
+        <v>17.75</v>
       </c>
       <c r="K38" t="n">
         <v>2025</v>
@@ -2312,16 +2304,16 @@
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mauro Hugo Peruzzi</t>
+          <t>Mateusz Lipkowski</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2330,28 +2322,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>54346645992</v>
+        <v>4853000719</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>284.12</v>
+        <v>401.18</v>
       </c>
       <c r="H39" t="n">
-        <v>233.39</v>
+        <v>329.88</v>
       </c>
       <c r="I39" t="n">
-        <v>50.73</v>
+        <v>71.3</v>
       </c>
       <c r="J39" t="n">
-        <v>17.86</v>
+        <v>17.77</v>
       </c>
       <c r="K39" t="n">
         <v>2025</v>
@@ -2361,16 +2353,16 @@
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gauthier charroin</t>
+          <t>Mauro Hugo Peruzzi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2379,28 +2371,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3378902994</v>
+        <v>54346645992</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45928</v>
+        <v>45922</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>309.12</v>
+        <v>284.12</v>
       </c>
       <c r="H40" t="n">
-        <v>253.79</v>
+        <v>233.39</v>
       </c>
       <c r="I40" t="n">
-        <v>55.33</v>
+        <v>50.73</v>
       </c>
       <c r="J40" t="n">
-        <v>17.9</v>
+        <v>17.86</v>
       </c>
       <c r="K40" t="n">
         <v>2025</v>
@@ -2410,16 +2402,16 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>gauthier charroin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2428,28 +2420,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3163400854</v>
+        <v>3378902994</v>
       </c>
       <c r="D41" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="E41" s="2" t="n">
         <v>45928</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>45930</v>
       </c>
       <c r="F41" t="n">
         <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>284.12</v>
+        <v>309.12</v>
       </c>
       <c r="H41" t="n">
-        <v>233.39</v>
+        <v>253.79</v>
       </c>
       <c r="I41" t="n">
-        <v>50.73</v>
+        <v>55.33</v>
       </c>
       <c r="J41" t="n">
-        <v>17.86</v>
+        <v>17.9</v>
       </c>
       <c r="K41" t="n">
         <v>2025</v>
@@ -2459,16 +2451,16 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2477,47 +2469,47 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1250317939</v>
+        <v>3163400854</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H42" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I42" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J42" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K42" t="n">
         <v>2025</v>
       </c>
       <c r="L42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2526,28 +2518,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3376774051</v>
+        <v>1250317939</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H43" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I43" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J43" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K43" t="n">
         <v>2025</v>
@@ -2557,16 +2549,16 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2575,43 +2567,47 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4917661016719</v>
+        <v>3376774051</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>46176</v>
+        <v>45939</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>46181</v>
+        <v>45943</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>657.8</v>
+        <v>528.24</v>
       </c>
       <c r="H44" t="n">
-        <v>540.64</v>
+        <v>434.14</v>
       </c>
       <c r="I44" t="n">
-        <v>117.16</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J44" t="n">
         <v>17.81</v>
       </c>
       <c r="K44" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="N44" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="O44" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2620,28 +2616,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>33334691787</v>
+        <v>4917661016719</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H45" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I45" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J45" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K45" t="n">
         <v>2026</v>
@@ -2654,33 +2650,78 @@
       <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>33334691787</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
       <c r="G46" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H46" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I46" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J46" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6</v>
+      </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H47" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J47" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -1988,15 +1988,19 @@
           <t>Autre</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D32" s="2" t="n">
         <v>45878</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45880</v>
+        <v>45879</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,39 +1980,39 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fermeture</t>
+          <t>Gregory Blanvillain</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Autre</t>
+          <t>Booking</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>+33687762155</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45878</v>
+        <v>45877</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45879</v>
+        <v>45880</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>167.06</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>133.1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>33.96</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>20.33</v>
       </c>
       <c r="K32" t="n">
         <v>2025</v>
@@ -2027,37 +2027,35 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mika Thielen</t>
+          <t>Fermeture</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>4178406508</v>
-      </c>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" s="2" t="n">
+        <v>45878</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>45879</v>
       </c>
-      <c r="E33" s="2" t="n">
-        <v>45884</v>
-      </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>622.55</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>509.71</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>112.84</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.13</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>2025</v>
@@ -2066,17 +2064,13 @@
         <v>8</v>
       </c>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" s="3" t="n">
-        <v>45879</v>
-      </c>
-      <c r="O33" s="3" t="n">
-        <v>45879</v>
-      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Maria Belen Anaya</t>
+          <t>Mika Thielen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2085,28 +2079,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>54911645777</v>
+        <v>4178406508</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>671.1799999999999</v>
+        <v>622.55</v>
       </c>
       <c r="H34" t="n">
-        <v>550</v>
+        <v>509.71</v>
       </c>
       <c r="I34" t="n">
-        <v>121.18</v>
+        <v>112.84</v>
       </c>
       <c r="J34" t="n">
-        <v>18.05</v>
+        <v>18.13</v>
       </c>
       <c r="K34" t="n">
         <v>2025</v>
@@ -2116,16 +2110,16 @@
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Luna Ciccardi</t>
+          <t>Maria Belen Anaya</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2134,28 +2128,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>393485814122</v>
+        <v>54911645777</v>
       </c>
       <c r="D35" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="E35" s="2" t="n">
-        <v>45893</v>
-      </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>261.62</v>
+        <v>671.1799999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>215.04</v>
+        <v>550</v>
       </c>
       <c r="I35" t="n">
-        <v>46.58</v>
+        <v>121.18</v>
       </c>
       <c r="J35" t="n">
-        <v>17.8</v>
+        <v>18.05</v>
       </c>
       <c r="K35" t="n">
         <v>2025</v>
@@ -2164,13 +2158,17 @@
         <v>8</v>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="N35" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>45885</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Arnaud Tinhe</t>
+          <t>Luna Ciccardi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2179,28 +2177,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4178406508</v>
+        <v>393485814122</v>
       </c>
       <c r="D36" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="E36" s="2" t="n">
         <v>45893</v>
       </c>
-      <c r="E36" s="2" t="n">
-        <v>45900</v>
-      </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>869.42</v>
+        <v>261.62</v>
       </c>
       <c r="H36" t="n">
-        <v>714.87</v>
+        <v>215.04</v>
       </c>
       <c r="I36" t="n">
-        <v>154.55</v>
+        <v>46.58</v>
       </c>
       <c r="J36" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K36" t="n">
         <v>2025</v>
@@ -2209,17 +2207,13 @@
         <v>8</v>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" s="3" t="n">
-        <v>45893</v>
-      </c>
-      <c r="O36" s="3" t="n">
-        <v>45893</v>
-      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lorens ter Hedde</t>
+          <t>Arnaud Tinhe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2228,25 +2222,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3164007930</v>
+        <v>4178406508</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45908</v>
+        <v>45900</v>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G37" t="n">
-        <v>752.36</v>
+        <v>869.42</v>
       </c>
       <c r="H37" t="n">
-        <v>618.58</v>
+        <v>714.87</v>
       </c>
       <c r="I37" t="n">
-        <v>133.78</v>
+        <v>154.55</v>
       </c>
       <c r="J37" t="n">
         <v>17.78</v>
@@ -2255,20 +2249,20 @@
         <v>2025</v>
       </c>
       <c r="L37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" s="3" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Dario Ottobretti</t>
+          <t>Lorens ter Hedde</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2277,28 +2271,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>39328785808</v>
+        <v>3164007930</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45913</v>
+        <v>45908</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>473.24</v>
+        <v>752.36</v>
       </c>
       <c r="H38" t="n">
-        <v>389.26</v>
+        <v>618.58</v>
       </c>
       <c r="I38" t="n">
-        <v>83.98</v>
+        <v>133.78</v>
       </c>
       <c r="J38" t="n">
-        <v>17.75</v>
+        <v>17.78</v>
       </c>
       <c r="K38" t="n">
         <v>2025</v>
@@ -2308,16 +2302,16 @@
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mateusz Lipkowski</t>
+          <t>Dario Ottobretti</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2326,28 +2320,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4853000719</v>
+        <v>39328785808</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45917</v>
+        <v>45913</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>401.18</v>
+        <v>473.24</v>
       </c>
       <c r="H39" t="n">
-        <v>329.88</v>
+        <v>389.26</v>
       </c>
       <c r="I39" t="n">
-        <v>71.3</v>
+        <v>83.98</v>
       </c>
       <c r="J39" t="n">
-        <v>17.77</v>
+        <v>17.75</v>
       </c>
       <c r="K39" t="n">
         <v>2025</v>
@@ -2357,16 +2351,16 @@
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mauro Hugo Peruzzi</t>
+          <t>Mateusz Lipkowski</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2375,28 +2369,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>54346645992</v>
+        <v>4853000719</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>284.12</v>
+        <v>401.18</v>
       </c>
       <c r="H40" t="n">
-        <v>233.39</v>
+        <v>329.88</v>
       </c>
       <c r="I40" t="n">
-        <v>50.73</v>
+        <v>71.3</v>
       </c>
       <c r="J40" t="n">
-        <v>17.86</v>
+        <v>17.77</v>
       </c>
       <c r="K40" t="n">
         <v>2025</v>
@@ -2406,16 +2400,16 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>gauthier charroin</t>
+          <t>Mauro Hugo Peruzzi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2424,28 +2418,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3378902994</v>
+        <v>54346645992</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45928</v>
+        <v>45922</v>
       </c>
       <c r="F41" t="n">
         <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>309.12</v>
+        <v>284.12</v>
       </c>
       <c r="H41" t="n">
-        <v>253.79</v>
+        <v>233.39</v>
       </c>
       <c r="I41" t="n">
-        <v>55.33</v>
+        <v>50.73</v>
       </c>
       <c r="J41" t="n">
-        <v>17.9</v>
+        <v>17.86</v>
       </c>
       <c r="K41" t="n">
         <v>2025</v>
@@ -2455,16 +2449,16 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>gauthier charroin</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2473,28 +2467,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3163400854</v>
+        <v>3378902994</v>
       </c>
       <c r="D42" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="E42" s="2" t="n">
         <v>45928</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>45930</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>284.12</v>
+        <v>309.12</v>
       </c>
       <c r="H42" t="n">
-        <v>233.39</v>
+        <v>253.79</v>
       </c>
       <c r="I42" t="n">
-        <v>50.73</v>
+        <v>55.33</v>
       </c>
       <c r="J42" t="n">
-        <v>17.86</v>
+        <v>17.9</v>
       </c>
       <c r="K42" t="n">
         <v>2025</v>
@@ -2504,16 +2498,16 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2522,47 +2516,47 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1250317939</v>
+        <v>3163400854</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H43" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I43" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J43" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K43" t="n">
         <v>2025</v>
       </c>
       <c r="L43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2571,28 +2565,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3376774051</v>
+        <v>1250317939</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H44" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I44" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J44" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K44" t="n">
         <v>2025</v>
@@ -2602,16 +2596,16 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2620,43 +2614,47 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4917661016719</v>
+        <v>3376774051</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>46176</v>
+        <v>45939</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>46181</v>
+        <v>45943</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>657.8</v>
+        <v>528.24</v>
       </c>
       <c r="H45" t="n">
-        <v>540.64</v>
+        <v>434.14</v>
       </c>
       <c r="I45" t="n">
-        <v>117.16</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J45" t="n">
         <v>17.81</v>
       </c>
       <c r="K45" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="N45" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="O45" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2665,28 +2663,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>33334691787</v>
+        <v>4917661016719</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H46" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I46" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J46" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K46" t="n">
         <v>2026</v>
@@ -2699,33 +2697,78 @@
       <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>33334691787</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
       <c r="G47" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H47" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I47" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J47" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6</v>
+      </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H48" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J48" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -1990,17 +1990,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+33687762155</t>
+          <t>33687762155.0</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
         <v>45877</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45880</v>
+        <v>45878</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>167.06</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1931,7 +1931,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Costabile Alessio</t>
+          <t>Linda Boudjemai</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1939,29 +1939,31 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>44749116568</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>+33685678541</t>
+        </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45871</v>
+        <v>45870</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>752.36</v>
+        <v>171.56</v>
       </c>
       <c r="H31" t="n">
-        <v>618.58</v>
+        <v>140.77</v>
       </c>
       <c r="I31" t="n">
-        <v>133.78</v>
+        <v>30.79</v>
       </c>
       <c r="J31" t="n">
-        <v>17.78</v>
+        <v>17.95</v>
       </c>
       <c r="K31" t="n">
         <v>2025</v>
@@ -1970,17 +1972,13 @@
         <v>8</v>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" s="3" t="n">
-        <v>45871</v>
-      </c>
-      <c r="O31" s="3" t="n">
-        <v>45871</v>
-      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gregory Blanvillain</t>
+          <t>Costabile Alessio</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1988,31 +1986,29 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>33687762155.0</t>
-        </is>
+      <c r="C32" t="n">
+        <v>44749116568</v>
       </c>
       <c r="D32" s="2" t="n">
+        <v>45871</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>45877</v>
       </c>
-      <c r="E32" s="2" t="n">
-        <v>45878</v>
-      </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>167.06</v>
+        <v>752.36</v>
       </c>
       <c r="H32" t="n">
-        <v>133.1</v>
+        <v>618.58</v>
       </c>
       <c r="I32" t="n">
-        <v>33.96</v>
+        <v>133.78</v>
       </c>
       <c r="J32" t="n">
-        <v>20.33</v>
+        <v>17.78</v>
       </c>
       <c r="K32" t="n">
         <v>2025</v>
@@ -2021,41 +2017,47 @@
         <v>8</v>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="N32" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>45871</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fermeture</t>
+          <t>Gregory Blanvillain</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Autre</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33687762155</v>
+      </c>
       <c r="D33" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>45878</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>45879</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>167.06</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>133.1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>33.96</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>20.33</v>
       </c>
       <c r="K33" t="n">
         <v>2025</v>
@@ -2070,37 +2072,35 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mika Thielen</t>
+          <t>Fermeture</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>4178406508</v>
-      </c>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" s="2" t="n">
+        <v>45878</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <v>45879</v>
       </c>
-      <c r="E34" s="2" t="n">
-        <v>45884</v>
-      </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>622.55</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>509.71</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.84</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>2025</v>
@@ -2109,17 +2109,13 @@
         <v>8</v>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" s="3" t="n">
-        <v>45879</v>
-      </c>
-      <c r="O34" s="3" t="n">
-        <v>45879</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Maria Belen Anaya</t>
+          <t>Mika Thielen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2128,28 +2124,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>54911645777</v>
+        <v>4178406508</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>671.1799999999999</v>
+        <v>622.55</v>
       </c>
       <c r="H35" t="n">
-        <v>550</v>
+        <v>509.71</v>
       </c>
       <c r="I35" t="n">
-        <v>121.18</v>
+        <v>112.84</v>
       </c>
       <c r="J35" t="n">
-        <v>18.05</v>
+        <v>18.13</v>
       </c>
       <c r="K35" t="n">
         <v>2025</v>
@@ -2159,16 +2155,16 @@
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Luna Ciccardi</t>
+          <t>Maria Belen Anaya</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2177,28 +2173,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>393485814122</v>
+        <v>54911645777</v>
       </c>
       <c r="D36" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="E36" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="E36" s="2" t="n">
-        <v>45893</v>
-      </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>261.62</v>
+        <v>671.1799999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>215.04</v>
+        <v>550</v>
       </c>
       <c r="I36" t="n">
-        <v>46.58</v>
+        <v>121.18</v>
       </c>
       <c r="J36" t="n">
-        <v>17.8</v>
+        <v>18.05</v>
       </c>
       <c r="K36" t="n">
         <v>2025</v>
@@ -2207,13 +2203,17 @@
         <v>8</v>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="N36" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>45885</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Arnaud Tinhe</t>
+          <t>Luna Ciccardi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2222,28 +2222,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4178406508</v>
+        <v>393485814122</v>
       </c>
       <c r="D37" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="E37" s="2" t="n">
         <v>45893</v>
       </c>
-      <c r="E37" s="2" t="n">
-        <v>45900</v>
-      </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>869.42</v>
+        <v>261.62</v>
       </c>
       <c r="H37" t="n">
-        <v>714.87</v>
+        <v>215.04</v>
       </c>
       <c r="I37" t="n">
-        <v>154.55</v>
+        <v>46.58</v>
       </c>
       <c r="J37" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K37" t="n">
         <v>2025</v>
@@ -2252,17 +2252,13 @@
         <v>8</v>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" s="3" t="n">
-        <v>45893</v>
-      </c>
-      <c r="O37" s="3" t="n">
-        <v>45893</v>
-      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lorens ter Hedde</t>
+          <t>Arnaud Tinhe</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2271,25 +2267,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3164007930</v>
+        <v>4178406508</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45908</v>
+        <v>45900</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G38" t="n">
-        <v>752.36</v>
+        <v>869.42</v>
       </c>
       <c r="H38" t="n">
-        <v>618.58</v>
+        <v>714.87</v>
       </c>
       <c r="I38" t="n">
-        <v>133.78</v>
+        <v>154.55</v>
       </c>
       <c r="J38" t="n">
         <v>17.78</v>
@@ -2298,20 +2294,20 @@
         <v>2025</v>
       </c>
       <c r="L38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" s="3" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dario Ottobretti</t>
+          <t>Lorens ter Hedde</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2320,28 +2316,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>39328785808</v>
+        <v>3164007930</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45913</v>
+        <v>45908</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>473.24</v>
+        <v>752.36</v>
       </c>
       <c r="H39" t="n">
-        <v>389.26</v>
+        <v>618.58</v>
       </c>
       <c r="I39" t="n">
-        <v>83.98</v>
+        <v>133.78</v>
       </c>
       <c r="J39" t="n">
-        <v>17.75</v>
+        <v>17.78</v>
       </c>
       <c r="K39" t="n">
         <v>2025</v>
@@ -2351,16 +2347,16 @@
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mateusz Lipkowski</t>
+          <t>Dario Ottobretti</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2369,28 +2365,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4853000719</v>
+        <v>39328785808</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45917</v>
+        <v>45913</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>401.18</v>
+        <v>473.24</v>
       </c>
       <c r="H40" t="n">
-        <v>329.88</v>
+        <v>389.26</v>
       </c>
       <c r="I40" t="n">
-        <v>71.3</v>
+        <v>83.98</v>
       </c>
       <c r="J40" t="n">
-        <v>17.77</v>
+        <v>17.75</v>
       </c>
       <c r="K40" t="n">
         <v>2025</v>
@@ -2400,16 +2396,16 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mauro Hugo Peruzzi</t>
+          <t>Mateusz Lipkowski</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2418,28 +2414,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>54346645992</v>
+        <v>4853000719</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>284.12</v>
+        <v>401.18</v>
       </c>
       <c r="H41" t="n">
-        <v>233.39</v>
+        <v>329.88</v>
       </c>
       <c r="I41" t="n">
-        <v>50.73</v>
+        <v>71.3</v>
       </c>
       <c r="J41" t="n">
-        <v>17.86</v>
+        <v>17.77</v>
       </c>
       <c r="K41" t="n">
         <v>2025</v>
@@ -2449,16 +2445,16 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>gauthier charroin</t>
+          <t>Mauro Hugo Peruzzi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2467,28 +2463,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3378902994</v>
+        <v>54346645992</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45928</v>
+        <v>45922</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>309.12</v>
+        <v>284.12</v>
       </c>
       <c r="H42" t="n">
-        <v>253.79</v>
+        <v>233.39</v>
       </c>
       <c r="I42" t="n">
-        <v>55.33</v>
+        <v>50.73</v>
       </c>
       <c r="J42" t="n">
-        <v>17.9</v>
+        <v>17.86</v>
       </c>
       <c r="K42" t="n">
         <v>2025</v>
@@ -2498,16 +2494,16 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>gauthier charroin</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2516,28 +2512,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3163400854</v>
+        <v>3378902994</v>
       </c>
       <c r="D43" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="E43" s="2" t="n">
         <v>45928</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>45930</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>284.12</v>
+        <v>309.12</v>
       </c>
       <c r="H43" t="n">
-        <v>233.39</v>
+        <v>253.79</v>
       </c>
       <c r="I43" t="n">
-        <v>50.73</v>
+        <v>55.33</v>
       </c>
       <c r="J43" t="n">
-        <v>17.86</v>
+        <v>17.9</v>
       </c>
       <c r="K43" t="n">
         <v>2025</v>
@@ -2547,16 +2543,16 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2565,47 +2561,47 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1250317939</v>
+        <v>3163400854</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H44" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I44" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J44" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K44" t="n">
         <v>2025</v>
       </c>
       <c r="L44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2614,28 +2610,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3376774051</v>
+        <v>1250317939</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H45" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I45" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J45" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K45" t="n">
         <v>2025</v>
@@ -2645,16 +2641,16 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2663,43 +2659,47 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4917661016719</v>
+        <v>3376774051</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>46176</v>
+        <v>45939</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>46181</v>
+        <v>45943</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>657.8</v>
+        <v>528.24</v>
       </c>
       <c r="H46" t="n">
-        <v>540.64</v>
+        <v>434.14</v>
       </c>
       <c r="I46" t="n">
-        <v>117.16</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J46" t="n">
         <v>17.81</v>
       </c>
       <c r="K46" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="N46" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="O46" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2708,28 +2708,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>33334691787</v>
+        <v>4917661016719</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H47" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I47" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J47" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K47" t="n">
         <v>2026</v>
@@ -2742,33 +2742,78 @@
       <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>33334691787</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
       <c r="G48" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H48" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I48" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J48" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6</v>
+      </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J49" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -1941,17 +1941,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+33685678541</t>
+          <t>33685678541.0</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
         <v>45870</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45880</v>
+        <v>45871</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>171.56</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,10 +1939,8 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>33685678541.0</t>
-        </is>
+      <c r="C31" t="n">
+        <v>33685678541</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>45870</v>
@@ -2307,7 +2305,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lorens ter Hedde</t>
+          <t>Misato Hayashi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2315,48 +2313,46 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>3164007930</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>+14038525008</t>
+        </is>
       </c>
       <c r="D39" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="E39" s="2" t="n">
         <v>45902</v>
       </c>
-      <c r="E39" s="2" t="n">
-        <v>45908</v>
-      </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>752.36</v>
+        <v>261.62</v>
       </c>
       <c r="H39" t="n">
-        <v>618.58</v>
+        <v>215.04</v>
       </c>
       <c r="I39" t="n">
-        <v>133.78</v>
+        <v>46.58</v>
       </c>
       <c r="J39" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K39" t="n">
         <v>2025</v>
       </c>
       <c r="L39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" s="3" t="n">
-        <v>45902</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <v>45902</v>
-      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dario Ottobretti</t>
+          <t>Lorens ter Hedde</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2365,28 +2361,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>39328785808</v>
+        <v>3164007930</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45913</v>
+        <v>45908</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>473.24</v>
+        <v>752.36</v>
       </c>
       <c r="H40" t="n">
-        <v>389.26</v>
+        <v>618.58</v>
       </c>
       <c r="I40" t="n">
-        <v>83.98</v>
+        <v>133.78</v>
       </c>
       <c r="J40" t="n">
-        <v>17.75</v>
+        <v>17.78</v>
       </c>
       <c r="K40" t="n">
         <v>2025</v>
@@ -2396,16 +2392,16 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mateusz Lipkowski</t>
+          <t>Dario Ottobretti</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2414,28 +2410,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4853000719</v>
+        <v>39328785808</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45917</v>
+        <v>45913</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>401.18</v>
+        <v>473.24</v>
       </c>
       <c r="H41" t="n">
-        <v>329.88</v>
+        <v>389.26</v>
       </c>
       <c r="I41" t="n">
-        <v>71.3</v>
+        <v>83.98</v>
       </c>
       <c r="J41" t="n">
-        <v>17.77</v>
+        <v>17.75</v>
       </c>
       <c r="K41" t="n">
         <v>2025</v>
@@ -2445,16 +2441,16 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mauro Hugo Peruzzi</t>
+          <t>Mateusz Lipkowski</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2463,28 +2459,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>54346645992</v>
+        <v>4853000719</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>284.12</v>
+        <v>401.18</v>
       </c>
       <c r="H42" t="n">
-        <v>233.39</v>
+        <v>329.88</v>
       </c>
       <c r="I42" t="n">
-        <v>50.73</v>
+        <v>71.3</v>
       </c>
       <c r="J42" t="n">
-        <v>17.86</v>
+        <v>17.77</v>
       </c>
       <c r="K42" t="n">
         <v>2025</v>
@@ -2494,16 +2490,16 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>gauthier charroin</t>
+          <t>Mauro Hugo Peruzzi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2512,28 +2508,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3378902994</v>
+        <v>54346645992</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45928</v>
+        <v>45922</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>309.12</v>
+        <v>284.12</v>
       </c>
       <c r="H43" t="n">
-        <v>253.79</v>
+        <v>233.39</v>
       </c>
       <c r="I43" t="n">
-        <v>55.33</v>
+        <v>50.73</v>
       </c>
       <c r="J43" t="n">
-        <v>17.9</v>
+        <v>17.86</v>
       </c>
       <c r="K43" t="n">
         <v>2025</v>
@@ -2543,16 +2539,16 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>gauthier charroin</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2561,28 +2557,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3163400854</v>
+        <v>3378902994</v>
       </c>
       <c r="D44" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="E44" s="2" t="n">
         <v>45928</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>45930</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>284.12</v>
+        <v>309.12</v>
       </c>
       <c r="H44" t="n">
-        <v>233.39</v>
+        <v>253.79</v>
       </c>
       <c r="I44" t="n">
-        <v>50.73</v>
+        <v>55.33</v>
       </c>
       <c r="J44" t="n">
-        <v>17.86</v>
+        <v>17.9</v>
       </c>
       <c r="K44" t="n">
         <v>2025</v>
@@ -2592,16 +2588,16 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2610,47 +2606,47 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1250317939</v>
+        <v>3163400854</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H45" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I45" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J45" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K45" t="n">
         <v>2025</v>
       </c>
       <c r="L45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2659,28 +2655,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3376774051</v>
+        <v>1250317939</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H46" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I46" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J46" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K46" t="n">
         <v>2025</v>
@@ -2690,16 +2686,16 @@
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2708,43 +2704,47 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4917661016719</v>
+        <v>3376774051</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>46176</v>
+        <v>45939</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>46181</v>
+        <v>45943</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>657.8</v>
+        <v>528.24</v>
       </c>
       <c r="H47" t="n">
-        <v>540.64</v>
+        <v>434.14</v>
       </c>
       <c r="I47" t="n">
-        <v>117.16</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J47" t="n">
         <v>17.81</v>
       </c>
       <c r="K47" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="N47" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="O47" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2753,28 +2753,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>33334691787</v>
+        <v>4917661016719</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H48" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I48" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J48" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K48" t="n">
         <v>2026</v>
@@ -2787,33 +2787,78 @@
       <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>33334691787</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
       <c r="G49" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H49" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I49" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J49" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6</v>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J50" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Guillaume Etandin</t>
+          <t>Cristina Testoni</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -528,46 +528,46 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>+393316017468</t>
+        </is>
+      </c>
       <c r="D2" s="2" t="n">
-        <v>45656</v>
+        <v>45597</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45660</v>
+        <v>45880</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="G2" t="n">
-        <v>460</v>
+        <v>244.34</v>
       </c>
       <c r="H2" t="n">
-        <v>375.36</v>
+        <v>200.75</v>
       </c>
       <c r="I2" t="n">
-        <v>84.64</v>
+        <v>43.59</v>
       </c>
       <c r="J2" t="n">
-        <v>18.4</v>
+        <v>17.84</v>
       </c>
       <c r="K2" t="n">
         <v>2024</v>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" s="3" t="n">
-        <v>45656</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>45656</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Olivier Condesso</t>
+          <t>Guillaume Etandin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -575,48 +575,46 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>33624532669</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" s="2" t="n">
-        <v>45717</v>
+        <v>45656</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45718</v>
+        <v>45660</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>153.5</v>
+        <v>460</v>
       </c>
       <c r="H3" t="n">
-        <v>125.25</v>
+        <v>375.36</v>
       </c>
       <c r="I3" t="n">
-        <v>28.25</v>
+        <v>84.64</v>
       </c>
       <c r="J3" t="n">
         <v>18.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" s="3" t="n">
-        <v>45717</v>
+        <v>45656</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>45717</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>joseph parrella</t>
+          <t>Olivier Condesso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -625,25 +623,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33749649080</v>
+        <v>33624532669</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45726</v>
+        <v>45717</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45730</v>
+        <v>45718</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>464</v>
+        <v>153.5</v>
       </c>
       <c r="H4" t="n">
-        <v>378.62</v>
+        <v>125.25</v>
       </c>
       <c r="I4" t="n">
-        <v>85.38</v>
+        <v>28.25</v>
       </c>
       <c r="J4" t="n">
         <v>18.4</v>
@@ -656,16 +654,16 @@
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" s="3" t="n">
-        <v>45726</v>
+        <v>45717</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>45726</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gracia Ballesteros</t>
+          <t>joseph parrella</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -674,25 +672,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34629769069</v>
+        <v>33749649080</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45763</v>
+        <v>45726</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45767</v>
+        <v>45730</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H5" t="n">
-        <v>375.36</v>
+        <v>378.62</v>
       </c>
       <c r="I5" t="n">
-        <v>84.64</v>
+        <v>85.38</v>
       </c>
       <c r="J5" t="n">
         <v>18.4</v>
@@ -701,20 +699,20 @@
         <v>2025</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" s="3" t="n">
-        <v>45763</v>
+        <v>45726</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>45763</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>chiara fontana</t>
+          <t>Gracia Ballesteros</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -723,47 +721,47 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33617722379</v>
+        <v>34629769069</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45778</v>
+        <v>45763</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45780</v>
+        <v>45767</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>236.3</v>
+        <v>460</v>
       </c>
       <c r="H6" t="n">
-        <v>192.84</v>
+        <v>375.36</v>
       </c>
       <c r="I6" t="n">
-        <v>43.46</v>
+        <v>84.64</v>
       </c>
       <c r="J6" t="n">
-        <v>18.39</v>
+        <v>18.4</v>
       </c>
       <c r="K6" t="n">
         <v>2025</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" s="3" t="n">
-        <v>45778</v>
+        <v>45763</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>45778</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>algis smaliukas</t>
+          <t>chiara fontana</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -772,13 +770,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37065615323</v>
+        <v>33617722379</v>
       </c>
       <c r="D7" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>45780</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>45782</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -803,16 +801,16 @@
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" s="3" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Reguera, Michael</t>
+          <t>algis smaliukas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -821,13 +819,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33641153827</v>
+        <v>37065615323</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45785</v>
+        <v>45780</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45787</v>
+        <v>45782</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -852,16 +850,16 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" s="3" t="n">
-        <v>45785</v>
+        <v>45780</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>45785</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Juliette Prins</t>
+          <t>Reguera, Michael</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -870,28 +868,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33617722379</v>
+        <v>33641153827</v>
       </c>
       <c r="D9" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>45787</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>45790</v>
-      </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>360.5</v>
+        <v>236.3</v>
       </c>
       <c r="H9" t="n">
-        <v>299.21</v>
+        <v>192.84</v>
       </c>
       <c r="I9" t="n">
-        <v>61.29</v>
+        <v>43.46</v>
       </c>
       <c r="J9" t="n">
-        <v>17</v>
+        <v>18.39</v>
       </c>
       <c r="K9" t="n">
         <v>2025</v>
@@ -901,16 +899,16 @@
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" s="3" t="n">
-        <v>45787</v>
+        <v>45785</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>45787</v>
+        <v>45785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Denisa Lazarova Molnarova</t>
+          <t>Juliette Prins</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -922,25 +920,25 @@
         <v>33617722379</v>
       </c>
       <c r="D10" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>45790</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>45794</v>
-      </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>422.6</v>
+        <v>360.5</v>
       </c>
       <c r="H10" t="n">
-        <v>356.26</v>
+        <v>299.21</v>
       </c>
       <c r="I10" t="n">
-        <v>66.34</v>
+        <v>61.29</v>
       </c>
       <c r="J10" t="n">
-        <v>15.7</v>
+        <v>17</v>
       </c>
       <c r="K10" t="n">
         <v>2025</v>
@@ -950,16 +948,16 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" s="3" t="n">
-        <v>45790</v>
+        <v>45787</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>45790</v>
+        <v>45787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Domenic Boscariol</t>
+          <t>Denisa Lazarova Molnarova</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -968,28 +966,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14382755304</v>
+        <v>33617722379</v>
       </c>
       <c r="D11" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>45801</v>
-      </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>774.5</v>
+        <v>422.6</v>
       </c>
       <c r="H11" t="n">
-        <v>632.5</v>
+        <v>356.26</v>
       </c>
       <c r="I11" t="n">
-        <v>142</v>
+        <v>66.34</v>
       </c>
       <c r="J11" t="n">
-        <v>18.33</v>
+        <v>15.7</v>
       </c>
       <c r="K11" t="n">
         <v>2025</v>
@@ -999,16 +997,16 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" s="3" t="n">
-        <v>45794</v>
+        <v>45790</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>45794</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aimee Packman</t>
+          <t>Domenic Boscariol</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1017,28 +1015,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33617722379</v>
+        <v>14382755304</v>
       </c>
       <c r="D12" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>45801</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>45802</v>
-      </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>161</v>
+        <v>774.5</v>
       </c>
       <c r="H12" t="n">
-        <v>133.63</v>
+        <v>632.5</v>
       </c>
       <c r="I12" t="n">
-        <v>27.37</v>
+        <v>142</v>
       </c>
       <c r="J12" t="n">
-        <v>17</v>
+        <v>18.33</v>
       </c>
       <c r="K12" t="n">
         <v>2025</v>
@@ -1048,16 +1046,16 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" s="3" t="n">
-        <v>45801</v>
+        <v>45794</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>45801</v>
+        <v>45794</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Xue Wang</t>
+          <t>Aimee Packman</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1066,25 +1064,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>31686384020</v>
+        <v>33617722379</v>
       </c>
       <c r="D13" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>45802</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>45805</v>
-      </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>329.45</v>
+        <v>161</v>
       </c>
       <c r="H13" t="n">
-        <v>273.44</v>
+        <v>133.63</v>
       </c>
       <c r="I13" t="n">
-        <v>56.01</v>
+        <v>27.37</v>
       </c>
       <c r="J13" t="n">
         <v>17</v>
@@ -1097,16 +1095,16 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" s="3" t="n">
-        <v>45802</v>
+        <v>45801</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>45802</v>
+        <v>45801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Samet Pishleski</t>
+          <t>Xue Wang</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1115,25 +1113,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41799339853</v>
+        <v>31686384020</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45806</v>
+        <v>45802</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45809</v>
+        <v>45805</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>360.5</v>
+        <v>329.45</v>
       </c>
       <c r="H14" t="n">
-        <v>299.21</v>
+        <v>273.44</v>
       </c>
       <c r="I14" t="n">
-        <v>61.29</v>
+        <v>56.01</v>
       </c>
       <c r="J14" t="n">
         <v>17</v>
@@ -1146,16 +1144,16 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" s="3" t="n">
-        <v>45806</v>
+        <v>45802</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>45806</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Christian Kohlberg</t>
+          <t>Samet Pishleski</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1164,25 +1162,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1776721532</v>
+        <v>41799339853</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45811</v>
+        <v>45806</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45814</v>
+        <v>45809</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>387.5</v>
+        <v>360.5</v>
       </c>
       <c r="H15" t="n">
-        <v>321.62</v>
+        <v>299.21</v>
       </c>
       <c r="I15" t="n">
-        <v>65.88</v>
+        <v>61.29</v>
       </c>
       <c r="J15" t="n">
         <v>17</v>
@@ -1191,20 +1189,20 @@
         <v>2025</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" s="3" t="n">
-        <v>45811</v>
+        <v>45806</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>45811</v>
+        <v>45806</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wendy Agema</t>
+          <t>Christian Kohlberg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1213,25 +1211,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33650232246</v>
+        <v>1776721532</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45815</v>
+        <v>45811</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45816</v>
+        <v>45814</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>162.5</v>
+        <v>387.5</v>
       </c>
       <c r="H16" t="n">
-        <v>134.87</v>
+        <v>321.62</v>
       </c>
       <c r="I16" t="n">
-        <v>27.63</v>
+        <v>65.88</v>
       </c>
       <c r="J16" t="n">
         <v>17</v>
@@ -1244,16 +1242,16 @@
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" s="3" t="n">
-        <v>45815</v>
+        <v>45811</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>45815</v>
+        <v>45811</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>maxime prodromidès</t>
+          <t>Wendy Agema</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1262,13 +1260,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33619201804</v>
+        <v>33650232246</v>
       </c>
       <c r="D17" s="2" t="n">
+        <v>45815</v>
+      </c>
+      <c r="E17" s="2" t="n">
         <v>45816</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>45817</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1293,44 +1291,46 @@
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" s="3" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Evie Ward</t>
+          <t>maxime prodromidès</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>33619201804</v>
+      </c>
       <c r="D18" s="2" t="n">
+        <v>45816</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="E18" s="2" t="n">
-        <v>45820</v>
-      </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>600.67</v>
+        <v>162.5</v>
       </c>
       <c r="H18" t="n">
-        <v>482</v>
+        <v>134.87</v>
       </c>
       <c r="I18" t="n">
-        <v>118.67</v>
+        <v>27.63</v>
       </c>
       <c r="J18" t="n">
-        <v>19.76</v>
+        <v>17</v>
       </c>
       <c r="K18" t="n">
         <v>2025</v>
@@ -1340,46 +1340,44 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" s="3" t="n">
-        <v>45817</v>
+        <v>45816</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>45817</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Amelia Eaton</t>
+          <t>Evie Ward</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>61402780503</v>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" s="2" t="n">
-        <v>45821</v>
+        <v>45817</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45825</v>
+        <v>45820</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>500</v>
+        <v>600.67</v>
       </c>
       <c r="H19" t="n">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="I19" t="n">
-        <v>85</v>
+        <v>118.67</v>
       </c>
       <c r="J19" t="n">
-        <v>17</v>
+        <v>19.76</v>
       </c>
       <c r="K19" t="n">
         <v>2025</v>
@@ -1389,16 +1387,16 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" s="3" t="n">
-        <v>45821</v>
+        <v>45817</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>45821</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Corinna Berndt</t>
+          <t>Amelia Eaton</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1407,25 +1405,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15226502647</v>
+        <v>61402780503</v>
       </c>
       <c r="D20" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>45825</v>
       </c>
-      <c r="E20" s="2" t="n">
-        <v>45832</v>
-      </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>833.5</v>
+        <v>500</v>
       </c>
       <c r="H20" t="n">
-        <v>691.8</v>
+        <v>415</v>
       </c>
       <c r="I20" t="n">
-        <v>141.7</v>
+        <v>85</v>
       </c>
       <c r="J20" t="n">
         <v>17</v>
@@ -1438,16 +1436,16 @@
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" s="3" t="n">
-        <v>45825</v>
+        <v>45821</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>45825</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Eric BOS</t>
+          <t>Corinna Berndt</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1456,28 +1454,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33666358910</v>
+        <v>15226502647</v>
       </c>
       <c r="D21" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <v>45832</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>45839</v>
       </c>
       <c r="F21" t="n">
         <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>837.5</v>
+        <v>833.5</v>
       </c>
       <c r="H21" t="n">
-        <v>696.12</v>
+        <v>691.8</v>
       </c>
       <c r="I21" t="n">
-        <v>141.38</v>
+        <v>141.7</v>
       </c>
       <c r="J21" t="n">
-        <v>16.88</v>
+        <v>17</v>
       </c>
       <c r="K21" t="n">
         <v>2025</v>
@@ -1487,93 +1485,93 @@
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" s="3" t="n">
-        <v>45832</v>
+        <v>45825</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>45832</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LillyLuong</t>
+          <t>Eric BOS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>33666358910</v>
+      </c>
       <c r="D22" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <v>45839</v>
       </c>
-      <c r="E22" s="2" t="n">
-        <v>45841</v>
-      </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>308.79</v>
+        <v>837.5</v>
       </c>
       <c r="H22" t="n">
-        <v>250.64</v>
+        <v>696.12</v>
       </c>
       <c r="I22" t="n">
-        <v>58.15</v>
+        <v>141.38</v>
       </c>
       <c r="J22" t="n">
-        <v>18.83</v>
+        <v>16.88</v>
       </c>
       <c r="K22" t="n">
         <v>2025</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" s="3" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dorothrr SAMSON</t>
+          <t>LillyLuong</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>33617722379</v>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="E23" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="E23" s="2" t="n">
-        <v>45842</v>
-      </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>162.5</v>
+        <v>308.79</v>
       </c>
       <c r="H23" t="n">
-        <v>134.87</v>
+        <v>250.64</v>
       </c>
       <c r="I23" t="n">
-        <v>27.63</v>
+        <v>58.15</v>
       </c>
       <c r="J23" t="n">
-        <v>17</v>
+        <v>18.83</v>
       </c>
       <c r="K23" t="n">
         <v>2025</v>
@@ -1583,44 +1581,46 @@
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" s="3" t="n">
-        <v>45841</v>
+        <v>45839</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>45841</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Monica Eng</t>
+          <t>Dorothrr SAMSON</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>33617722379</v>
+      </c>
       <c r="D24" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="E24" s="2" t="n">
-        <v>45846</v>
-      </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>559.9400000000001</v>
+        <v>162.5</v>
       </c>
       <c r="H24" t="n">
-        <v>453.08</v>
+        <v>134.87</v>
       </c>
       <c r="I24" t="n">
-        <v>106.86</v>
+        <v>27.63</v>
       </c>
       <c r="J24" t="n">
-        <v>19.08</v>
+        <v>17</v>
       </c>
       <c r="K24" t="n">
         <v>2025</v>
@@ -1630,46 +1630,44 @@
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" s="3" t="n">
-        <v>45842</v>
+        <v>45841</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>45842</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RED Swan</t>
+          <t>Monica Eng</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>33617722379</v>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" s="2" t="n">
-        <v>45847</v>
+        <v>45842</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45849</v>
+        <v>45846</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>275</v>
+        <v>559.9400000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>224.27</v>
+        <v>453.08</v>
       </c>
       <c r="I25" t="n">
-        <v>50.73</v>
+        <v>106.86</v>
       </c>
       <c r="J25" t="n">
-        <v>18.45</v>
+        <v>19.08</v>
       </c>
       <c r="K25" t="n">
         <v>2025</v>
@@ -1679,44 +1677,46 @@
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" s="3" t="n">
-        <v>45847</v>
+        <v>45842</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>45847</v>
+        <v>45842</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Karsten Popp</t>
+          <t>RED Swan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>33617722379</v>
+      </c>
       <c r="D26" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="E26" s="2" t="n">
         <v>45849</v>
       </c>
-      <c r="E26" s="2" t="n">
-        <v>45852</v>
-      </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>490.94</v>
+        <v>275</v>
       </c>
       <c r="H26" t="n">
-        <v>395.24</v>
+        <v>224.27</v>
       </c>
       <c r="I26" t="n">
-        <v>95.7</v>
+        <v>50.73</v>
       </c>
       <c r="J26" t="n">
-        <v>19.49</v>
+        <v>18.45</v>
       </c>
       <c r="K26" t="n">
         <v>2025</v>
@@ -1726,46 +1726,44 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" s="3" t="n">
-        <v>45849</v>
+        <v>45847</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>45849</v>
+        <v>45847</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TIRA RIX</t>
+          <t>Karsten Popp</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>6140753729</v>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="E27" s="2" t="n">
         <v>45852</v>
       </c>
-      <c r="E27" s="2" t="n">
-        <v>45854</v>
-      </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>309.12</v>
+        <v>490.94</v>
       </c>
       <c r="H27" t="n">
-        <v>253.79</v>
+        <v>395.24</v>
       </c>
       <c r="I27" t="n">
-        <v>55.33</v>
+        <v>95.7</v>
       </c>
       <c r="J27" t="n">
-        <v>17.9</v>
+        <v>19.49</v>
       </c>
       <c r="K27" t="n">
         <v>2025</v>
@@ -1775,16 +1773,16 @@
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" s="3" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Caroline Cavitte</t>
+          <t>TIRA RIX</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1793,28 +1791,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3363475330</v>
+        <v>6140753729</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45859</v>
+        <v>45854</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>508.04</v>
+        <v>309.12</v>
       </c>
       <c r="H28" t="n">
-        <v>415.93</v>
+        <v>253.79</v>
       </c>
       <c r="I28" t="n">
-        <v>92.11</v>
+        <v>55.33</v>
       </c>
       <c r="J28" t="n">
-        <v>18.13</v>
+        <v>17.9</v>
       </c>
       <c r="K28" t="n">
         <v>2025</v>
@@ -1824,16 +1822,16 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" s="3" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Martens leon</t>
+          <t>Caroline Cavitte</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1842,28 +1840,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>33315713097</v>
+        <v>3363475330</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45860</v>
+        <v>45855</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45865</v>
+        <v>45859</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>697.8</v>
+        <v>508.04</v>
       </c>
       <c r="H29" t="n">
-        <v>573.28</v>
+        <v>415.93</v>
       </c>
       <c r="I29" t="n">
-        <v>124.52</v>
+        <v>92.11</v>
       </c>
       <c r="J29" t="n">
-        <v>17.84</v>
+        <v>18.13</v>
       </c>
       <c r="K29" t="n">
         <v>2025</v>
@@ -1873,16 +1871,16 @@
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" s="3" t="n">
-        <v>45860</v>
+        <v>45855</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>45860</v>
+        <v>45855</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Louann Menard</t>
+          <t>Martens leon</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1891,28 +1889,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3364942650</v>
+        <v>33315713097</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45867</v>
+        <v>45860</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45870</v>
+        <v>45865</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>401.18</v>
+        <v>697.8</v>
       </c>
       <c r="H30" t="n">
-        <v>329.68</v>
+        <v>573.28</v>
       </c>
       <c r="I30" t="n">
-        <v>71.5</v>
+        <v>124.52</v>
       </c>
       <c r="J30" t="n">
-        <v>17.82</v>
+        <v>17.84</v>
       </c>
       <c r="K30" t="n">
         <v>2025</v>
@@ -1922,16 +1920,16 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" s="3" t="n">
-        <v>45867</v>
+        <v>45860</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>45867</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Linda Boudjemai</t>
+          <t>Louann Menard</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1940,43 +1938,47 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>33685678541</v>
+        <v>3364942650</v>
       </c>
       <c r="D31" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="E31" s="2" t="n">
         <v>45870</v>
       </c>
-      <c r="E31" s="2" t="n">
-        <v>45871</v>
-      </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>171.56</v>
+        <v>401.18</v>
       </c>
       <c r="H31" t="n">
-        <v>140.77</v>
+        <v>329.68</v>
       </c>
       <c r="I31" t="n">
-        <v>30.79</v>
+        <v>71.5</v>
       </c>
       <c r="J31" t="n">
-        <v>17.95</v>
+        <v>17.82</v>
       </c>
       <c r="K31" t="n">
         <v>2025</v>
       </c>
       <c r="L31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="N31" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>45867</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Costabile Alessio</t>
+          <t>Linda Boudjemai</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1985,28 +1987,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>44749116568</v>
+        <v>33685678541</v>
       </c>
       <c r="D32" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>45871</v>
       </c>
-      <c r="E32" s="2" t="n">
-        <v>45877</v>
-      </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>752.36</v>
+        <v>171.56</v>
       </c>
       <c r="H32" t="n">
-        <v>618.58</v>
+        <v>140.77</v>
       </c>
       <c r="I32" t="n">
-        <v>133.78</v>
+        <v>30.79</v>
       </c>
       <c r="J32" t="n">
-        <v>17.78</v>
+        <v>17.95</v>
       </c>
       <c r="K32" t="n">
         <v>2025</v>
@@ -2015,17 +2017,13 @@
         <v>8</v>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" s="3" t="n">
-        <v>45871</v>
-      </c>
-      <c r="O32" s="3" t="n">
-        <v>45871</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gregory Blanvillain</t>
+          <t>Costabile Alessio</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2034,28 +2032,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>33687762155</v>
+        <v>44749116568</v>
       </c>
       <c r="D33" s="2" t="n">
+        <v>45871</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>45877</v>
       </c>
-      <c r="E33" s="2" t="n">
-        <v>45878</v>
-      </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G33" t="n">
-        <v>167.06</v>
+        <v>752.36</v>
       </c>
       <c r="H33" t="n">
-        <v>133.1</v>
+        <v>618.58</v>
       </c>
       <c r="I33" t="n">
-        <v>33.96</v>
+        <v>133.78</v>
       </c>
       <c r="J33" t="n">
-        <v>20.33</v>
+        <v>17.78</v>
       </c>
       <c r="K33" t="n">
         <v>2025</v>
@@ -2064,41 +2062,47 @@
         <v>8</v>
       </c>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="N33" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>45871</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fermeture</t>
+          <t>Gregory Blanvillain</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Autre</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33687762155</v>
+      </c>
       <c r="D34" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <v>45878</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>45879</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.06</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.96</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>20.33</v>
       </c>
       <c r="K34" t="n">
         <v>2025</v>
@@ -2113,37 +2117,35 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mika Thielen</t>
+          <t>Fermeture</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>4178406508</v>
-      </c>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" s="2" t="n">
+        <v>45878</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>45879</v>
       </c>
-      <c r="E35" s="2" t="n">
-        <v>45884</v>
-      </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>622.55</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>509.71</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>112.84</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>18.13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>2025</v>
@@ -2152,17 +2154,13 @@
         <v>8</v>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" s="3" t="n">
-        <v>45879</v>
-      </c>
-      <c r="O35" s="3" t="n">
-        <v>45879</v>
-      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Maria Belen Anaya</t>
+          <t>Mika Thielen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2171,28 +2169,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>54911645777</v>
+        <v>4178406508</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>671.1799999999999</v>
+        <v>622.55</v>
       </c>
       <c r="H36" t="n">
-        <v>550</v>
+        <v>509.71</v>
       </c>
       <c r="I36" t="n">
-        <v>121.18</v>
+        <v>112.84</v>
       </c>
       <c r="J36" t="n">
-        <v>18.05</v>
+        <v>18.13</v>
       </c>
       <c r="K36" t="n">
         <v>2025</v>
@@ -2202,16 +2200,16 @@
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Luna Ciccardi</t>
+          <t>Maria Belen Anaya</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2220,28 +2218,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>393485814122</v>
+        <v>54911645777</v>
       </c>
       <c r="D37" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="E37" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="E37" s="2" t="n">
-        <v>45893</v>
-      </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>261.62</v>
+        <v>671.1799999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>215.04</v>
+        <v>550</v>
       </c>
       <c r="I37" t="n">
-        <v>46.58</v>
+        <v>121.18</v>
       </c>
       <c r="J37" t="n">
-        <v>17.8</v>
+        <v>18.05</v>
       </c>
       <c r="K37" t="n">
         <v>2025</v>
@@ -2250,13 +2248,17 @@
         <v>8</v>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="N37" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>45885</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Arnaud Tinhe</t>
+          <t>Luna Ciccardi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2265,28 +2267,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4178406508</v>
+        <v>393485814122</v>
       </c>
       <c r="D38" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="E38" s="2" t="n">
         <v>45893</v>
       </c>
-      <c r="E38" s="2" t="n">
-        <v>45900</v>
-      </c>
       <c r="F38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>869.42</v>
+        <v>261.62</v>
       </c>
       <c r="H38" t="n">
-        <v>714.87</v>
+        <v>215.04</v>
       </c>
       <c r="I38" t="n">
-        <v>154.55</v>
+        <v>46.58</v>
       </c>
       <c r="J38" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K38" t="n">
         <v>2025</v>
@@ -2295,17 +2297,13 @@
         <v>8</v>
       </c>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" s="3" t="n">
-        <v>45893</v>
-      </c>
-      <c r="O38" s="3" t="n">
-        <v>45893</v>
-      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Misato Hayashi</t>
+          <t>Arnaud Tinhe</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2313,31 +2311,29 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>+14038525008</t>
-        </is>
+      <c r="C39" t="n">
+        <v>4178406508</v>
       </c>
       <c r="D39" s="2" t="n">
+        <v>45893</v>
+      </c>
+      <c r="E39" s="2" t="n">
         <v>45900</v>
       </c>
-      <c r="E39" s="2" t="n">
-        <v>45902</v>
-      </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>261.62</v>
+        <v>869.42</v>
       </c>
       <c r="H39" t="n">
-        <v>215.04</v>
+        <v>714.87</v>
       </c>
       <c r="I39" t="n">
-        <v>46.58</v>
+        <v>154.55</v>
       </c>
       <c r="J39" t="n">
-        <v>17.8</v>
+        <v>17.78</v>
       </c>
       <c r="K39" t="n">
         <v>2025</v>
@@ -2346,13 +2342,17 @@
         <v>8</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="N39" s="3" t="n">
+        <v>45893</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>45893</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lorens ter Hedde</t>
+          <t>Misato Hayashi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2361,47 +2361,43 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3164007930</v>
+        <v>14038525008</v>
       </c>
       <c r="D40" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="E40" s="2" t="n">
         <v>45902</v>
       </c>
-      <c r="E40" s="2" t="n">
-        <v>45908</v>
-      </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>752.36</v>
+        <v>261.62</v>
       </c>
       <c r="H40" t="n">
-        <v>618.58</v>
+        <v>215.04</v>
       </c>
       <c r="I40" t="n">
-        <v>133.78</v>
+        <v>46.58</v>
       </c>
       <c r="J40" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K40" t="n">
         <v>2025</v>
       </c>
       <c r="L40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" s="3" t="n">
-        <v>45902</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <v>45902</v>
-      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dario Ottobretti</t>
+          <t>Lorens ter Hedde</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2410,28 +2406,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>39328785808</v>
+        <v>3164007930</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45913</v>
+        <v>45908</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>473.24</v>
+        <v>752.36</v>
       </c>
       <c r="H41" t="n">
-        <v>389.26</v>
+        <v>618.58</v>
       </c>
       <c r="I41" t="n">
-        <v>83.98</v>
+        <v>133.78</v>
       </c>
       <c r="J41" t="n">
-        <v>17.75</v>
+        <v>17.78</v>
       </c>
       <c r="K41" t="n">
         <v>2025</v>
@@ -2441,16 +2437,16 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mateusz Lipkowski</t>
+          <t>Dario Ottobretti</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2459,28 +2455,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4853000719</v>
+        <v>39328785808</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45917</v>
+        <v>45913</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>401.18</v>
+        <v>473.24</v>
       </c>
       <c r="H42" t="n">
-        <v>329.88</v>
+        <v>389.26</v>
       </c>
       <c r="I42" t="n">
-        <v>71.3</v>
+        <v>83.98</v>
       </c>
       <c r="J42" t="n">
-        <v>17.77</v>
+        <v>17.75</v>
       </c>
       <c r="K42" t="n">
         <v>2025</v>
@@ -2490,16 +2486,16 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mauro Hugo Peruzzi</t>
+          <t>Mateusz Lipkowski</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2508,28 +2504,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>54346645992</v>
+        <v>4853000719</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>284.12</v>
+        <v>401.18</v>
       </c>
       <c r="H43" t="n">
-        <v>233.39</v>
+        <v>329.88</v>
       </c>
       <c r="I43" t="n">
-        <v>50.73</v>
+        <v>71.3</v>
       </c>
       <c r="J43" t="n">
-        <v>17.86</v>
+        <v>17.77</v>
       </c>
       <c r="K43" t="n">
         <v>2025</v>
@@ -2539,16 +2535,16 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>gauthier charroin</t>
+          <t>Mauro Hugo Peruzzi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2557,28 +2553,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3378902994</v>
+        <v>54346645992</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45928</v>
+        <v>45922</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>309.12</v>
+        <v>284.12</v>
       </c>
       <c r="H44" t="n">
-        <v>253.79</v>
+        <v>233.39</v>
       </c>
       <c r="I44" t="n">
-        <v>55.33</v>
+        <v>50.73</v>
       </c>
       <c r="J44" t="n">
-        <v>17.9</v>
+        <v>17.86</v>
       </c>
       <c r="K44" t="n">
         <v>2025</v>
@@ -2588,16 +2584,16 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>gauthier charroin</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2606,28 +2602,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3163400854</v>
+        <v>3378902994</v>
       </c>
       <c r="D45" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="E45" s="2" t="n">
         <v>45928</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>45930</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>284.12</v>
+        <v>309.12</v>
       </c>
       <c r="H45" t="n">
-        <v>233.39</v>
+        <v>253.79</v>
       </c>
       <c r="I45" t="n">
-        <v>50.73</v>
+        <v>55.33</v>
       </c>
       <c r="J45" t="n">
-        <v>17.86</v>
+        <v>17.9</v>
       </c>
       <c r="K45" t="n">
         <v>2025</v>
@@ -2637,16 +2633,16 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2655,47 +2651,47 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1250317939</v>
+        <v>3163400854</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H46" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I46" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J46" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K46" t="n">
         <v>2025</v>
       </c>
       <c r="L46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2704,28 +2700,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3376774051</v>
+        <v>1250317939</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H47" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I47" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J47" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K47" t="n">
         <v>2025</v>
@@ -2735,16 +2731,16 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2753,43 +2749,47 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4917661016719</v>
+        <v>3376774051</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>46176</v>
+        <v>45939</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>46181</v>
+        <v>45943</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>657.8</v>
+        <v>528.24</v>
       </c>
       <c r="H48" t="n">
-        <v>540.64</v>
+        <v>434.14</v>
       </c>
       <c r="I48" t="n">
-        <v>117.16</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J48" t="n">
         <v>17.81</v>
       </c>
       <c r="K48" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="N48" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="O48" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2798,28 +2798,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>33334691787</v>
+        <v>4917661016719</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H49" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I49" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J49" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K49" t="n">
         <v>2026</v>
@@ -2832,33 +2832,78 @@
       <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>33334691787</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
       <c r="G50" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H50" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I50" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J50" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6</v>
+      </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J51" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -530,17 +530,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+393316017468</t>
+          <t>393316017468.0</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45880</v>
+        <v>45599</v>
       </c>
       <c r="F2" t="n">
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>244.34</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,10 +528,8 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>393316017468.0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>393316017468</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>45597</v>
@@ -2593,7 +2591,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>gauthier charroin</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2602,28 +2600,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3378902994</v>
+        <v>3163400854</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45928</v>
+        <v>45930</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>309.12</v>
+        <v>284.12</v>
       </c>
       <c r="H45" t="n">
-        <v>253.79</v>
+        <v>233.39</v>
       </c>
       <c r="I45" t="n">
-        <v>55.33</v>
+        <v>50.73</v>
       </c>
       <c r="J45" t="n">
-        <v>17.9</v>
+        <v>17.86</v>
       </c>
       <c r="K45" t="n">
         <v>2025</v>
@@ -2633,16 +2631,16 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2651,47 +2649,47 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3163400854</v>
+        <v>1250317939</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45930</v>
+        <v>45938</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>284.12</v>
+        <v>647.8</v>
       </c>
       <c r="H46" t="n">
-        <v>233.39</v>
+        <v>532.48</v>
       </c>
       <c r="I46" t="n">
-        <v>50.73</v>
+        <v>115.32</v>
       </c>
       <c r="J46" t="n">
-        <v>17.86</v>
+        <v>17.8</v>
       </c>
       <c r="K46" t="n">
         <v>2025</v>
       </c>
       <c r="L46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" s="3" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2700,28 +2698,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1250317939</v>
+        <v>3376774051</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45938</v>
+        <v>45943</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>647.8</v>
+        <v>528.24</v>
       </c>
       <c r="H47" t="n">
-        <v>532.48</v>
+        <v>434.14</v>
       </c>
       <c r="I47" t="n">
-        <v>115.32</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>17.8</v>
+        <v>17.81</v>
       </c>
       <c r="K47" t="n">
         <v>2025</v>
@@ -2731,16 +2729,16 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" s="3" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2749,47 +2747,43 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3376774051</v>
+        <v>4917661016719</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45939</v>
+        <v>46176</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45943</v>
+        <v>46181</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>528.24</v>
+        <v>657.8</v>
       </c>
       <c r="H48" t="n">
-        <v>434.14</v>
+        <v>540.64</v>
       </c>
       <c r="I48" t="n">
-        <v>94.09999999999999</v>
+        <v>117.16</v>
       </c>
       <c r="J48" t="n">
         <v>17.81</v>
       </c>
       <c r="K48" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="L48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" s="3" t="n">
-        <v>45939</v>
-      </c>
-      <c r="O48" s="3" t="n">
-        <v>45939</v>
-      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Claudine Fleury</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2798,28 +2792,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4917661016719</v>
+        <v>33334691787</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>46176</v>
+        <v>46200</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>46181</v>
+        <v>46203</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>657.8</v>
+        <v>468.68</v>
       </c>
       <c r="H49" t="n">
-        <v>540.64</v>
+        <v>374.77</v>
       </c>
       <c r="I49" t="n">
-        <v>117.16</v>
+        <v>93.91</v>
       </c>
       <c r="J49" t="n">
-        <v>17.81</v>
+        <v>20.04</v>
       </c>
       <c r="K49" t="n">
         <v>2026</v>
@@ -2832,78 +2826,33 @@
       <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Claudine Fleury</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>33334691787</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>46200</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>46203</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
-      </c>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>468.68</v>
+        <v>18916.8</v>
       </c>
       <c r="H50" t="n">
-        <v>374.77</v>
+        <v>15527.26</v>
       </c>
       <c r="I50" t="n">
-        <v>93.91</v>
+        <v>3389.54</v>
       </c>
       <c r="J50" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2026</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6</v>
-      </c>
+        <v>17.92</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
-        <v>18916.8</v>
-      </c>
-      <c r="H51" t="n">
-        <v>15527.26</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3389.54</v>
-      </c>
-      <c r="J51" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2738,7 +2738,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2746,35 +2746,37 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>4917661016719</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>+4369912047111</t>
+        </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>46176</v>
+        <v>46024</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>46181</v>
+        <v>46025</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>657.8</v>
+        <v>535.24</v>
       </c>
       <c r="H48" t="n">
-        <v>540.64</v>
+        <v>439.86</v>
       </c>
       <c r="I48" t="n">
-        <v>117.16</v>
+        <v>95.38</v>
       </c>
       <c r="J48" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K48" t="n">
         <v>2026</v>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -2783,7 +2785,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2792,28 +2794,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>33334691787</v>
+        <v>4917661016719</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H49" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I49" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J49" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K49" t="n">
         <v>2026</v>
@@ -2826,33 +2828,78 @@
       <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>33334691787</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
       <c r="G50" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H50" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I50" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J50" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6</v>
+      </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J51" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -2748,17 +2748,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+4369912047111</t>
+          <t>4369912047111.0</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>46024</v>
+        <v>46020</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>46025</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
         <v>535.24</v>
@@ -2773,10 +2773,10 @@
         <v>17.82</v>
       </c>
       <c r="K48" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -2755,10 +2755,10 @@
         <v>46020</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>46025</v>
+        <v>46024</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
         <v>535.24</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2207,37 +2207,35 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Maria Belen Anaya</t>
+          <t>Annick</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>54911645777</v>
-      </c>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" s="2" t="n">
-        <v>45885</v>
+        <v>45880</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45891</v>
+        <v>45882</v>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>671.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>121.18</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.05</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>2025</v>
@@ -2246,17 +2244,13 @@
         <v>8</v>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" s="3" t="n">
-        <v>45885</v>
-      </c>
-      <c r="O37" s="3" t="n">
-        <v>45885</v>
-      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Luna Ciccardi</t>
+          <t>Maria Belen Anaya</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2265,28 +2259,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>393485814122</v>
+        <v>54911645777</v>
       </c>
       <c r="D38" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="E38" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="E38" s="2" t="n">
-        <v>45893</v>
-      </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>261.62</v>
+        <v>671.1799999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>215.04</v>
+        <v>550</v>
       </c>
       <c r="I38" t="n">
-        <v>46.58</v>
+        <v>121.18</v>
       </c>
       <c r="J38" t="n">
-        <v>17.8</v>
+        <v>18.05</v>
       </c>
       <c r="K38" t="n">
         <v>2025</v>
@@ -2295,13 +2289,17 @@
         <v>8</v>
       </c>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="N38" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>45885</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Arnaud Tinhe</t>
+          <t>Luna Ciccardi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2310,28 +2308,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4178406508</v>
+        <v>393485814122</v>
       </c>
       <c r="D39" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="E39" s="2" t="n">
         <v>45893</v>
       </c>
-      <c r="E39" s="2" t="n">
-        <v>45900</v>
-      </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>869.42</v>
+        <v>261.62</v>
       </c>
       <c r="H39" t="n">
-        <v>714.87</v>
+        <v>215.04</v>
       </c>
       <c r="I39" t="n">
-        <v>154.55</v>
+        <v>46.58</v>
       </c>
       <c r="J39" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K39" t="n">
         <v>2025</v>
@@ -2340,17 +2338,13 @@
         <v>8</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" s="3" t="n">
-        <v>45893</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <v>45893</v>
-      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Misato Hayashi</t>
+          <t>Arnaud Tinhe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2359,28 +2353,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14038525008</v>
+        <v>4178406508</v>
       </c>
       <c r="D40" s="2" t="n">
+        <v>45893</v>
+      </c>
+      <c r="E40" s="2" t="n">
         <v>45900</v>
       </c>
-      <c r="E40" s="2" t="n">
-        <v>45902</v>
-      </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G40" t="n">
-        <v>261.62</v>
+        <v>869.42</v>
       </c>
       <c r="H40" t="n">
-        <v>215.04</v>
+        <v>714.87</v>
       </c>
       <c r="I40" t="n">
-        <v>46.58</v>
+        <v>154.55</v>
       </c>
       <c r="J40" t="n">
-        <v>17.8</v>
+        <v>17.78</v>
       </c>
       <c r="K40" t="n">
         <v>2025</v>
@@ -2389,13 +2383,17 @@
         <v>8</v>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="N40" s="3" t="n">
+        <v>45893</v>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>45893</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lorens ter Hedde</t>
+          <t>Misato Hayashi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2404,47 +2402,43 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3164007930</v>
+        <v>14038525008</v>
       </c>
       <c r="D41" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="E41" s="2" t="n">
         <v>45902</v>
       </c>
-      <c r="E41" s="2" t="n">
-        <v>45908</v>
-      </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>752.36</v>
+        <v>261.62</v>
       </c>
       <c r="H41" t="n">
-        <v>618.58</v>
+        <v>215.04</v>
       </c>
       <c r="I41" t="n">
-        <v>133.78</v>
+        <v>46.58</v>
       </c>
       <c r="J41" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K41" t="n">
         <v>2025</v>
       </c>
       <c r="L41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" s="3" t="n">
-        <v>45902</v>
-      </c>
-      <c r="O41" s="3" t="n">
-        <v>45902</v>
-      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dario Ottobretti</t>
+          <t>Lorens ter Hedde</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2453,28 +2447,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>39328785808</v>
+        <v>3164007930</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45913</v>
+        <v>45908</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>473.24</v>
+        <v>752.36</v>
       </c>
       <c r="H42" t="n">
-        <v>389.26</v>
+        <v>618.58</v>
       </c>
       <c r="I42" t="n">
-        <v>83.98</v>
+        <v>133.78</v>
       </c>
       <c r="J42" t="n">
-        <v>17.75</v>
+        <v>17.78</v>
       </c>
       <c r="K42" t="n">
         <v>2025</v>
@@ -2484,16 +2478,16 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mateusz Lipkowski</t>
+          <t>Dario Ottobretti</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2502,28 +2496,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4853000719</v>
+        <v>39328785808</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45917</v>
+        <v>45913</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>401.18</v>
+        <v>473.24</v>
       </c>
       <c r="H43" t="n">
-        <v>329.88</v>
+        <v>389.26</v>
       </c>
       <c r="I43" t="n">
-        <v>71.3</v>
+        <v>83.98</v>
       </c>
       <c r="J43" t="n">
-        <v>17.77</v>
+        <v>17.75</v>
       </c>
       <c r="K43" t="n">
         <v>2025</v>
@@ -2533,16 +2527,16 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mauro Hugo Peruzzi</t>
+          <t>Mateusz Lipkowski</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2551,28 +2545,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>54346645992</v>
+        <v>4853000719</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>284.12</v>
+        <v>401.18</v>
       </c>
       <c r="H44" t="n">
-        <v>233.39</v>
+        <v>329.88</v>
       </c>
       <c r="I44" t="n">
-        <v>50.73</v>
+        <v>71.3</v>
       </c>
       <c r="J44" t="n">
-        <v>17.86</v>
+        <v>17.77</v>
       </c>
       <c r="K44" t="n">
         <v>2025</v>
@@ -2582,16 +2576,16 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Mauro Hugo Peruzzi</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2600,13 +2594,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3163400854</v>
+        <v>54346645992</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45930</v>
+        <v>45922</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -2631,16 +2625,16 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" s="3" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2649,47 +2643,47 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1250317939</v>
+        <v>3163400854</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H46" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I46" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J46" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K46" t="n">
         <v>2025</v>
       </c>
       <c r="L46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2698,28 +2692,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3376774051</v>
+        <v>1250317939</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H47" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I47" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J47" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K47" t="n">
         <v>2025</v>
@@ -2729,16 +2723,16 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2746,46 +2740,48 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>4369912047111.0</t>
-        </is>
+      <c r="C48" t="n">
+        <v>3376774051</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>46020</v>
+        <v>45939</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>46024</v>
+        <v>45943</v>
       </c>
       <c r="F48" t="n">
         <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>535.24</v>
+        <v>528.24</v>
       </c>
       <c r="H48" t="n">
-        <v>439.86</v>
+        <v>434.14</v>
       </c>
       <c r="I48" t="n">
-        <v>95.38</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>17.82</v>
+        <v>17.81</v>
       </c>
       <c r="K48" t="n">
         <v>2025</v>
       </c>
       <c r="L48" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="N48" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="O48" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2794,34 +2790,34 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4917661016719</v>
+        <v>4369912047111</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>46176</v>
+        <v>46020</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>46181</v>
+        <v>46024</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>657.8</v>
+        <v>535.24</v>
       </c>
       <c r="H49" t="n">
-        <v>540.64</v>
+        <v>439.86</v>
       </c>
       <c r="I49" t="n">
-        <v>117.16</v>
+        <v>95.38</v>
       </c>
       <c r="J49" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K49" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -2830,7 +2826,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2839,28 +2835,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>33334691787</v>
+        <v>4917661016719</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H50" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I50" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J50" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K50" t="n">
         <v>2026</v>
@@ -2873,33 +2869,78 @@
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>33334691787</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
       <c r="G51" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H51" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I51" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J51" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6</v>
+      </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H52" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J52" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -2215,7 +2215,11 @@
           <t>Autre</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>+33611772793</t>
+        </is>
+      </c>
       <c r="D37" s="2" t="n">
         <v>45880</v>
       </c>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -528,8 +528,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>393316017468</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>'+393316017468.0</t>
+        </is>
       </c>
       <c r="D2" s="2" t="n">
         <v>45597</v>
@@ -2215,10 +2217,8 @@
           <t>Autre</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>+33611772793</t>
-        </is>
+      <c r="C37" t="n">
+        <v>33611772793</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>45880</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -2883,8 +2883,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>33334691787</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>'+33334691787</t>
+        </is>
       </c>
       <c r="D51" s="2" t="n">
         <v>46200</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>'+393316017468.0</t>
+          <t>+393316017468</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -622,8 +622,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>33624532669</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+33624532669</t>
+        </is>
       </c>
       <c r="D4" s="2" t="n">
         <v>45717</v>
@@ -671,8 +673,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>33749649080</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>+33749649080</t>
+        </is>
       </c>
       <c r="D5" s="2" t="n">
         <v>45726</v>
@@ -720,8 +724,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>34629769069</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>+34629769069</t>
+        </is>
       </c>
       <c r="D6" s="2" t="n">
         <v>45763</v>
@@ -769,8 +775,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>33617722379</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>+33617722379</t>
+        </is>
       </c>
       <c r="D7" s="2" t="n">
         <v>45778</v>
@@ -818,8 +826,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>37065615323</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>+37065615323</t>
+        </is>
       </c>
       <c r="D8" s="2" t="n">
         <v>45780</v>
@@ -867,8 +877,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>33641153827</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>+33641153827</t>
+        </is>
       </c>
       <c r="D9" s="2" t="n">
         <v>45785</v>
@@ -916,8 +928,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>33617722379</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>+33617722379</t>
+        </is>
       </c>
       <c r="D10" s="2" t="n">
         <v>45787</v>
@@ -965,8 +979,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>33617722379</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>+33617722379</t>
+        </is>
       </c>
       <c r="D11" s="2" t="n">
         <v>45790</v>
@@ -1014,8 +1030,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>14382755304</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>+14382755304</t>
+        </is>
       </c>
       <c r="D12" s="2" t="n">
         <v>45794</v>
@@ -1063,8 +1081,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>33617722379</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>+33617722379</t>
+        </is>
       </c>
       <c r="D13" s="2" t="n">
         <v>45801</v>
@@ -1112,8 +1132,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>31686384020</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>+31686384020</t>
+        </is>
       </c>
       <c r="D14" s="2" t="n">
         <v>45802</v>
@@ -1161,8 +1183,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>41799339853</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>+41799339853</t>
+        </is>
       </c>
       <c r="D15" s="2" t="n">
         <v>45806</v>
@@ -1210,8 +1234,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>1776721532</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>+1776721532</t>
+        </is>
       </c>
       <c r="D16" s="2" t="n">
         <v>45811</v>
@@ -1259,8 +1285,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>33650232246</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>+33650232246</t>
+        </is>
       </c>
       <c r="D17" s="2" t="n">
         <v>45815</v>
@@ -1308,8 +1336,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>33619201804</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>+33619201804</t>
+        </is>
       </c>
       <c r="D18" s="2" t="n">
         <v>45816</v>
@@ -1404,8 +1434,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>61402780503</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>+61402780503</t>
+        </is>
       </c>
       <c r="D20" s="2" t="n">
         <v>45821</v>
@@ -1453,8 +1485,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>15226502647</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>+15226502647</t>
+        </is>
       </c>
       <c r="D21" s="2" t="n">
         <v>45825</v>
@@ -1502,8 +1536,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>33666358910</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>+33666358910</t>
+        </is>
       </c>
       <c r="D22" s="2" t="n">
         <v>45832</v>
@@ -1598,8 +1634,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>33617722379</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>+33617722379</t>
+        </is>
       </c>
       <c r="D24" s="2" t="n">
         <v>45841</v>
@@ -1694,8 +1732,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>33617722379</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>+33617722379</t>
+        </is>
       </c>
       <c r="D26" s="2" t="n">
         <v>45847</v>
@@ -1790,8 +1830,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>6140753729</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>+6140753729</t>
+        </is>
       </c>
       <c r="D28" s="2" t="n">
         <v>45852</v>
@@ -1839,8 +1881,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>3363475330</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>+3363475330</t>
+        </is>
       </c>
       <c r="D29" s="2" t="n">
         <v>45855</v>
@@ -1888,8 +1932,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>33315713097</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>+33315713097</t>
+        </is>
       </c>
       <c r="D30" s="2" t="n">
         <v>45860</v>
@@ -1937,8 +1983,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>3364942650</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>+3364942650</t>
+        </is>
       </c>
       <c r="D31" s="2" t="n">
         <v>45867</v>
@@ -1986,8 +2034,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>33685678541</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>+33685678541</t>
+        </is>
       </c>
       <c r="D32" s="2" t="n">
         <v>45870</v>
@@ -2031,8 +2081,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>44749116568</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>+44749116568</t>
+        </is>
       </c>
       <c r="D33" s="2" t="n">
         <v>45871</v>
@@ -2080,8 +2132,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>33687762155</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>+33687762155</t>
+        </is>
       </c>
       <c r="D34" s="2" t="n">
         <v>45877</v>
@@ -2168,8 +2222,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>4178406508</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>+4178406508</t>
+        </is>
       </c>
       <c r="D36" s="2" t="n">
         <v>45879</v>
@@ -2217,8 +2273,10 @@
           <t>Autre</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>33611772793</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>+33611772793</t>
+        </is>
       </c>
       <c r="D37" s="2" t="n">
         <v>45880</v>
@@ -2262,8 +2320,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>54911645777</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>+54911645777</t>
+        </is>
       </c>
       <c r="D38" s="2" t="n">
         <v>45885</v>
@@ -2311,8 +2371,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>393485814122</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>+393485814122</t>
+        </is>
       </c>
       <c r="D39" s="2" t="n">
         <v>45891</v>
@@ -2356,8 +2418,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>4178406508</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>+4178406508</t>
+        </is>
       </c>
       <c r="D40" s="2" t="n">
         <v>45893</v>
@@ -2405,8 +2469,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>14038525008</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>+14038525008</t>
+        </is>
       </c>
       <c r="D41" s="2" t="n">
         <v>45900</v>
@@ -2450,8 +2516,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>3164007930</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>+3164007930</t>
+        </is>
       </c>
       <c r="D42" s="2" t="n">
         <v>45902</v>
@@ -2499,8 +2567,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>39328785808</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>+39328785808</t>
+        </is>
       </c>
       <c r="D43" s="2" t="n">
         <v>45909</v>
@@ -2548,8 +2618,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>4853000719</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>+4853000719</t>
+        </is>
       </c>
       <c r="D44" s="2" t="n">
         <v>45914</v>
@@ -2597,8 +2669,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>54346645992</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>+54346645992</t>
+        </is>
       </c>
       <c r="D45" s="2" t="n">
         <v>45920</v>
@@ -2646,8 +2720,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>3163400854</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>+31634008541</t>
+        </is>
       </c>
       <c r="D46" s="2" t="n">
         <v>45928</v>
@@ -2695,8 +2771,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>1250317939</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>+1250317939</t>
+        </is>
       </c>
       <c r="D47" s="2" t="n">
         <v>45933</v>
@@ -2744,8 +2822,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>3376774051</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>+3376774051</t>
+        </is>
       </c>
       <c r="D48" s="2" t="n">
         <v>45939</v>
@@ -2793,8 +2873,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>4369912047111</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>+4369912047111</t>
+        </is>
       </c>
       <c r="D49" s="2" t="n">
         <v>46020</v>
@@ -2838,8 +2920,10 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>4917661016719</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>+4917661016719</t>
+        </is>
       </c>
       <c r="D50" s="2" t="n">
         <v>46176</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,39 +2265,39 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Annick</t>
+          <t>Maria Belen Anaya</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Autre</t>
+          <t>Booking</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>+33611772793</t>
+          <t>+54911645777</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45880</v>
+        <v>45885</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45882</v>
+        <v>45891</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>671.1799999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>121.18</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>18.05</v>
       </c>
       <c r="K37" t="n">
         <v>2025</v>
@@ -2306,13 +2306,17 @@
         <v>8</v>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="N37" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>45885</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Maria Belen Anaya</t>
+          <t>Luna Ciccardi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2322,29 +2326,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+54911645777</t>
+          <t>+393485814122</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45885</v>
+        <v>45891</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>671.1799999999999</v>
+        <v>261.62</v>
       </c>
       <c r="H38" t="n">
-        <v>550</v>
+        <v>215.04</v>
       </c>
       <c r="I38" t="n">
-        <v>121.18</v>
+        <v>46.58</v>
       </c>
       <c r="J38" t="n">
-        <v>18.05</v>
+        <v>17.8</v>
       </c>
       <c r="K38" t="n">
         <v>2025</v>
@@ -2353,17 +2357,13 @@
         <v>8</v>
       </c>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" s="3" t="n">
-        <v>45885</v>
-      </c>
-      <c r="O38" s="3" t="n">
-        <v>45885</v>
-      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Luna Ciccardi</t>
+          <t>Arnaud Tinhe</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2373,29 +2373,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>+393485814122</t>
+          <t>+4178406508</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>261.62</v>
+        <v>869.42</v>
       </c>
       <c r="H39" t="n">
-        <v>215.04</v>
+        <v>714.87</v>
       </c>
       <c r="I39" t="n">
-        <v>46.58</v>
+        <v>154.55</v>
       </c>
       <c r="J39" t="n">
-        <v>17.8</v>
+        <v>17.78</v>
       </c>
       <c r="K39" t="n">
         <v>2025</v>
@@ -2404,13 +2404,17 @@
         <v>8</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="N39" s="3" t="n">
+        <v>45893</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>45893</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Arnaud Tinhe</t>
+          <t>Misato Hayashi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2420,29 +2424,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>+4178406508</t>
+          <t>+14038525008</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="F40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>869.42</v>
+        <v>261.62</v>
       </c>
       <c r="H40" t="n">
-        <v>714.87</v>
+        <v>215.04</v>
       </c>
       <c r="I40" t="n">
-        <v>154.55</v>
+        <v>46.58</v>
       </c>
       <c r="J40" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K40" t="n">
         <v>2025</v>
@@ -2451,17 +2455,13 @@
         <v>8</v>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" s="3" t="n">
-        <v>45893</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <v>45893</v>
-      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Misato Hayashi</t>
+          <t>Lorens ter Hedde</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2471,44 +2471,48 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>+14038525008</t>
+          <t>+3164007930</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="E41" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
+      </c>
+      <c r="G41" t="n">
+        <v>752.36</v>
+      </c>
+      <c r="H41" t="n">
+        <v>618.58</v>
+      </c>
+      <c r="I41" t="n">
+        <v>133.78</v>
+      </c>
+      <c r="J41" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L41" t="n">
+        <v>9</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" s="3" t="n">
         <v>45902</v>
       </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="n">
-        <v>261.62</v>
-      </c>
-      <c r="H41" t="n">
-        <v>215.04</v>
-      </c>
-      <c r="I41" t="n">
-        <v>46.58</v>
-      </c>
-      <c r="J41" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2025</v>
-      </c>
-      <c r="L41" t="n">
-        <v>8</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" s="3" t="n">
+        <v>45902</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lorens ter Hedde</t>
+          <t>Dario Ottobretti</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2518,29 +2522,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>+3164007930</t>
+          <t>+39328785808</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45908</v>
+        <v>45913</v>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>752.36</v>
+        <v>473.24</v>
       </c>
       <c r="H42" t="n">
-        <v>618.58</v>
+        <v>389.26</v>
       </c>
       <c r="I42" t="n">
-        <v>133.78</v>
+        <v>83.98</v>
       </c>
       <c r="J42" t="n">
-        <v>17.78</v>
+        <v>17.75</v>
       </c>
       <c r="K42" t="n">
         <v>2025</v>
@@ -2550,16 +2554,16 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" s="3" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Dario Ottobretti</t>
+          <t>Mateusz Lipkowski</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2569,29 +2573,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+39328785808</t>
+          <t>+4853000719</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45909</v>
+        <v>45914</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45913</v>
+        <v>45917</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>473.24</v>
+        <v>401.18</v>
       </c>
       <c r="H43" t="n">
-        <v>389.26</v>
+        <v>329.88</v>
       </c>
       <c r="I43" t="n">
-        <v>83.98</v>
+        <v>71.3</v>
       </c>
       <c r="J43" t="n">
-        <v>17.75</v>
+        <v>17.77</v>
       </c>
       <c r="K43" t="n">
         <v>2025</v>
@@ -2601,16 +2605,16 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" s="3" t="n">
-        <v>45909</v>
+        <v>45914</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>45909</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mateusz Lipkowski</t>
+          <t>Mauro Hugo Peruzzi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2620,29 +2624,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+4853000719</t>
+          <t>+54346645992</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45914</v>
+        <v>45920</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45917</v>
+        <v>45922</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>401.18</v>
+        <v>284.12</v>
       </c>
       <c r="H44" t="n">
-        <v>329.88</v>
+        <v>233.39</v>
       </c>
       <c r="I44" t="n">
-        <v>71.3</v>
+        <v>50.73</v>
       </c>
       <c r="J44" t="n">
-        <v>17.77</v>
+        <v>17.86</v>
       </c>
       <c r="K44" t="n">
         <v>2025</v>
@@ -2652,16 +2656,16 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" s="3" t="n">
-        <v>45914</v>
+        <v>45920</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>45914</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mauro Hugo Peruzzi</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2671,14 +2675,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+54346645992</t>
+          <t>+31634008541</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45920</v>
+        <v>45928</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45922</v>
+        <v>45930</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -2703,16 +2707,16 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" s="3" t="n">
-        <v>45920</v>
+        <v>45928</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>45920</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2722,48 +2726,48 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+31634008541</t>
+          <t>+1250317939</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45930</v>
+        <v>45938</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>284.12</v>
+        <v>647.8</v>
       </c>
       <c r="H46" t="n">
-        <v>233.39</v>
+        <v>532.48</v>
       </c>
       <c r="I46" t="n">
-        <v>50.73</v>
+        <v>115.32</v>
       </c>
       <c r="J46" t="n">
-        <v>17.86</v>
+        <v>17.8</v>
       </c>
       <c r="K46" t="n">
         <v>2025</v>
       </c>
       <c r="L46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" s="3" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2773,29 +2777,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+1250317939</t>
+          <t>+3376774051</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45938</v>
+        <v>45943</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>647.8</v>
+        <v>528.24</v>
       </c>
       <c r="H47" t="n">
-        <v>532.48</v>
+        <v>434.14</v>
       </c>
       <c r="I47" t="n">
-        <v>115.32</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>17.8</v>
+        <v>17.81</v>
       </c>
       <c r="K47" t="n">
         <v>2025</v>
@@ -2805,16 +2809,16 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" s="3" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2824,48 +2828,44 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+3376774051</t>
+          <t>+4369912047111</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45939</v>
+        <v>46020</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45943</v>
+        <v>46024</v>
       </c>
       <c r="F48" t="n">
         <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>528.24</v>
+        <v>535.24</v>
       </c>
       <c r="H48" t="n">
-        <v>434.14</v>
+        <v>439.86</v>
       </c>
       <c r="I48" t="n">
-        <v>94.09999999999999</v>
+        <v>95.38</v>
       </c>
       <c r="J48" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K48" t="n">
         <v>2025</v>
       </c>
       <c r="L48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" s="3" t="n">
-        <v>45939</v>
-      </c>
-      <c r="O48" s="3" t="n">
-        <v>45939</v>
-      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2875,35 +2875,35 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+4369912047111</t>
+          <t>+4917661016719</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>46020</v>
+        <v>46176</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>46024</v>
+        <v>46181</v>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>535.24</v>
+        <v>657.8</v>
       </c>
       <c r="H49" t="n">
-        <v>439.86</v>
+        <v>540.64</v>
       </c>
       <c r="I49" t="n">
-        <v>95.38</v>
+        <v>117.16</v>
       </c>
       <c r="J49" t="n">
-        <v>17.82</v>
+        <v>17.81</v>
       </c>
       <c r="K49" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="L49" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -2912,7 +2912,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Claudine Fleury</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2922,29 +2922,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>+4917661016719</t>
+          <t>'+33334691787</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>46176</v>
+        <v>46200</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>46181</v>
+        <v>46203</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>657.8</v>
+        <v>468.68</v>
       </c>
       <c r="H50" t="n">
-        <v>540.64</v>
+        <v>374.77</v>
       </c>
       <c r="I50" t="n">
-        <v>117.16</v>
+        <v>93.91</v>
       </c>
       <c r="J50" t="n">
-        <v>17.81</v>
+        <v>20.04</v>
       </c>
       <c r="K50" t="n">
         <v>2026</v>
@@ -2957,80 +2957,33 @@
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Claudine Fleury</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>'+33334691787</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>46200</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>46203</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3</v>
-      </c>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>468.68</v>
+        <v>18916.8</v>
       </c>
       <c r="H51" t="n">
-        <v>374.77</v>
+        <v>15527.26</v>
       </c>
       <c r="I51" t="n">
-        <v>93.91</v>
+        <v>3389.54</v>
       </c>
       <c r="J51" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2026</v>
-      </c>
-      <c r="L51" t="n">
-        <v>6</v>
-      </c>
+        <v>17.92</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
-        <v>18916.8</v>
-      </c>
-      <c r="H52" t="n">
-        <v>15527.26</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3389.54</v>
-      </c>
-      <c r="J52" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cristina Testoni</t>
+          <t>Marco Sambaan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -528,37 +528,33 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>+393316017468</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" s="2" t="n">
-        <v>45597</v>
+        <v>45518</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45599</v>
+        <v>45881</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>363</v>
       </c>
       <c r="G2" t="n">
-        <v>244.34</v>
+        <v>397</v>
       </c>
       <c r="H2" t="n">
-        <v>200.75</v>
+        <v>223.78</v>
       </c>
       <c r="I2" t="n">
-        <v>43.59</v>
+        <v>173.22</v>
       </c>
       <c r="J2" t="n">
-        <v>17.84</v>
+        <v>43.63</v>
       </c>
       <c r="K2" t="n">
         <v>2024</v>
       </c>
       <c r="L2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -567,7 +563,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Guillaume Etandin</t>
+          <t>Cristina Testoni</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -575,46 +571,46 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>+393316017468</t>
+        </is>
+      </c>
       <c r="D3" s="2" t="n">
-        <v>45656</v>
+        <v>45597</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45660</v>
+        <v>45599</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>460</v>
+        <v>244.34</v>
       </c>
       <c r="H3" t="n">
-        <v>375.36</v>
+        <v>200.75</v>
       </c>
       <c r="I3" t="n">
-        <v>84.64</v>
+        <v>43.59</v>
       </c>
       <c r="J3" t="n">
-        <v>18.4</v>
+        <v>17.84</v>
       </c>
       <c r="K3" t="n">
         <v>2024</v>
       </c>
       <c r="L3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" s="3" t="n">
-        <v>45656</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>45656</v>
-      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Olivier Condesso</t>
+          <t>Guillaume Etandin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -622,50 +618,46 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>+33624532669</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" s="2" t="n">
-        <v>45717</v>
+        <v>45656</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45718</v>
+        <v>45660</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>153.5</v>
+        <v>460</v>
       </c>
       <c r="H4" t="n">
-        <v>125.25</v>
+        <v>375.36</v>
       </c>
       <c r="I4" t="n">
-        <v>28.25</v>
+        <v>84.64</v>
       </c>
       <c r="J4" t="n">
         <v>18.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" s="3" t="n">
-        <v>45717</v>
+        <v>45656</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>45717</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>joseph parrella</t>
+          <t>Olivier Condesso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -675,26 +667,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+33749649080</t>
+          <t>+33624532669</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45726</v>
+        <v>45717</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45730</v>
+        <v>45718</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>464</v>
+        <v>153.5</v>
       </c>
       <c r="H5" t="n">
-        <v>378.62</v>
+        <v>125.25</v>
       </c>
       <c r="I5" t="n">
-        <v>85.38</v>
+        <v>28.25</v>
       </c>
       <c r="J5" t="n">
         <v>18.4</v>
@@ -707,16 +699,16 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" s="3" t="n">
-        <v>45726</v>
+        <v>45717</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>45726</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gracia Ballesteros</t>
+          <t>joseph parrella</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -726,26 +718,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+34629769069</t>
+          <t>+33749649080</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45763</v>
+        <v>45726</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45767</v>
+        <v>45730</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H6" t="n">
-        <v>375.36</v>
+        <v>378.62</v>
       </c>
       <c r="I6" t="n">
-        <v>84.64</v>
+        <v>85.38</v>
       </c>
       <c r="J6" t="n">
         <v>18.4</v>
@@ -754,20 +746,20 @@
         <v>2025</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" s="3" t="n">
-        <v>45763</v>
+        <v>45726</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>45763</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>chiara fontana</t>
+          <t>Gracia Ballesteros</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -777,48 +769,48 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>+34629769069</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45778</v>
+        <v>45763</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45780</v>
+        <v>45767</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>236.3</v>
+        <v>460</v>
       </c>
       <c r="H7" t="n">
-        <v>192.84</v>
+        <v>375.36</v>
       </c>
       <c r="I7" t="n">
-        <v>43.46</v>
+        <v>84.64</v>
       </c>
       <c r="J7" t="n">
-        <v>18.39</v>
+        <v>18.4</v>
       </c>
       <c r="K7" t="n">
         <v>2025</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" s="3" t="n">
-        <v>45778</v>
+        <v>45763</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>45778</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>algis smaliukas</t>
+          <t>chiara fontana</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -828,14 +820,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+37065615323</t>
+          <t>+33617722379</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>45780</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>45782</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -860,16 +852,16 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" s="3" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Reguera, Michael</t>
+          <t>algis smaliukas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -879,14 +871,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>+33641153827</t>
+          <t>+37065615323</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45785</v>
+        <v>45780</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45787</v>
+        <v>45782</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
@@ -911,16 +903,16 @@
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" s="3" t="n">
-        <v>45785</v>
+        <v>45780</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>45785</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Juliette Prins</t>
+          <t>Reguera, Michael</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -930,29 +922,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>+33641153827</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>45787</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>45790</v>
-      </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>360.5</v>
+        <v>236.3</v>
       </c>
       <c r="H10" t="n">
-        <v>299.21</v>
+        <v>192.84</v>
       </c>
       <c r="I10" t="n">
-        <v>61.29</v>
+        <v>43.46</v>
       </c>
       <c r="J10" t="n">
-        <v>17</v>
+        <v>18.39</v>
       </c>
       <c r="K10" t="n">
         <v>2025</v>
@@ -962,16 +954,16 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" s="3" t="n">
-        <v>45787</v>
+        <v>45785</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>45787</v>
+        <v>45785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Denisa Lazarova Molnarova</t>
+          <t>Juliette Prins</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -985,25 +977,25 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>45790</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>45794</v>
-      </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>422.6</v>
+        <v>360.5</v>
       </c>
       <c r="H11" t="n">
-        <v>356.26</v>
+        <v>299.21</v>
       </c>
       <c r="I11" t="n">
-        <v>66.34</v>
+        <v>61.29</v>
       </c>
       <c r="J11" t="n">
-        <v>15.7</v>
+        <v>17</v>
       </c>
       <c r="K11" t="n">
         <v>2025</v>
@@ -1013,16 +1005,16 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" s="3" t="n">
-        <v>45790</v>
+        <v>45787</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>45790</v>
+        <v>45787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Domenic Boscariol</t>
+          <t>Denisa Lazarova Molnarova</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1032,29 +1024,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+14382755304</t>
+          <t>+33617722379</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>45801</v>
-      </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>774.5</v>
+        <v>422.6</v>
       </c>
       <c r="H12" t="n">
-        <v>632.5</v>
+        <v>356.26</v>
       </c>
       <c r="I12" t="n">
-        <v>142</v>
+        <v>66.34</v>
       </c>
       <c r="J12" t="n">
-        <v>18.33</v>
+        <v>15.7</v>
       </c>
       <c r="K12" t="n">
         <v>2025</v>
@@ -1064,16 +1056,16 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" s="3" t="n">
-        <v>45794</v>
+        <v>45790</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>45794</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aimee Packman</t>
+          <t>Domenic Boscariol</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1083,29 +1075,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>+14382755304</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>45801</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>45802</v>
-      </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>161</v>
+        <v>774.5</v>
       </c>
       <c r="H13" t="n">
-        <v>133.63</v>
+        <v>632.5</v>
       </c>
       <c r="I13" t="n">
-        <v>27.37</v>
+        <v>142</v>
       </c>
       <c r="J13" t="n">
-        <v>17</v>
+        <v>18.33</v>
       </c>
       <c r="K13" t="n">
         <v>2025</v>
@@ -1115,16 +1107,16 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" s="3" t="n">
-        <v>45801</v>
+        <v>45794</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>45801</v>
+        <v>45794</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Xue Wang</t>
+          <t>Aimee Packman</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1134,26 +1126,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>+31686384020</t>
+          <t>+33617722379</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>45802</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>45805</v>
-      </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>329.45</v>
+        <v>161</v>
       </c>
       <c r="H14" t="n">
-        <v>273.44</v>
+        <v>133.63</v>
       </c>
       <c r="I14" t="n">
-        <v>56.01</v>
+        <v>27.37</v>
       </c>
       <c r="J14" t="n">
         <v>17</v>
@@ -1166,16 +1158,16 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" s="3" t="n">
-        <v>45802</v>
+        <v>45801</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>45802</v>
+        <v>45801</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Samet Pishleski</t>
+          <t>Xue Wang</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1185,26 +1177,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+41799339853</t>
+          <t>+31686384020</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45806</v>
+        <v>45802</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45809</v>
+        <v>45805</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>360.5</v>
+        <v>329.45</v>
       </c>
       <c r="H15" t="n">
-        <v>299.21</v>
+        <v>273.44</v>
       </c>
       <c r="I15" t="n">
-        <v>61.29</v>
+        <v>56.01</v>
       </c>
       <c r="J15" t="n">
         <v>17</v>
@@ -1217,16 +1209,16 @@
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" s="3" t="n">
-        <v>45806</v>
+        <v>45802</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>45806</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Christian Kohlberg</t>
+          <t>Samet Pishleski</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1236,26 +1228,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+1776721532</t>
+          <t>+41799339853</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45811</v>
+        <v>45806</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45814</v>
+        <v>45809</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>387.5</v>
+        <v>360.5</v>
       </c>
       <c r="H16" t="n">
-        <v>321.62</v>
+        <v>299.21</v>
       </c>
       <c r="I16" t="n">
-        <v>65.88</v>
+        <v>61.29</v>
       </c>
       <c r="J16" t="n">
         <v>17</v>
@@ -1264,20 +1256,20 @@
         <v>2025</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" s="3" t="n">
-        <v>45811</v>
+        <v>45806</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>45811</v>
+        <v>45806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Wendy Agema</t>
+          <t>Christian Kohlberg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1287,26 +1279,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>+33650232246</t>
+          <t>+1776721532</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45815</v>
+        <v>45811</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45816</v>
+        <v>45814</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>162.5</v>
+        <v>387.5</v>
       </c>
       <c r="H17" t="n">
-        <v>134.87</v>
+        <v>321.62</v>
       </c>
       <c r="I17" t="n">
-        <v>27.63</v>
+        <v>65.88</v>
       </c>
       <c r="J17" t="n">
         <v>17</v>
@@ -1319,16 +1311,16 @@
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" s="3" t="n">
-        <v>45815</v>
+        <v>45811</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>45815</v>
+        <v>45811</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>maxime prodromidès</t>
+          <t>Wendy Agema</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1338,14 +1330,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+33619201804</t>
+          <t>+33650232246</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
+        <v>45815</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <v>45816</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>45817</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1370,44 +1362,48 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" s="3" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Evie Ward</t>
+          <t>maxime prodromidès</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>+33619201804</t>
+        </is>
+      </c>
       <c r="D19" s="2" t="n">
+        <v>45816</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>45820</v>
-      </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>600.67</v>
+        <v>162.5</v>
       </c>
       <c r="H19" t="n">
-        <v>482</v>
+        <v>134.87</v>
       </c>
       <c r="I19" t="n">
-        <v>118.67</v>
+        <v>27.63</v>
       </c>
       <c r="J19" t="n">
-        <v>19.76</v>
+        <v>17</v>
       </c>
       <c r="K19" t="n">
         <v>2025</v>
@@ -1417,48 +1413,44 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" s="3" t="n">
-        <v>45817</v>
+        <v>45816</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>45817</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Amelia Eaton</t>
+          <t>Evie Ward</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>+61402780503</t>
-        </is>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" s="2" t="n">
-        <v>45821</v>
+        <v>45817</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45825</v>
+        <v>45820</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>500</v>
+        <v>600.67</v>
       </c>
       <c r="H20" t="n">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="I20" t="n">
-        <v>85</v>
+        <v>118.67</v>
       </c>
       <c r="J20" t="n">
-        <v>17</v>
+        <v>19.76</v>
       </c>
       <c r="K20" t="n">
         <v>2025</v>
@@ -1468,16 +1460,16 @@
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" s="3" t="n">
-        <v>45821</v>
+        <v>45817</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>45821</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Corinna Berndt</t>
+          <t>Amelia Eaton</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1487,26 +1479,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>+15226502647</t>
+          <t>+61402780503</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <v>45825</v>
       </c>
-      <c r="E21" s="2" t="n">
-        <v>45832</v>
-      </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>833.5</v>
+        <v>500</v>
       </c>
       <c r="H21" t="n">
-        <v>691.8</v>
+        <v>415</v>
       </c>
       <c r="I21" t="n">
-        <v>141.7</v>
+        <v>85</v>
       </c>
       <c r="J21" t="n">
         <v>17</v>
@@ -1519,16 +1511,16 @@
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" s="3" t="n">
-        <v>45825</v>
+        <v>45821</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>45825</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Eric BOS</t>
+          <t>Corinna Berndt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1538,29 +1530,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+33666358910</t>
+          <t>+15226502647</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <v>45832</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>45839</v>
       </c>
       <c r="F22" t="n">
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>837.5</v>
+        <v>833.5</v>
       </c>
       <c r="H22" t="n">
-        <v>696.12</v>
+        <v>691.8</v>
       </c>
       <c r="I22" t="n">
-        <v>141.38</v>
+        <v>141.7</v>
       </c>
       <c r="J22" t="n">
-        <v>16.88</v>
+        <v>17</v>
       </c>
       <c r="K22" t="n">
         <v>2025</v>
@@ -1570,95 +1562,95 @@
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" s="3" t="n">
-        <v>45832</v>
+        <v>45825</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>45832</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LillyLuong</t>
+          <t>Eric BOS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>+33666358910</t>
+        </is>
+      </c>
       <c r="D23" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="E23" s="2" t="n">
         <v>45839</v>
       </c>
-      <c r="E23" s="2" t="n">
-        <v>45841</v>
-      </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>308.79</v>
+        <v>837.5</v>
       </c>
       <c r="H23" t="n">
-        <v>250.64</v>
+        <v>696.12</v>
       </c>
       <c r="I23" t="n">
-        <v>58.15</v>
+        <v>141.38</v>
       </c>
       <c r="J23" t="n">
-        <v>18.83</v>
+        <v>16.88</v>
       </c>
       <c r="K23" t="n">
         <v>2025</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" s="3" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dorothrr SAMSON</t>
+          <t>LillyLuong</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>+33617722379</t>
-        </is>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="E24" s="2" t="n">
-        <v>45842</v>
-      </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>162.5</v>
+        <v>308.79</v>
       </c>
       <c r="H24" t="n">
-        <v>134.87</v>
+        <v>250.64</v>
       </c>
       <c r="I24" t="n">
-        <v>27.63</v>
+        <v>58.15</v>
       </c>
       <c r="J24" t="n">
-        <v>17</v>
+        <v>18.83</v>
       </c>
       <c r="K24" t="n">
         <v>2025</v>
@@ -1668,44 +1660,48 @@
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" s="3" t="n">
-        <v>45841</v>
+        <v>45839</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>45841</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Monica Eng</t>
+          <t>Dorothrr SAMSON</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>+33617722379</t>
+        </is>
+      </c>
       <c r="D25" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="E25" s="2" t="n">
-        <v>45846</v>
-      </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>559.9400000000001</v>
+        <v>162.5</v>
       </c>
       <c r="H25" t="n">
-        <v>453.08</v>
+        <v>134.87</v>
       </c>
       <c r="I25" t="n">
-        <v>106.86</v>
+        <v>27.63</v>
       </c>
       <c r="J25" t="n">
-        <v>19.08</v>
+        <v>17</v>
       </c>
       <c r="K25" t="n">
         <v>2025</v>
@@ -1715,48 +1711,44 @@
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" s="3" t="n">
-        <v>45842</v>
+        <v>45841</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>45842</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RED Swan</t>
+          <t>Monica Eng</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>+33617722379</t>
-        </is>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" s="2" t="n">
-        <v>45847</v>
+        <v>45842</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45849</v>
+        <v>45846</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>275</v>
+        <v>559.9400000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>224.27</v>
+        <v>453.08</v>
       </c>
       <c r="I26" t="n">
-        <v>50.73</v>
+        <v>106.86</v>
       </c>
       <c r="J26" t="n">
-        <v>18.45</v>
+        <v>19.08</v>
       </c>
       <c r="K26" t="n">
         <v>2025</v>
@@ -1766,44 +1758,48 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" s="3" t="n">
-        <v>45847</v>
+        <v>45842</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>45847</v>
+        <v>45842</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Karsten Popp</t>
+          <t>RED Swan</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>+33617722379</t>
+        </is>
+      </c>
       <c r="D27" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="E27" s="2" t="n">
         <v>45849</v>
       </c>
-      <c r="E27" s="2" t="n">
-        <v>45852</v>
-      </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>490.94</v>
+        <v>275</v>
       </c>
       <c r="H27" t="n">
-        <v>395.24</v>
+        <v>224.27</v>
       </c>
       <c r="I27" t="n">
-        <v>95.7</v>
+        <v>50.73</v>
       </c>
       <c r="J27" t="n">
-        <v>19.49</v>
+        <v>18.45</v>
       </c>
       <c r="K27" t="n">
         <v>2025</v>
@@ -1813,48 +1809,44 @@
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" s="3" t="n">
-        <v>45849</v>
+        <v>45847</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>45849</v>
+        <v>45847</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TIRA RIX</t>
+          <t>Karsten Popp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>+6140753729</t>
-        </is>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <v>45852</v>
       </c>
-      <c r="E28" s="2" t="n">
-        <v>45854</v>
-      </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>309.12</v>
+        <v>490.94</v>
       </c>
       <c r="H28" t="n">
-        <v>253.79</v>
+        <v>395.24</v>
       </c>
       <c r="I28" t="n">
-        <v>55.33</v>
+        <v>95.7</v>
       </c>
       <c r="J28" t="n">
-        <v>17.9</v>
+        <v>19.49</v>
       </c>
       <c r="K28" t="n">
         <v>2025</v>
@@ -1864,16 +1856,16 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" s="3" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Caroline Cavitte</t>
+          <t>TIRA RIX</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1883,29 +1875,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>+3363475330</t>
+          <t>+6140753729</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45859</v>
+        <v>45854</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>508.04</v>
+        <v>309.12</v>
       </c>
       <c r="H29" t="n">
-        <v>415.93</v>
+        <v>253.79</v>
       </c>
       <c r="I29" t="n">
-        <v>92.11</v>
+        <v>55.33</v>
       </c>
       <c r="J29" t="n">
-        <v>18.13</v>
+        <v>17.9</v>
       </c>
       <c r="K29" t="n">
         <v>2025</v>
@@ -1915,16 +1907,16 @@
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" s="3" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Martens leon</t>
+          <t>Caroline Cavitte</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1934,29 +1926,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>+33315713097</t>
+          <t>+3363475330</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45860</v>
+        <v>45855</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45865</v>
+        <v>45859</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>697.8</v>
+        <v>508.04</v>
       </c>
       <c r="H30" t="n">
-        <v>573.28</v>
+        <v>415.93</v>
       </c>
       <c r="I30" t="n">
-        <v>124.52</v>
+        <v>92.11</v>
       </c>
       <c r="J30" t="n">
-        <v>17.84</v>
+        <v>18.13</v>
       </c>
       <c r="K30" t="n">
         <v>2025</v>
@@ -1966,16 +1958,16 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" s="3" t="n">
-        <v>45860</v>
+        <v>45855</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>45860</v>
+        <v>45855</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Louann Menard</t>
+          <t>Martens leon</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1985,29 +1977,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+3364942650</t>
+          <t>+33315713097</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45867</v>
+        <v>45860</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45870</v>
+        <v>45865</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>401.18</v>
+        <v>697.8</v>
       </c>
       <c r="H31" t="n">
-        <v>329.68</v>
+        <v>573.28</v>
       </c>
       <c r="I31" t="n">
-        <v>71.5</v>
+        <v>124.52</v>
       </c>
       <c r="J31" t="n">
-        <v>17.82</v>
+        <v>17.84</v>
       </c>
       <c r="K31" t="n">
         <v>2025</v>
@@ -2017,16 +2009,16 @@
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" s="3" t="n">
-        <v>45867</v>
+        <v>45860</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>45867</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Linda Boudjemai</t>
+          <t>Louann Menard</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2036,44 +2028,48 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+33685678541</t>
+          <t>+3364942650</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>45870</v>
       </c>
-      <c r="E32" s="2" t="n">
-        <v>45871</v>
-      </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>171.56</v>
+        <v>401.18</v>
       </c>
       <c r="H32" t="n">
-        <v>140.77</v>
+        <v>329.68</v>
       </c>
       <c r="I32" t="n">
-        <v>30.79</v>
+        <v>71.5</v>
       </c>
       <c r="J32" t="n">
-        <v>17.95</v>
+        <v>17.82</v>
       </c>
       <c r="K32" t="n">
         <v>2025</v>
       </c>
       <c r="L32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="N32" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>45867</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Costabile Alessio</t>
+          <t>Linda Boudjemai</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2083,29 +2079,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>+44749116568</t>
+          <t>+33685678541</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>45871</v>
       </c>
-      <c r="E33" s="2" t="n">
-        <v>45877</v>
-      </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>752.36</v>
+        <v>171.56</v>
       </c>
       <c r="H33" t="n">
-        <v>618.58</v>
+        <v>140.77</v>
       </c>
       <c r="I33" t="n">
-        <v>133.78</v>
+        <v>30.79</v>
       </c>
       <c r="J33" t="n">
-        <v>17.78</v>
+        <v>17.95</v>
       </c>
       <c r="K33" t="n">
         <v>2025</v>
@@ -2114,17 +2110,13 @@
         <v>8</v>
       </c>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" s="3" t="n">
-        <v>45871</v>
-      </c>
-      <c r="O33" s="3" t="n">
-        <v>45871</v>
-      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gregory Blanvillain</t>
+          <t>Costabile Alessio</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2134,29 +2126,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+33687762155</t>
+          <t>+44749116568</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
+        <v>45871</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <v>45877</v>
       </c>
-      <c r="E34" s="2" t="n">
-        <v>45878</v>
-      </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>167.06</v>
+        <v>752.36</v>
       </c>
       <c r="H34" t="n">
-        <v>133.1</v>
+        <v>618.58</v>
       </c>
       <c r="I34" t="n">
-        <v>33.96</v>
+        <v>133.78</v>
       </c>
       <c r="J34" t="n">
-        <v>20.33</v>
+        <v>17.78</v>
       </c>
       <c r="K34" t="n">
         <v>2025</v>
@@ -2165,41 +2157,49 @@
         <v>8</v>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="N34" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>45871</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fermeture</t>
+          <t>Gregory Blanvillain</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Autre</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>+33687762155</t>
+        </is>
+      </c>
       <c r="D35" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>45878</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>45879</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>167.06</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>133.1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>33.96</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>20.33</v>
       </c>
       <c r="K35" t="n">
         <v>2025</v>
@@ -2214,39 +2214,35 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mika Thielen</t>
+          <t>Fermeture</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>+4178406508</t>
-        </is>
-      </c>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" s="2" t="n">
+        <v>45878</v>
+      </c>
+      <c r="E36" s="2" t="n">
         <v>45879</v>
       </c>
-      <c r="E36" s="2" t="n">
-        <v>45884</v>
-      </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>622.55</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>509.71</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>112.84</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.13</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>2025</v>
@@ -2255,17 +2251,13 @@
         <v>8</v>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" s="3" t="n">
-        <v>45879</v>
-      </c>
-      <c r="O36" s="3" t="n">
-        <v>45879</v>
-      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Maria Belen Anaya</t>
+          <t>Mika Thielen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2275,29 +2267,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>+54911645777</t>
+          <t>+4178406508</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>671.1799999999999</v>
+        <v>622.55</v>
       </c>
       <c r="H37" t="n">
-        <v>550</v>
+        <v>509.71</v>
       </c>
       <c r="I37" t="n">
-        <v>121.18</v>
+        <v>112.84</v>
       </c>
       <c r="J37" t="n">
-        <v>18.05</v>
+        <v>18.13</v>
       </c>
       <c r="K37" t="n">
         <v>2025</v>
@@ -2307,16 +2299,16 @@
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Luna Ciccardi</t>
+          <t>Maria Belen Anaya</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2326,29 +2318,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+393485814122</t>
+          <t>+54911645777</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="E38" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="E38" s="2" t="n">
-        <v>45893</v>
-      </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>261.62</v>
+        <v>671.1799999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>215.04</v>
+        <v>550</v>
       </c>
       <c r="I38" t="n">
-        <v>46.58</v>
+        <v>121.18</v>
       </c>
       <c r="J38" t="n">
-        <v>17.8</v>
+        <v>18.05</v>
       </c>
       <c r="K38" t="n">
         <v>2025</v>
@@ -2357,13 +2349,17 @@
         <v>8</v>
       </c>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="N38" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>45885</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Arnaud Tinhe</t>
+          <t>Luna Ciccardi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2373,29 +2369,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>+4178406508</t>
+          <t>+393485814122</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="E39" s="2" t="n">
         <v>45893</v>
       </c>
-      <c r="E39" s="2" t="n">
-        <v>45900</v>
-      </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>869.42</v>
+        <v>261.62</v>
       </c>
       <c r="H39" t="n">
-        <v>714.87</v>
+        <v>215.04</v>
       </c>
       <c r="I39" t="n">
-        <v>154.55</v>
+        <v>46.58</v>
       </c>
       <c r="J39" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K39" t="n">
         <v>2025</v>
@@ -2404,17 +2400,13 @@
         <v>8</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" s="3" t="n">
-        <v>45893</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <v>45893</v>
-      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Misato Hayashi</t>
+          <t>Arnaud Tinhe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2424,29 +2416,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>+14038525008</t>
+          <t>+4178406508</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
+        <v>45893</v>
+      </c>
+      <c r="E40" s="2" t="n">
         <v>45900</v>
       </c>
-      <c r="E40" s="2" t="n">
-        <v>45902</v>
-      </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G40" t="n">
-        <v>261.62</v>
+        <v>869.42</v>
       </c>
       <c r="H40" t="n">
-        <v>215.04</v>
+        <v>714.87</v>
       </c>
       <c r="I40" t="n">
-        <v>46.58</v>
+        <v>154.55</v>
       </c>
       <c r="J40" t="n">
-        <v>17.8</v>
+        <v>17.78</v>
       </c>
       <c r="K40" t="n">
         <v>2025</v>
@@ -2455,13 +2447,17 @@
         <v>8</v>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="N40" s="3" t="n">
+        <v>45893</v>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>45893</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lorens ter Hedde</t>
+          <t>Misato Hayashi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2471,48 +2467,44 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>+3164007930</t>
+          <t>+14038525008</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="E41" s="2" t="n">
         <v>45902</v>
       </c>
-      <c r="E41" s="2" t="n">
-        <v>45908</v>
-      </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>752.36</v>
+        <v>261.62</v>
       </c>
       <c r="H41" t="n">
-        <v>618.58</v>
+        <v>215.04</v>
       </c>
       <c r="I41" t="n">
-        <v>133.78</v>
+        <v>46.58</v>
       </c>
       <c r="J41" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K41" t="n">
         <v>2025</v>
       </c>
       <c r="L41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" s="3" t="n">
-        <v>45902</v>
-      </c>
-      <c r="O41" s="3" t="n">
-        <v>45902</v>
-      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dario Ottobretti</t>
+          <t>Lorens ter Hedde</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2522,29 +2514,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>+39328785808</t>
+          <t>+3164007930</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45913</v>
+        <v>45908</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>473.24</v>
+        <v>752.36</v>
       </c>
       <c r="H42" t="n">
-        <v>389.26</v>
+        <v>618.58</v>
       </c>
       <c r="I42" t="n">
-        <v>83.98</v>
+        <v>133.78</v>
       </c>
       <c r="J42" t="n">
-        <v>17.75</v>
+        <v>17.78</v>
       </c>
       <c r="K42" t="n">
         <v>2025</v>
@@ -2554,16 +2546,16 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mateusz Lipkowski</t>
+          <t>Dario Ottobretti</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2573,29 +2565,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+4853000719</t>
+          <t>+39328785808</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45917</v>
+        <v>45913</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>401.18</v>
+        <v>473.24</v>
       </c>
       <c r="H43" t="n">
-        <v>329.88</v>
+        <v>389.26</v>
       </c>
       <c r="I43" t="n">
-        <v>71.3</v>
+        <v>83.98</v>
       </c>
       <c r="J43" t="n">
-        <v>17.77</v>
+        <v>17.75</v>
       </c>
       <c r="K43" t="n">
         <v>2025</v>
@@ -2605,16 +2597,16 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mauro Hugo Peruzzi</t>
+          <t>Mateusz Lipkowski</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2624,29 +2616,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+54346645992</t>
+          <t>+4853000719</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>284.12</v>
+        <v>401.18</v>
       </c>
       <c r="H44" t="n">
-        <v>233.39</v>
+        <v>329.88</v>
       </c>
       <c r="I44" t="n">
-        <v>50.73</v>
+        <v>71.3</v>
       </c>
       <c r="J44" t="n">
-        <v>17.86</v>
+        <v>17.77</v>
       </c>
       <c r="K44" t="n">
         <v>2025</v>
@@ -2656,16 +2648,16 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Mauro Hugo Peruzzi</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2675,14 +2667,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+31634008541</t>
+          <t>+54346645992</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45930</v>
+        <v>45922</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -2707,16 +2699,16 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" s="3" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2726,48 +2718,48 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+1250317939</t>
+          <t>+31634008541</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H46" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I46" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J46" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K46" t="n">
         <v>2025</v>
       </c>
       <c r="L46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2777,29 +2769,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+3376774051</t>
+          <t>+1250317939</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H47" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I47" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J47" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K47" t="n">
         <v>2025</v>
@@ -2809,16 +2801,16 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2828,44 +2820,48 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+4369912047111</t>
+          <t>+3376774051</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>46020</v>
+        <v>45939</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>46024</v>
+        <v>45943</v>
       </c>
       <c r="F48" t="n">
         <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>535.24</v>
+        <v>528.24</v>
       </c>
       <c r="H48" t="n">
-        <v>439.86</v>
+        <v>434.14</v>
       </c>
       <c r="I48" t="n">
-        <v>95.38</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>17.82</v>
+        <v>17.81</v>
       </c>
       <c r="K48" t="n">
         <v>2025</v>
       </c>
       <c r="L48" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="N48" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="O48" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2875,35 +2871,35 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+4917661016719</t>
+          <t>+4369912047111</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>46176</v>
+        <v>46020</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>46181</v>
+        <v>46024</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>657.8</v>
+        <v>535.24</v>
       </c>
       <c r="H49" t="n">
-        <v>540.64</v>
+        <v>439.86</v>
       </c>
       <c r="I49" t="n">
-        <v>117.16</v>
+        <v>95.38</v>
       </c>
       <c r="J49" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K49" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -2912,7 +2908,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2922,29 +2918,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>'+33334691787</t>
+          <t>+4917661016719</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H50" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I50" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J50" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K50" t="n">
         <v>2026</v>
@@ -2957,33 +2953,80 @@
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>'+33334691787</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
       <c r="G51" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H51" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I51" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J51" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6</v>
+      </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H52" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J52" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -528,15 +528,19 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D2" s="2" t="n">
         <v>45518</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45881</v>
+        <v>45521</v>
       </c>
       <c r="F2" t="n">
-        <v>363</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>397</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -546,13 +546,13 @@
         <v>397</v>
       </c>
       <c r="H2" t="n">
-        <v>223.78</v>
+        <v>323.78</v>
       </c>
       <c r="I2" t="n">
-        <v>173.22</v>
+        <v>73.22</v>
       </c>
       <c r="J2" t="n">
-        <v>43.63</v>
+        <v>18.44</v>
       </c>
       <c r="K2" t="n">
         <v>2024</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,11 +528,7 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" s="2" t="n">
         <v>45518</v>
       </c>
@@ -567,7 +563,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cristina Testoni</t>
+          <t>Barbara Pieper</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -575,37 +571,33 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>+393316017468</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" s="2" t="n">
-        <v>45597</v>
+        <v>45548</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45599</v>
+        <v>45881</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="G3" t="n">
-        <v>244.34</v>
+        <v>274</v>
       </c>
       <c r="H3" t="n">
-        <v>200.75</v>
+        <v>223.47</v>
       </c>
       <c r="I3" t="n">
-        <v>43.59</v>
+        <v>50.53</v>
       </c>
       <c r="J3" t="n">
-        <v>17.84</v>
+        <v>18.44</v>
       </c>
       <c r="K3" t="n">
         <v>2024</v>
       </c>
       <c r="L3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -614,7 +606,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Guillaume Etandin</t>
+          <t>Cristina Testoni</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -622,46 +614,46 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+393316017468</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="n">
-        <v>45656</v>
+        <v>45597</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45660</v>
+        <v>45599</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>460</v>
+        <v>244.34</v>
       </c>
       <c r="H4" t="n">
-        <v>375.36</v>
+        <v>200.75</v>
       </c>
       <c r="I4" t="n">
-        <v>84.64</v>
+        <v>43.59</v>
       </c>
       <c r="J4" t="n">
-        <v>18.4</v>
+        <v>17.84</v>
       </c>
       <c r="K4" t="n">
         <v>2024</v>
       </c>
       <c r="L4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" s="3" t="n">
-        <v>45656</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>45656</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olivier Condesso</t>
+          <t>Guillaume Etandin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -669,50 +661,46 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>+33624532669</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" s="2" t="n">
-        <v>45717</v>
+        <v>45656</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45718</v>
+        <v>45660</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>153.5</v>
+        <v>460</v>
       </c>
       <c r="H5" t="n">
-        <v>125.25</v>
+        <v>375.36</v>
       </c>
       <c r="I5" t="n">
-        <v>28.25</v>
+        <v>84.64</v>
       </c>
       <c r="J5" t="n">
         <v>18.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" s="3" t="n">
-        <v>45717</v>
+        <v>45656</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>45717</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>joseph parrella</t>
+          <t>Olivier Condesso</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -722,26 +710,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+33749649080</t>
+          <t>+33624532669</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45726</v>
+        <v>45717</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45730</v>
+        <v>45718</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>464</v>
+        <v>153.5</v>
       </c>
       <c r="H6" t="n">
-        <v>378.62</v>
+        <v>125.25</v>
       </c>
       <c r="I6" t="n">
-        <v>85.38</v>
+        <v>28.25</v>
       </c>
       <c r="J6" t="n">
         <v>18.4</v>
@@ -754,16 +742,16 @@
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" s="3" t="n">
-        <v>45726</v>
+        <v>45717</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>45726</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gracia Ballesteros</t>
+          <t>joseph parrella</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -773,26 +761,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+34629769069</t>
+          <t>+33749649080</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45763</v>
+        <v>45726</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45767</v>
+        <v>45730</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H7" t="n">
-        <v>375.36</v>
+        <v>378.62</v>
       </c>
       <c r="I7" t="n">
-        <v>84.64</v>
+        <v>85.38</v>
       </c>
       <c r="J7" t="n">
         <v>18.4</v>
@@ -801,20 +789,20 @@
         <v>2025</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" s="3" t="n">
-        <v>45763</v>
+        <v>45726</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>45763</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>chiara fontana</t>
+          <t>Gracia Ballesteros</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -824,48 +812,48 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>+34629769069</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45778</v>
+        <v>45763</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45780</v>
+        <v>45767</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>236.3</v>
+        <v>460</v>
       </c>
       <c r="H8" t="n">
-        <v>192.84</v>
+        <v>375.36</v>
       </c>
       <c r="I8" t="n">
-        <v>43.46</v>
+        <v>84.64</v>
       </c>
       <c r="J8" t="n">
-        <v>18.39</v>
+        <v>18.4</v>
       </c>
       <c r="K8" t="n">
         <v>2025</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" s="3" t="n">
-        <v>45778</v>
+        <v>45763</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>45778</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>algis smaliukas</t>
+          <t>chiara fontana</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -875,14 +863,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>+37065615323</t>
+          <t>+33617722379</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>45780</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>45782</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
@@ -907,16 +895,16 @@
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" s="3" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Reguera, Michael</t>
+          <t>algis smaliukas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -926,14 +914,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+33641153827</t>
+          <t>+37065615323</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45785</v>
+        <v>45780</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45787</v>
+        <v>45782</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -958,16 +946,16 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" s="3" t="n">
-        <v>45785</v>
+        <v>45780</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>45785</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Juliette Prins</t>
+          <t>Reguera, Michael</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -977,29 +965,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>+33641153827</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>45787</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>45790</v>
-      </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>360.5</v>
+        <v>236.3</v>
       </c>
       <c r="H11" t="n">
-        <v>299.21</v>
+        <v>192.84</v>
       </c>
       <c r="I11" t="n">
-        <v>61.29</v>
+        <v>43.46</v>
       </c>
       <c r="J11" t="n">
-        <v>17</v>
+        <v>18.39</v>
       </c>
       <c r="K11" t="n">
         <v>2025</v>
@@ -1009,16 +997,16 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" s="3" t="n">
-        <v>45787</v>
+        <v>45785</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>45787</v>
+        <v>45785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Denisa Lazarova Molnarova</t>
+          <t>Juliette Prins</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1032,25 +1020,25 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>45790</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>45794</v>
-      </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>422.6</v>
+        <v>360.5</v>
       </c>
       <c r="H12" t="n">
-        <v>356.26</v>
+        <v>299.21</v>
       </c>
       <c r="I12" t="n">
-        <v>66.34</v>
+        <v>61.29</v>
       </c>
       <c r="J12" t="n">
-        <v>15.7</v>
+        <v>17</v>
       </c>
       <c r="K12" t="n">
         <v>2025</v>
@@ -1060,16 +1048,16 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" s="3" t="n">
-        <v>45790</v>
+        <v>45787</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>45790</v>
+        <v>45787</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Domenic Boscariol</t>
+          <t>Denisa Lazarova Molnarova</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1079,29 +1067,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+14382755304</t>
+          <t>+33617722379</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>45801</v>
-      </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>774.5</v>
+        <v>422.6</v>
       </c>
       <c r="H13" t="n">
-        <v>632.5</v>
+        <v>356.26</v>
       </c>
       <c r="I13" t="n">
-        <v>142</v>
+        <v>66.34</v>
       </c>
       <c r="J13" t="n">
-        <v>18.33</v>
+        <v>15.7</v>
       </c>
       <c r="K13" t="n">
         <v>2025</v>
@@ -1111,16 +1099,16 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" s="3" t="n">
-        <v>45794</v>
+        <v>45790</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>45794</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aimee Packman</t>
+          <t>Domenic Boscariol</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1130,29 +1118,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>+14382755304</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>45801</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>45802</v>
-      </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>161</v>
+        <v>774.5</v>
       </c>
       <c r="H14" t="n">
-        <v>133.63</v>
+        <v>632.5</v>
       </c>
       <c r="I14" t="n">
-        <v>27.37</v>
+        <v>142</v>
       </c>
       <c r="J14" t="n">
-        <v>17</v>
+        <v>18.33</v>
       </c>
       <c r="K14" t="n">
         <v>2025</v>
@@ -1162,16 +1150,16 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" s="3" t="n">
-        <v>45801</v>
+        <v>45794</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>45801</v>
+        <v>45794</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Xue Wang</t>
+          <t>Aimee Packman</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1181,26 +1169,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+31686384020</t>
+          <t>+33617722379</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>45802</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>45805</v>
-      </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>329.45</v>
+        <v>161</v>
       </c>
       <c r="H15" t="n">
-        <v>273.44</v>
+        <v>133.63</v>
       </c>
       <c r="I15" t="n">
-        <v>56.01</v>
+        <v>27.37</v>
       </c>
       <c r="J15" t="n">
         <v>17</v>
@@ -1213,16 +1201,16 @@
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" s="3" t="n">
-        <v>45802</v>
+        <v>45801</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>45802</v>
+        <v>45801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Samet Pishleski</t>
+          <t>Xue Wang</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1232,26 +1220,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+41799339853</t>
+          <t>+31686384020</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45806</v>
+        <v>45802</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45809</v>
+        <v>45805</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>360.5</v>
+        <v>329.45</v>
       </c>
       <c r="H16" t="n">
-        <v>299.21</v>
+        <v>273.44</v>
       </c>
       <c r="I16" t="n">
-        <v>61.29</v>
+        <v>56.01</v>
       </c>
       <c r="J16" t="n">
         <v>17</v>
@@ -1264,16 +1252,16 @@
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" s="3" t="n">
-        <v>45806</v>
+        <v>45802</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>45806</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Christian Kohlberg</t>
+          <t>Samet Pishleski</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1283,26 +1271,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>+1776721532</t>
+          <t>+41799339853</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45811</v>
+        <v>45806</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45814</v>
+        <v>45809</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>387.5</v>
+        <v>360.5</v>
       </c>
       <c r="H17" t="n">
-        <v>321.62</v>
+        <v>299.21</v>
       </c>
       <c r="I17" t="n">
-        <v>65.88</v>
+        <v>61.29</v>
       </c>
       <c r="J17" t="n">
         <v>17</v>
@@ -1311,20 +1299,20 @@
         <v>2025</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" s="3" t="n">
-        <v>45811</v>
+        <v>45806</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>45811</v>
+        <v>45806</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wendy Agema</t>
+          <t>Christian Kohlberg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1334,26 +1322,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+33650232246</t>
+          <t>+1776721532</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45815</v>
+        <v>45811</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45816</v>
+        <v>45814</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>162.5</v>
+        <v>387.5</v>
       </c>
       <c r="H18" t="n">
-        <v>134.87</v>
+        <v>321.62</v>
       </c>
       <c r="I18" t="n">
-        <v>27.63</v>
+        <v>65.88</v>
       </c>
       <c r="J18" t="n">
         <v>17</v>
@@ -1366,16 +1354,16 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" s="3" t="n">
-        <v>45815</v>
+        <v>45811</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>45815</v>
+        <v>45811</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>maxime prodromidès</t>
+          <t>Wendy Agema</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1385,14 +1373,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>+33619201804</t>
+          <t>+33650232246</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
+        <v>45815</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>45816</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>45817</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1417,44 +1405,48 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" s="3" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Evie Ward</t>
+          <t>maxime prodromidès</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>+33619201804</t>
+        </is>
+      </c>
       <c r="D20" s="2" t="n">
+        <v>45816</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="E20" s="2" t="n">
-        <v>45820</v>
-      </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>600.67</v>
+        <v>162.5</v>
       </c>
       <c r="H20" t="n">
-        <v>482</v>
+        <v>134.87</v>
       </c>
       <c r="I20" t="n">
-        <v>118.67</v>
+        <v>27.63</v>
       </c>
       <c r="J20" t="n">
-        <v>19.76</v>
+        <v>17</v>
       </c>
       <c r="K20" t="n">
         <v>2025</v>
@@ -1464,48 +1456,44 @@
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" s="3" t="n">
-        <v>45817</v>
+        <v>45816</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>45817</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Amelia Eaton</t>
+          <t>Evie Ward</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>+61402780503</t>
-        </is>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" s="2" t="n">
-        <v>45821</v>
+        <v>45817</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45825</v>
+        <v>45820</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>500</v>
+        <v>600.67</v>
       </c>
       <c r="H21" t="n">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="I21" t="n">
-        <v>85</v>
+        <v>118.67</v>
       </c>
       <c r="J21" t="n">
-        <v>17</v>
+        <v>19.76</v>
       </c>
       <c r="K21" t="n">
         <v>2025</v>
@@ -1515,16 +1503,16 @@
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" s="3" t="n">
-        <v>45821</v>
+        <v>45817</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>45821</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Corinna Berndt</t>
+          <t>Amelia Eaton</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1534,26 +1522,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+15226502647</t>
+          <t>+61402780503</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <v>45825</v>
       </c>
-      <c r="E22" s="2" t="n">
-        <v>45832</v>
-      </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>833.5</v>
+        <v>500</v>
       </c>
       <c r="H22" t="n">
-        <v>691.8</v>
+        <v>415</v>
       </c>
       <c r="I22" t="n">
-        <v>141.7</v>
+        <v>85</v>
       </c>
       <c r="J22" t="n">
         <v>17</v>
@@ -1566,16 +1554,16 @@
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" s="3" t="n">
-        <v>45825</v>
+        <v>45821</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>45825</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Eric BOS</t>
+          <t>Corinna Berndt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1585,29 +1573,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>+33666358910</t>
+          <t>+15226502647</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="E23" s="2" t="n">
         <v>45832</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>45839</v>
       </c>
       <c r="F23" t="n">
         <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>837.5</v>
+        <v>833.5</v>
       </c>
       <c r="H23" t="n">
-        <v>696.12</v>
+        <v>691.8</v>
       </c>
       <c r="I23" t="n">
-        <v>141.38</v>
+        <v>141.7</v>
       </c>
       <c r="J23" t="n">
-        <v>16.88</v>
+        <v>17</v>
       </c>
       <c r="K23" t="n">
         <v>2025</v>
@@ -1617,95 +1605,95 @@
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" s="3" t="n">
-        <v>45832</v>
+        <v>45825</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>45832</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LillyLuong</t>
+          <t>Eric BOS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>+33666358910</t>
+        </is>
+      </c>
       <c r="D24" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <v>45839</v>
       </c>
-      <c r="E24" s="2" t="n">
-        <v>45841</v>
-      </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>308.79</v>
+        <v>837.5</v>
       </c>
       <c r="H24" t="n">
-        <v>250.64</v>
+        <v>696.12</v>
       </c>
       <c r="I24" t="n">
-        <v>58.15</v>
+        <v>141.38</v>
       </c>
       <c r="J24" t="n">
-        <v>18.83</v>
+        <v>16.88</v>
       </c>
       <c r="K24" t="n">
         <v>2025</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" s="3" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dorothrr SAMSON</t>
+          <t>LillyLuong</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>+33617722379</t>
-        </is>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="E25" s="2" t="n">
-        <v>45842</v>
-      </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>162.5</v>
+        <v>308.79</v>
       </c>
       <c r="H25" t="n">
-        <v>134.87</v>
+        <v>250.64</v>
       </c>
       <c r="I25" t="n">
-        <v>27.63</v>
+        <v>58.15</v>
       </c>
       <c r="J25" t="n">
-        <v>17</v>
+        <v>18.83</v>
       </c>
       <c r="K25" t="n">
         <v>2025</v>
@@ -1715,44 +1703,48 @@
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" s="3" t="n">
-        <v>45841</v>
+        <v>45839</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>45841</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Monica Eng</t>
+          <t>Dorothrr SAMSON</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>+33617722379</t>
+        </is>
+      </c>
       <c r="D26" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="E26" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="E26" s="2" t="n">
-        <v>45846</v>
-      </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>559.9400000000001</v>
+        <v>162.5</v>
       </c>
       <c r="H26" t="n">
-        <v>453.08</v>
+        <v>134.87</v>
       </c>
       <c r="I26" t="n">
-        <v>106.86</v>
+        <v>27.63</v>
       </c>
       <c r="J26" t="n">
-        <v>19.08</v>
+        <v>17</v>
       </c>
       <c r="K26" t="n">
         <v>2025</v>
@@ -1762,48 +1754,44 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" s="3" t="n">
-        <v>45842</v>
+        <v>45841</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>45842</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RED Swan</t>
+          <t>Monica Eng</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>+33617722379</t>
-        </is>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" s="2" t="n">
-        <v>45847</v>
+        <v>45842</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45849</v>
+        <v>45846</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>275</v>
+        <v>559.9400000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>224.27</v>
+        <v>453.08</v>
       </c>
       <c r="I27" t="n">
-        <v>50.73</v>
+        <v>106.86</v>
       </c>
       <c r="J27" t="n">
-        <v>18.45</v>
+        <v>19.08</v>
       </c>
       <c r="K27" t="n">
         <v>2025</v>
@@ -1813,44 +1801,48 @@
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" s="3" t="n">
-        <v>45847</v>
+        <v>45842</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>45847</v>
+        <v>45842</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Karsten Popp</t>
+          <t>RED Swan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Airbnb</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>+33617722379</t>
+        </is>
+      </c>
       <c r="D28" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <v>45849</v>
       </c>
-      <c r="E28" s="2" t="n">
-        <v>45852</v>
-      </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>490.94</v>
+        <v>275</v>
       </c>
       <c r="H28" t="n">
-        <v>395.24</v>
+        <v>224.27</v>
       </c>
       <c r="I28" t="n">
-        <v>95.7</v>
+        <v>50.73</v>
       </c>
       <c r="J28" t="n">
-        <v>19.49</v>
+        <v>18.45</v>
       </c>
       <c r="K28" t="n">
         <v>2025</v>
@@ -1860,48 +1852,44 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" s="3" t="n">
-        <v>45849</v>
+        <v>45847</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>45849</v>
+        <v>45847</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TIRA RIX</t>
+          <t>Karsten Popp</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>+6140753729</t>
-        </is>
-      </c>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <v>45852</v>
       </c>
-      <c r="E29" s="2" t="n">
-        <v>45854</v>
-      </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>309.12</v>
+        <v>490.94</v>
       </c>
       <c r="H29" t="n">
-        <v>253.79</v>
+        <v>395.24</v>
       </c>
       <c r="I29" t="n">
-        <v>55.33</v>
+        <v>95.7</v>
       </c>
       <c r="J29" t="n">
-        <v>17.9</v>
+        <v>19.49</v>
       </c>
       <c r="K29" t="n">
         <v>2025</v>
@@ -1911,16 +1899,16 @@
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" s="3" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Caroline Cavitte</t>
+          <t>TIRA RIX</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1930,29 +1918,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>+3363475330</t>
+          <t>+6140753729</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45859</v>
+        <v>45854</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>508.04</v>
+        <v>309.12</v>
       </c>
       <c r="H30" t="n">
-        <v>415.93</v>
+        <v>253.79</v>
       </c>
       <c r="I30" t="n">
-        <v>92.11</v>
+        <v>55.33</v>
       </c>
       <c r="J30" t="n">
-        <v>18.13</v>
+        <v>17.9</v>
       </c>
       <c r="K30" t="n">
         <v>2025</v>
@@ -1962,16 +1950,16 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" s="3" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Martens leon</t>
+          <t>Caroline Cavitte</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1981,29 +1969,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+33315713097</t>
+          <t>+3363475330</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45860</v>
+        <v>45855</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45865</v>
+        <v>45859</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>697.8</v>
+        <v>508.04</v>
       </c>
       <c r="H31" t="n">
-        <v>573.28</v>
+        <v>415.93</v>
       </c>
       <c r="I31" t="n">
-        <v>124.52</v>
+        <v>92.11</v>
       </c>
       <c r="J31" t="n">
-        <v>17.84</v>
+        <v>18.13</v>
       </c>
       <c r="K31" t="n">
         <v>2025</v>
@@ -2013,16 +2001,16 @@
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" s="3" t="n">
-        <v>45860</v>
+        <v>45855</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>45860</v>
+        <v>45855</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Louann Menard</t>
+          <t>Martens leon</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2032,29 +2020,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+3364942650</t>
+          <t>+33315713097</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45867</v>
+        <v>45860</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45870</v>
+        <v>45865</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>401.18</v>
+        <v>697.8</v>
       </c>
       <c r="H32" t="n">
-        <v>329.68</v>
+        <v>573.28</v>
       </c>
       <c r="I32" t="n">
-        <v>71.5</v>
+        <v>124.52</v>
       </c>
       <c r="J32" t="n">
-        <v>17.82</v>
+        <v>17.84</v>
       </c>
       <c r="K32" t="n">
         <v>2025</v>
@@ -2064,16 +2052,16 @@
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" s="3" t="n">
-        <v>45867</v>
+        <v>45860</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>45867</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Linda Boudjemai</t>
+          <t>Louann Menard</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2083,44 +2071,48 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>+33685678541</t>
+          <t>+3364942650</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>45870</v>
       </c>
-      <c r="E33" s="2" t="n">
-        <v>45871</v>
-      </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>171.56</v>
+        <v>401.18</v>
       </c>
       <c r="H33" t="n">
-        <v>140.77</v>
+        <v>329.68</v>
       </c>
       <c r="I33" t="n">
-        <v>30.79</v>
+        <v>71.5</v>
       </c>
       <c r="J33" t="n">
-        <v>17.95</v>
+        <v>17.82</v>
       </c>
       <c r="K33" t="n">
         <v>2025</v>
       </c>
       <c r="L33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="N33" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>45867</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Costabile Alessio</t>
+          <t>Linda Boudjemai</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2130,29 +2122,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+44749116568</t>
+          <t>+33685678541</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <v>45871</v>
       </c>
-      <c r="E34" s="2" t="n">
-        <v>45877</v>
-      </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>752.36</v>
+        <v>171.56</v>
       </c>
       <c r="H34" t="n">
-        <v>618.58</v>
+        <v>140.77</v>
       </c>
       <c r="I34" t="n">
-        <v>133.78</v>
+        <v>30.79</v>
       </c>
       <c r="J34" t="n">
-        <v>17.78</v>
+        <v>17.95</v>
       </c>
       <c r="K34" t="n">
         <v>2025</v>
@@ -2161,17 +2153,13 @@
         <v>8</v>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" s="3" t="n">
-        <v>45871</v>
-      </c>
-      <c r="O34" s="3" t="n">
-        <v>45871</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gregory Blanvillain</t>
+          <t>Costabile Alessio</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2181,29 +2169,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+33687762155</t>
+          <t>+44749116568</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
+        <v>45871</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>45877</v>
       </c>
-      <c r="E35" s="2" t="n">
-        <v>45878</v>
-      </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>167.06</v>
+        <v>752.36</v>
       </c>
       <c r="H35" t="n">
-        <v>133.1</v>
+        <v>618.58</v>
       </c>
       <c r="I35" t="n">
-        <v>33.96</v>
+        <v>133.78</v>
       </c>
       <c r="J35" t="n">
-        <v>20.33</v>
+        <v>17.78</v>
       </c>
       <c r="K35" t="n">
         <v>2025</v>
@@ -2212,41 +2200,49 @@
         <v>8</v>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="N35" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>45871</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fermeture</t>
+          <t>Gregory Blanvillain</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Autre</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>+33687762155</t>
+        </is>
+      </c>
       <c r="D36" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="E36" s="2" t="n">
         <v>45878</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>45879</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>167.06</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>133.1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>33.96</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>20.33</v>
       </c>
       <c r="K36" t="n">
         <v>2025</v>
@@ -2261,39 +2257,35 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mika Thielen</t>
+          <t>Fermeture</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>+4178406508</t>
-        </is>
-      </c>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" s="2" t="n">
+        <v>45878</v>
+      </c>
+      <c r="E37" s="2" t="n">
         <v>45879</v>
       </c>
-      <c r="E37" s="2" t="n">
-        <v>45884</v>
-      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>622.55</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>509.71</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>112.84</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>2025</v>
@@ -2302,17 +2294,13 @@
         <v>8</v>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" s="3" t="n">
-        <v>45879</v>
-      </c>
-      <c r="O37" s="3" t="n">
-        <v>45879</v>
-      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Maria Belen Anaya</t>
+          <t>Mika Thielen</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2322,29 +2310,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+54911645777</t>
+          <t>+4178406508</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>671.1799999999999</v>
+        <v>622.55</v>
       </c>
       <c r="H38" t="n">
-        <v>550</v>
+        <v>509.71</v>
       </c>
       <c r="I38" t="n">
-        <v>121.18</v>
+        <v>112.84</v>
       </c>
       <c r="J38" t="n">
-        <v>18.05</v>
+        <v>18.13</v>
       </c>
       <c r="K38" t="n">
         <v>2025</v>
@@ -2354,16 +2342,16 @@
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>45885</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Luna Ciccardi</t>
+          <t>Maria Belen Anaya</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2373,29 +2361,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>+393485814122</t>
+          <t>+54911645777</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="E39" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="E39" s="2" t="n">
-        <v>45893</v>
-      </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>261.62</v>
+        <v>671.1799999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>215.04</v>
+        <v>550</v>
       </c>
       <c r="I39" t="n">
-        <v>46.58</v>
+        <v>121.18</v>
       </c>
       <c r="J39" t="n">
-        <v>17.8</v>
+        <v>18.05</v>
       </c>
       <c r="K39" t="n">
         <v>2025</v>
@@ -2404,13 +2392,17 @@
         <v>8</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="N39" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>45885</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Arnaud Tinhe</t>
+          <t>Luna Ciccardi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2420,29 +2412,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>+4178406508</t>
+          <t>+393485814122</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="E40" s="2" t="n">
         <v>45893</v>
       </c>
-      <c r="E40" s="2" t="n">
-        <v>45900</v>
-      </c>
       <c r="F40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>869.42</v>
+        <v>261.62</v>
       </c>
       <c r="H40" t="n">
-        <v>714.87</v>
+        <v>215.04</v>
       </c>
       <c r="I40" t="n">
-        <v>154.55</v>
+        <v>46.58</v>
       </c>
       <c r="J40" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K40" t="n">
         <v>2025</v>
@@ -2451,17 +2443,13 @@
         <v>8</v>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" s="3" t="n">
-        <v>45893</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <v>45893</v>
-      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Misato Hayashi</t>
+          <t>Arnaud Tinhe</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2471,29 +2459,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>+14038525008</t>
+          <t>+4178406508</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
+        <v>45893</v>
+      </c>
+      <c r="E41" s="2" t="n">
         <v>45900</v>
       </c>
-      <c r="E41" s="2" t="n">
-        <v>45902</v>
-      </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>261.62</v>
+        <v>869.42</v>
       </c>
       <c r="H41" t="n">
-        <v>215.04</v>
+        <v>714.87</v>
       </c>
       <c r="I41" t="n">
-        <v>46.58</v>
+        <v>154.55</v>
       </c>
       <c r="J41" t="n">
-        <v>17.8</v>
+        <v>17.78</v>
       </c>
       <c r="K41" t="n">
         <v>2025</v>
@@ -2502,13 +2490,17 @@
         <v>8</v>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="N41" s="3" t="n">
+        <v>45893</v>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>45893</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lorens ter Hedde</t>
+          <t>Misato Hayashi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2518,48 +2510,44 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>+3164007930</t>
+          <t>+14038525008</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="E42" s="2" t="n">
         <v>45902</v>
       </c>
-      <c r="E42" s="2" t="n">
-        <v>45908</v>
-      </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>752.36</v>
+        <v>261.62</v>
       </c>
       <c r="H42" t="n">
-        <v>618.58</v>
+        <v>215.04</v>
       </c>
       <c r="I42" t="n">
-        <v>133.78</v>
+        <v>46.58</v>
       </c>
       <c r="J42" t="n">
-        <v>17.78</v>
+        <v>17.8</v>
       </c>
       <c r="K42" t="n">
         <v>2025</v>
       </c>
       <c r="L42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" s="3" t="n">
-        <v>45902</v>
-      </c>
-      <c r="O42" s="3" t="n">
-        <v>45902</v>
-      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Dario Ottobretti</t>
+          <t>Lorens ter Hedde</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2569,29 +2557,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+39328785808</t>
+          <t>+3164007930</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45913</v>
+        <v>45908</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G43" t="n">
-        <v>473.24</v>
+        <v>752.36</v>
       </c>
       <c r="H43" t="n">
-        <v>389.26</v>
+        <v>618.58</v>
       </c>
       <c r="I43" t="n">
-        <v>83.98</v>
+        <v>133.78</v>
       </c>
       <c r="J43" t="n">
-        <v>17.75</v>
+        <v>17.78</v>
       </c>
       <c r="K43" t="n">
         <v>2025</v>
@@ -2601,16 +2589,16 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mateusz Lipkowski</t>
+          <t>Dario Ottobretti</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2620,29 +2608,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+4853000719</t>
+          <t>+39328785808</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45917</v>
+        <v>45913</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>401.18</v>
+        <v>473.24</v>
       </c>
       <c r="H44" t="n">
-        <v>329.88</v>
+        <v>389.26</v>
       </c>
       <c r="I44" t="n">
-        <v>71.3</v>
+        <v>83.98</v>
       </c>
       <c r="J44" t="n">
-        <v>17.77</v>
+        <v>17.75</v>
       </c>
       <c r="K44" t="n">
         <v>2025</v>
@@ -2652,16 +2640,16 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mauro Hugo Peruzzi</t>
+          <t>Mateusz Lipkowski</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2671,29 +2659,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+54346645992</t>
+          <t>+4853000719</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>284.12</v>
+        <v>401.18</v>
       </c>
       <c r="H45" t="n">
-        <v>233.39</v>
+        <v>329.88</v>
       </c>
       <c r="I45" t="n">
-        <v>50.73</v>
+        <v>71.3</v>
       </c>
       <c r="J45" t="n">
-        <v>17.86</v>
+        <v>17.77</v>
       </c>
       <c r="K45" t="n">
         <v>2025</v>
@@ -2703,16 +2691,16 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>45920</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Mauro Hugo Peruzzi</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2722,14 +2710,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+31634008541</t>
+          <t>+54346645992</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45930</v>
+        <v>45922</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
@@ -2754,16 +2742,16 @@
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" s="3" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2773,48 +2761,48 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+1250317939</t>
+          <t>+31634008541</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H47" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I47" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J47" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K47" t="n">
         <v>2025</v>
       </c>
       <c r="L47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2824,29 +2812,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+3376774051</t>
+          <t>+1250317939</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H48" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I48" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J48" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K48" t="n">
         <v>2025</v>
@@ -2856,16 +2844,16 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2875,44 +2863,48 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+4369912047111</t>
+          <t>+3376774051</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>46020</v>
+        <v>45939</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>46024</v>
+        <v>45943</v>
       </c>
       <c r="F49" t="n">
         <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>535.24</v>
+        <v>528.24</v>
       </c>
       <c r="H49" t="n">
-        <v>439.86</v>
+        <v>434.14</v>
       </c>
       <c r="I49" t="n">
-        <v>95.38</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>17.82</v>
+        <v>17.81</v>
       </c>
       <c r="K49" t="n">
         <v>2025</v>
       </c>
       <c r="L49" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="N49" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="O49" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2922,35 +2914,35 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>+4917661016719</t>
+          <t>+4369912047111</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>46176</v>
+        <v>46020</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>46181</v>
+        <v>46024</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>657.8</v>
+        <v>535.24</v>
       </c>
       <c r="H50" t="n">
-        <v>540.64</v>
+        <v>439.86</v>
       </c>
       <c r="I50" t="n">
-        <v>117.16</v>
+        <v>95.38</v>
       </c>
       <c r="J50" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K50" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -2959,7 +2951,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2969,29 +2961,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>'+33334691787</t>
+          <t>+4917661016719</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H51" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I51" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J51" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K51" t="n">
         <v>2026</v>
@@ -3004,33 +2996,80 @@
       <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>'+33334691787</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
       <c r="G52" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H52" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I52" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J52" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6</v>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H53" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -571,15 +571,19 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D3" s="2" t="n">
         <v>45548</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45881</v>
+        <v>45550</v>
       </c>
       <c r="F3" t="n">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>274</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -571,11 +571,7 @@
           <t>Booking</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" s="2" t="n">
         <v>45548</v>
       </c>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,15 +503,20 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>ical_uid</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>uid_ical</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>annee</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>mois</t>
         </is>
@@ -559,6 +564,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +608,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -649,6 +656,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -690,12 +698,13 @@
         <v>12</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" s="3" t="n">
-        <v>45656</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" s="3" t="n">
         <v>45656</v>
       </c>
+      <c r="P5" s="3" t="n">
+        <v>45656</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -741,12 +750,13 @@
         <v>3</v>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" s="3" t="n">
-        <v>45717</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" s="3" t="n">
         <v>45717</v>
       </c>
+      <c r="P6" s="3" t="n">
+        <v>45717</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -792,12 +802,13 @@
         <v>3</v>
       </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" s="3" t="n">
-        <v>45726</v>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" s="3" t="n">
         <v>45726</v>
       </c>
+      <c r="P7" s="3" t="n">
+        <v>45726</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -843,12 +854,13 @@
         <v>4</v>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" s="3" t="n">
-        <v>45763</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" s="3" t="n">
         <v>45763</v>
       </c>
+      <c r="P8" s="3" t="n">
+        <v>45763</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -894,12 +906,13 @@
         <v>5</v>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" s="3" t="n">
-        <v>45778</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" s="3" t="n">
         <v>45778</v>
       </c>
+      <c r="P9" s="3" t="n">
+        <v>45778</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -945,12 +958,13 @@
         <v>5</v>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" s="3" t="n">
-        <v>45780</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" s="3" t="n">
         <v>45780</v>
       </c>
+      <c r="P10" s="3" t="n">
+        <v>45780</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -996,12 +1010,13 @@
         <v>5</v>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" s="3" t="n">
-        <v>45785</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" s="3" t="n">
         <v>45785</v>
       </c>
+      <c r="P11" s="3" t="n">
+        <v>45785</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1047,12 +1062,13 @@
         <v>5</v>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" s="3" t="n">
-        <v>45787</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" s="3" t="n">
         <v>45787</v>
       </c>
+      <c r="P12" s="3" t="n">
+        <v>45787</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1098,12 +1114,13 @@
         <v>5</v>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" s="3" t="n">
-        <v>45790</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" s="3" t="n">
         <v>45790</v>
       </c>
+      <c r="P13" s="3" t="n">
+        <v>45790</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1149,12 +1166,13 @@
         <v>5</v>
       </c>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" s="3" t="n">
-        <v>45794</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" s="3" t="n">
         <v>45794</v>
       </c>
+      <c r="P14" s="3" t="n">
+        <v>45794</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1200,12 +1218,13 @@
         <v>5</v>
       </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" s="3" t="n">
-        <v>45801</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" s="3" t="n">
         <v>45801</v>
       </c>
+      <c r="P15" s="3" t="n">
+        <v>45801</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1251,12 +1270,13 @@
         <v>5</v>
       </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" s="3" t="n">
-        <v>45802</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" s="3" t="n">
         <v>45802</v>
       </c>
+      <c r="P16" s="3" t="n">
+        <v>45802</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1302,12 +1322,13 @@
         <v>5</v>
       </c>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" s="3" t="n">
-        <v>45806</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" s="3" t="n">
         <v>45806</v>
       </c>
+      <c r="P17" s="3" t="n">
+        <v>45806</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1353,12 +1374,13 @@
         <v>6</v>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" s="3" t="n">
-        <v>45811</v>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" s="3" t="n">
         <v>45811</v>
       </c>
+      <c r="P18" s="3" t="n">
+        <v>45811</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1404,12 +1426,13 @@
         <v>6</v>
       </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" s="3" t="n">
-        <v>45815</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" s="3" t="n">
         <v>45815</v>
       </c>
+      <c r="P19" s="3" t="n">
+        <v>45815</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1455,10 +1478,11 @@
         <v>6</v>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" s="3" t="n">
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" s="3" t="n">
         <v>45816</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="P20" s="3" t="n">
         <v>45816</v>
       </c>
     </row>
@@ -1502,12 +1526,13 @@
         <v>6</v>
       </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" s="3" t="n">
-        <v>45817</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" s="3" t="n">
         <v>45817</v>
       </c>
+      <c r="P21" s="3" t="n">
+        <v>45817</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1553,12 +1578,13 @@
         <v>6</v>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" s="3" t="n">
-        <v>45821</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" s="3" t="n">
         <v>45821</v>
       </c>
+      <c r="P22" s="3" t="n">
+        <v>45821</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1604,12 +1630,13 @@
         <v>6</v>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" s="3" t="n">
-        <v>45825</v>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" s="3" t="n">
         <v>45825</v>
       </c>
+      <c r="P23" s="3" t="n">
+        <v>45825</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1655,10 +1682,11 @@
         <v>6</v>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" s="3" t="n">
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" s="3" t="n">
         <v>45832</v>
       </c>
-      <c r="O24" s="3" t="n">
+      <c r="P24" s="3" t="n">
         <v>45832</v>
       </c>
     </row>
@@ -1702,12 +1730,13 @@
         <v>7</v>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" s="3" t="n">
-        <v>45839</v>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" s="3" t="n">
         <v>45839</v>
       </c>
+      <c r="P25" s="3" t="n">
+        <v>45839</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1753,10 +1782,11 @@
         <v>7</v>
       </c>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" s="3" t="n">
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" s="3" t="n">
         <v>45841</v>
       </c>
-      <c r="O26" s="3" t="n">
+      <c r="P26" s="3" t="n">
         <v>45841</v>
       </c>
     </row>
@@ -1800,12 +1830,13 @@
         <v>7</v>
       </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" s="3" t="n">
-        <v>45842</v>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" s="3" t="n">
         <v>45842</v>
       </c>
+      <c r="P27" s="3" t="n">
+        <v>45842</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1851,10 +1882,11 @@
         <v>7</v>
       </c>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" s="3" t="n">
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" s="3" t="n">
         <v>45847</v>
       </c>
-      <c r="O28" s="3" t="n">
+      <c r="P28" s="3" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -1898,12 +1930,13 @@
         <v>7</v>
       </c>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" s="3" t="n">
-        <v>45849</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" s="3" t="n">
         <v>45849</v>
       </c>
+      <c r="P29" s="3" t="n">
+        <v>45849</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1949,12 +1982,13 @@
         <v>7</v>
       </c>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" s="3" t="n">
-        <v>45852</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" s="3" t="n">
         <v>45852</v>
       </c>
+      <c r="P30" s="3" t="n">
+        <v>45852</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2000,12 +2034,13 @@
         <v>7</v>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" s="3" t="n">
-        <v>45855</v>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" s="3" t="n">
         <v>45855</v>
       </c>
+      <c r="P31" s="3" t="n">
+        <v>45855</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2051,12 +2086,13 @@
         <v>7</v>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" s="3" t="n">
-        <v>45860</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" s="3" t="n">
         <v>45860</v>
       </c>
+      <c r="P32" s="3" t="n">
+        <v>45860</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2102,10 +2138,11 @@
         <v>7</v>
       </c>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" s="3" t="n">
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" s="3" t="n">
         <v>45867</v>
       </c>
-      <c r="O33" s="3" t="n">
+      <c r="P33" s="3" t="n">
         <v>45867</v>
       </c>
     </row>
@@ -2155,6 +2192,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2200,10 +2238,11 @@
         <v>8</v>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" s="3" t="n">
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" s="3" t="n">
         <v>45871</v>
       </c>
-      <c r="O35" s="3" t="n">
+      <c r="P35" s="3" t="n">
         <v>45871</v>
       </c>
     </row>
@@ -2253,6 +2292,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2296,6 +2336,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2341,12 +2382,13 @@
         <v>8</v>
       </c>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" s="3" t="n">
-        <v>45879</v>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" s="3" t="n">
         <v>45879</v>
       </c>
+      <c r="P38" s="3" t="n">
+        <v>45879</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2392,10 +2434,11 @@
         <v>8</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" s="3" t="n">
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" s="3" t="n">
         <v>45885</v>
       </c>
-      <c r="O39" s="3" t="n">
+      <c r="P39" s="3" t="n">
         <v>45885</v>
       </c>
     </row>
@@ -2445,6 +2488,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2490,10 +2534,11 @@
         <v>8</v>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" s="3" t="n">
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" s="3" t="n">
         <v>45893</v>
       </c>
-      <c r="O41" s="3" t="n">
+      <c r="P41" s="3" t="n">
         <v>45893</v>
       </c>
     </row>
@@ -2543,6 +2588,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2588,12 +2634,13 @@
         <v>9</v>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" s="3" t="n">
-        <v>45902</v>
-      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" s="3" t="n">
         <v>45902</v>
       </c>
+      <c r="P43" s="3" t="n">
+        <v>45902</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2639,12 +2686,13 @@
         <v>9</v>
       </c>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" s="3" t="n">
-        <v>45909</v>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" s="3" t="n">
         <v>45909</v>
       </c>
+      <c r="P44" s="3" t="n">
+        <v>45909</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2690,17 +2738,18 @@
         <v>9</v>
       </c>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" s="3" t="n">
-        <v>45914</v>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" s="3" t="n">
         <v>45914</v>
       </c>
+      <c r="P45" s="3" t="n">
+        <v>45914</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mauro Hugo Peruzzi</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2710,14 +2759,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+54346645992</t>
+          <t>+31634008541</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45920</v>
+        <v>45928</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45922</v>
+        <v>45930</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
@@ -2741,17 +2790,18 @@
         <v>9</v>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" s="3" t="n">
-        <v>45920</v>
-      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" s="3" t="n">
-        <v>45920</v>
+        <v>45928</v>
+      </c>
+      <c r="P46" s="3" t="n">
+        <v>45928</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2761,48 +2811,49 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+31634008541</t>
+          <t>+1250317939</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45930</v>
+        <v>45938</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>284.12</v>
+        <v>647.8</v>
       </c>
       <c r="H47" t="n">
-        <v>233.39</v>
+        <v>532.48</v>
       </c>
       <c r="I47" t="n">
-        <v>50.73</v>
+        <v>115.32</v>
       </c>
       <c r="J47" t="n">
-        <v>17.86</v>
+        <v>17.8</v>
       </c>
       <c r="K47" t="n">
         <v>2025</v>
       </c>
       <c r="L47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" s="3" t="n">
-        <v>45928</v>
-      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" s="3" t="n">
-        <v>45928</v>
+        <v>45933</v>
+      </c>
+      <c r="P47" s="3" t="n">
+        <v>45933</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2812,29 +2863,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+1250317939</t>
+          <t>+3376774051</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45938</v>
+        <v>45943</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>647.8</v>
+        <v>528.24</v>
       </c>
       <c r="H48" t="n">
-        <v>532.48</v>
+        <v>434.14</v>
       </c>
       <c r="I48" t="n">
-        <v>115.32</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>17.8</v>
+        <v>17.81</v>
       </c>
       <c r="K48" t="n">
         <v>2025</v>
@@ -2843,17 +2894,18 @@
         <v>10</v>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" s="3" t="n">
-        <v>45933</v>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" s="3" t="n">
-        <v>45933</v>
+        <v>45939</v>
+      </c>
+      <c r="P48" s="3" t="n">
+        <v>45939</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2863,48 +2915,45 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+3376774051</t>
+          <t>+4369912047111</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45939</v>
+        <v>46020</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45943</v>
+        <v>46024</v>
       </c>
       <c r="F49" t="n">
         <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>528.24</v>
+        <v>535.24</v>
       </c>
       <c r="H49" t="n">
-        <v>434.14</v>
+        <v>439.86</v>
       </c>
       <c r="I49" t="n">
-        <v>94.09999999999999</v>
+        <v>95.38</v>
       </c>
       <c r="J49" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K49" t="n">
         <v>2025</v>
       </c>
       <c r="L49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" s="3" t="n">
-        <v>45939</v>
-      </c>
-      <c r="O49" s="3" t="n">
-        <v>45939</v>
-      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2914,44 +2963,45 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>+4369912047111</t>
+          <t>+4917661016719</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>46020</v>
+        <v>46176</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>46024</v>
+        <v>46181</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>535.24</v>
+        <v>657.8</v>
       </c>
       <c r="H50" t="n">
-        <v>439.86</v>
+        <v>540.64</v>
       </c>
       <c r="I50" t="n">
-        <v>95.38</v>
+        <v>117.16</v>
       </c>
       <c r="J50" t="n">
-        <v>17.82</v>
+        <v>17.81</v>
       </c>
       <c r="K50" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="L50" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Claudine Fleury</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2961,29 +3011,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>+4917661016719</t>
+          <t>+33334691787</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>46176</v>
+        <v>46200</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>46181</v>
+        <v>46203</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>657.8</v>
+        <v>468.68</v>
       </c>
       <c r="H51" t="n">
-        <v>540.64</v>
+        <v>374.77</v>
       </c>
       <c r="I51" t="n">
-        <v>117.16</v>
+        <v>93.91</v>
       </c>
       <c r="J51" t="n">
-        <v>17.81</v>
+        <v>20.04</v>
       </c>
       <c r="K51" t="n">
         <v>2026</v>
@@ -2994,82 +3044,37 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Claudine Fleury</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>'+33334691787</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>46200</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>46203</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3</v>
-      </c>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>468.68</v>
+        <v>18916.8</v>
       </c>
       <c r="H52" t="n">
-        <v>374.77</v>
+        <v>15527.26</v>
       </c>
       <c r="I52" t="n">
-        <v>93.91</v>
+        <v>3389.54</v>
       </c>
       <c r="J52" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2026</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6</v>
-      </c>
+        <v>17.92</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
-        <v>18916.8</v>
-      </c>
-      <c r="H53" t="n">
-        <v>15527.26</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3389.54</v>
-      </c>
-      <c r="J53" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+393316017468</t>
+          <t>393316017468.0</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -719,7 +719,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+33624532669</t>
+          <t>33624532669.0</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+33749649080</t>
+          <t>33749649080.0</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -823,7 +823,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+34629769069</t>
+          <t>34629769069.0</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -875,7 +875,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>33617722379.0</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+37065615323</t>
+          <t>37065615323.0</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -979,7 +979,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>+33641153827</t>
+          <t>33641153827.0</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>33617722379.0</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>33617722379.0</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>+14382755304</t>
+          <t>14382755304.0</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>33617722379.0</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+31686384020</t>
+          <t>31686384020.0</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>+41799339853</t>
+          <t>41799339853.0</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+1776721532</t>
+          <t>1776721532.0</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>+33650232246</t>
+          <t>33650232246.0</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>+33619201804</t>
+          <t>33619201804.0</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+61402780503</t>
+          <t>61402780503.0</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>+15226502647</t>
+          <t>15226502647.0</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>+33666358910</t>
+          <t>33666358910.0</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>33617722379.0</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>+33617722379</t>
+          <t>33617722379.0</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>+6140753729</t>
+          <t>6140753729.0</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+3363475330</t>
+          <t>3363475330.0</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+33315713097</t>
+          <t>33315713097.0</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>+3364942650</t>
+          <t>3364942650.0</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+33685678541</t>
+          <t>33685678541.0</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+44749116568</t>
+          <t>44749116568.0</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>+33687762155</t>
+          <t>33687762155.0</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+4178406508</t>
+          <t>4178406508.0</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>+54911645777</t>
+          <t>54911645777.0</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>+393485814122</t>
+          <t>393485814122.0</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>+4178406508</t>
+          <t>4178406508.0</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>+14038525008</t>
+          <t>14038525008.0</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+3164007930</t>
+          <t>3164007930.0</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+39328785808</t>
+          <t>39328785808.0</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+4853000719</t>
+          <t>4853000719.0</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -2749,7 +2749,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Luca Bertagna</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2759,29 +2759,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+31634008541</t>
+          <t>+393382627120</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45928</v>
+        <v>45917</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45930</v>
+        <v>45920</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>284.12</v>
+        <v>355.28</v>
       </c>
       <c r="H46" t="n">
-        <v>233.39</v>
+        <v>341.6</v>
       </c>
       <c r="I46" t="n">
-        <v>50.73</v>
+        <v>13.68</v>
       </c>
       <c r="J46" t="n">
-        <v>17.86</v>
+        <v>3.85</v>
       </c>
       <c r="K46" t="n">
         <v>2025</v>
@@ -2791,17 +2791,13 @@
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="P46" s="3" t="n">
-        <v>45928</v>
-      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2811,49 +2807,49 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+1250317939</t>
+          <t>31634008541.0</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H47" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I47" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J47" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K47" t="n">
         <v>2025</v>
       </c>
       <c r="L47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2863,29 +2859,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+3376774051</t>
+          <t>1250317939.0</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H48" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I48" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J48" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K48" t="n">
         <v>2025</v>
@@ -2896,16 +2892,16 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2915,45 +2911,49 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+4369912047111</t>
+          <t>3376774051.0</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>46020</v>
+        <v>45939</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>46024</v>
+        <v>45943</v>
       </c>
       <c r="F49" t="n">
         <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>535.24</v>
+        <v>528.24</v>
       </c>
       <c r="H49" t="n">
-        <v>439.86</v>
+        <v>434.14</v>
       </c>
       <c r="I49" t="n">
-        <v>95.38</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>17.82</v>
+        <v>17.81</v>
       </c>
       <c r="K49" t="n">
         <v>2025</v>
       </c>
       <c r="L49" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="O49" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="P49" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2963,35 +2963,35 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>+4917661016719</t>
+          <t>4369912047111.0</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>46176</v>
+        <v>46020</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>46181</v>
+        <v>46024</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>657.8</v>
+        <v>535.24</v>
       </c>
       <c r="H50" t="n">
-        <v>540.64</v>
+        <v>439.86</v>
       </c>
       <c r="I50" t="n">
-        <v>117.16</v>
+        <v>95.38</v>
       </c>
       <c r="J50" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K50" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -3001,7 +3001,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3011,29 +3011,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>+33334691787</t>
+          <t>4917661016719.0</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H51" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I51" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J51" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K51" t="n">
         <v>2026</v>
@@ -3047,35 +3047,83 @@
       <c r="P51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>33334691787.0</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
       <c r="G52" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H52" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I52" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J52" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6</v>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H53" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+393382627120</t>
+          <t>393382627120.0</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
@@ -2797,7 +2797,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Uliana Samsonova</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2807,29 +2807,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>31634008541.0</t>
+          <t>+79522635119</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45930</v>
+        <v>45923</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>284.12</v>
+        <v>363.38</v>
       </c>
       <c r="H47" t="n">
-        <v>233.39</v>
+        <v>349.7</v>
       </c>
       <c r="I47" t="n">
-        <v>50.73</v>
+        <v>13.68</v>
       </c>
       <c r="J47" t="n">
-        <v>17.86</v>
+        <v>3.76</v>
       </c>
       <c r="K47" t="n">
         <v>2025</v>
@@ -2839,17 +2839,13 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="P47" s="3" t="n">
-        <v>45928</v>
-      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2859,49 +2855,49 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1250317939.0</t>
+          <t>31634008541.0</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H48" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I48" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J48" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K48" t="n">
         <v>2025</v>
       </c>
       <c r="L48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2911,29 +2907,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3376774051.0</t>
+          <t>1250317939.0</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H49" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I49" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J49" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K49" t="n">
         <v>2025</v>
@@ -2944,16 +2940,16 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2963,45 +2959,49 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4369912047111.0</t>
+          <t>3376774051.0</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>46020</v>
+        <v>45939</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>46024</v>
+        <v>45943</v>
       </c>
       <c r="F50" t="n">
         <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>535.24</v>
+        <v>528.24</v>
       </c>
       <c r="H50" t="n">
-        <v>439.86</v>
+        <v>434.14</v>
       </c>
       <c r="I50" t="n">
-        <v>95.38</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>17.82</v>
+        <v>17.81</v>
       </c>
       <c r="K50" t="n">
         <v>2025</v>
       </c>
       <c r="L50" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="O50" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="P50" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3011,35 +3011,35 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4917661016719.0</t>
+          <t>4369912047111.0</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>46176</v>
+        <v>46020</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>46181</v>
+        <v>46024</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>657.8</v>
+        <v>535.24</v>
       </c>
       <c r="H51" t="n">
-        <v>540.64</v>
+        <v>439.86</v>
       </c>
       <c r="I51" t="n">
-        <v>117.16</v>
+        <v>95.38</v>
       </c>
       <c r="J51" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K51" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3049,7 +3049,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3059,29 +3059,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>33334691787.0</t>
+          <t>4917661016719.0</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H52" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I52" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J52" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K52" t="n">
         <v>2026</v>
@@ -3095,35 +3095,83 @@
       <c r="P52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>33334691787.0</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
       <c r="G53" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H53" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I53" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J53" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6</v>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H54" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J54" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2845,7 +2845,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Uliana Samsonova</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2855,29 +2855,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31634008541.0</t>
+          <t>+79522635119</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45930</v>
+        <v>45923</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>284.12</v>
+        <v>363.38</v>
       </c>
       <c r="H48" t="n">
-        <v>233.39</v>
+        <v>349.7</v>
       </c>
       <c r="I48" t="n">
-        <v>50.73</v>
+        <v>13.68</v>
       </c>
       <c r="J48" t="n">
-        <v>17.86</v>
+        <v>3.76</v>
       </c>
       <c r="K48" t="n">
         <v>2025</v>
@@ -2887,17 +2887,13 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="P48" s="3" t="n">
-        <v>45928</v>
-      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2907,49 +2903,49 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1250317939.0</t>
+          <t>31634008541.0</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H49" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I49" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J49" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K49" t="n">
         <v>2025</v>
       </c>
       <c r="L49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2959,29 +2955,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3376774051.0</t>
+          <t>1250317939.0</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H50" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I50" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J50" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K50" t="n">
         <v>2025</v>
@@ -2992,16 +2988,16 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3011,45 +3007,49 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4369912047111.0</t>
+          <t>3376774051.0</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>46020</v>
+        <v>45939</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>46024</v>
+        <v>45943</v>
       </c>
       <c r="F51" t="n">
         <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>535.24</v>
+        <v>528.24</v>
       </c>
       <c r="H51" t="n">
-        <v>439.86</v>
+        <v>434.14</v>
       </c>
       <c r="I51" t="n">
-        <v>95.38</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>17.82</v>
+        <v>17.81</v>
       </c>
       <c r="K51" t="n">
         <v>2025</v>
       </c>
       <c r="L51" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="O51" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="P51" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3059,35 +3059,35 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4917661016719.0</t>
+          <t>4369912047111.0</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>46176</v>
+        <v>46020</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>46181</v>
+        <v>46024</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>657.8</v>
+        <v>535.24</v>
       </c>
       <c r="H52" t="n">
-        <v>540.64</v>
+        <v>439.86</v>
       </c>
       <c r="I52" t="n">
-        <v>117.16</v>
+        <v>95.38</v>
       </c>
       <c r="J52" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K52" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -3097,7 +3097,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3107,29 +3107,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>33334691787.0</t>
+          <t>4917661016719.0</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H53" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I53" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J53" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K53" t="n">
         <v>2026</v>
@@ -3143,35 +3143,83 @@
       <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>33334691787.0</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
       <c r="G54" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H54" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I54" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J54" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6</v>
+      </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H55" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J55" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+79522635119</t>
+          <t>79522635119.0</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+79522635119</t>
+          <t>79522635119.0</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -2893,7 +2893,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Uliana Samsonova</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2903,29 +2903,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31634008541.0</t>
+          <t>+79522635119</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45930</v>
+        <v>45923</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>284.12</v>
+        <v>363.38</v>
       </c>
       <c r="H49" t="n">
-        <v>233.39</v>
+        <v>298.84</v>
       </c>
       <c r="I49" t="n">
-        <v>50.73</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>17.86</v>
+        <v>17.76</v>
       </c>
       <c r="K49" t="n">
         <v>2025</v>
@@ -2935,17 +2935,13 @@
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="P49" s="3" t="n">
-        <v>45928</v>
-      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2955,49 +2951,49 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1250317939.0</t>
+          <t>31634008541.0</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>647.8</v>
+        <v>284.12</v>
       </c>
       <c r="H50" t="n">
-        <v>532.48</v>
+        <v>233.39</v>
       </c>
       <c r="I50" t="n">
-        <v>115.32</v>
+        <v>50.73</v>
       </c>
       <c r="J50" t="n">
-        <v>17.8</v>
+        <v>17.86</v>
       </c>
       <c r="K50" t="n">
         <v>2025</v>
       </c>
       <c r="L50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3007,29 +3003,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3376774051.0</t>
+          <t>1250317939.0</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>528.24</v>
+        <v>647.8</v>
       </c>
       <c r="H51" t="n">
-        <v>434.14</v>
+        <v>532.48</v>
       </c>
       <c r="I51" t="n">
-        <v>94.09999999999999</v>
+        <v>115.32</v>
       </c>
       <c r="J51" t="n">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="K51" t="n">
         <v>2025</v>
@@ -3040,16 +3036,16 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3059,45 +3055,49 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4369912047111.0</t>
+          <t>3376774051.0</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>46020</v>
+        <v>45939</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>46024</v>
+        <v>45943</v>
       </c>
       <c r="F52" t="n">
         <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>535.24</v>
+        <v>528.24</v>
       </c>
       <c r="H52" t="n">
-        <v>439.86</v>
+        <v>434.14</v>
       </c>
       <c r="I52" t="n">
-        <v>95.38</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>17.82</v>
+        <v>17.81</v>
       </c>
       <c r="K52" t="n">
         <v>2025</v>
       </c>
       <c r="L52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="O52" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="P52" s="3" t="n">
+        <v>45939</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3107,35 +3107,35 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4917661016719.0</t>
+          <t>4369912047111.0</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>46176</v>
+        <v>46020</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>46181</v>
+        <v>46024</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>657.8</v>
+        <v>535.24</v>
       </c>
       <c r="H53" t="n">
-        <v>540.64</v>
+        <v>439.86</v>
       </c>
       <c r="I53" t="n">
-        <v>117.16</v>
+        <v>95.38</v>
       </c>
       <c r="J53" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K53" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -3145,7 +3145,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3155,29 +3155,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>33334691787.0</t>
+          <t>4917661016719.0</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>46200</v>
+        <v>46176</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>46203</v>
+        <v>46181</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>468.68</v>
+        <v>657.8</v>
       </c>
       <c r="H54" t="n">
-        <v>374.77</v>
+        <v>540.64</v>
       </c>
       <c r="I54" t="n">
-        <v>93.91</v>
+        <v>117.16</v>
       </c>
       <c r="J54" t="n">
-        <v>20.04</v>
+        <v>17.81</v>
       </c>
       <c r="K54" t="n">
         <v>2026</v>
@@ -3191,35 +3191,83 @@
       <c r="P54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Claudine Fleury</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>33334691787.0</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>46200</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
       <c r="G55" t="n">
-        <v>18916.8</v>
+        <v>468.68</v>
       </c>
       <c r="H55" t="n">
-        <v>15527.26</v>
+        <v>374.77</v>
       </c>
       <c r="I55" t="n">
-        <v>3389.54</v>
+        <v>93.91</v>
       </c>
       <c r="J55" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+        <v>20.04</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2026</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6</v>
+      </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>18916.8</v>
+      </c>
+      <c r="H56" t="n">
+        <v>15527.26</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3389.54</v>
+      </c>
+      <c r="J56" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2871,13 +2871,13 @@
         <v>363.38</v>
       </c>
       <c r="H48" t="n">
-        <v>349.7</v>
+        <v>298.84</v>
       </c>
       <c r="I48" t="n">
-        <v>13.68</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>3.76</v>
+        <v>17.76</v>
       </c>
       <c r="K48" t="n">
         <v>2025</v>
@@ -2893,7 +2893,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Uliana Samsonova</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2903,29 +2903,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+79522635119</t>
+          <t>31634008541.0</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45920</v>
+        <v>45928</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45923</v>
+        <v>45930</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>363.38</v>
+        <v>284.12</v>
       </c>
       <c r="H49" t="n">
-        <v>298.84</v>
+        <v>233.39</v>
       </c>
       <c r="I49" t="n">
-        <v>64.54000000000001</v>
+        <v>50.73</v>
       </c>
       <c r="J49" t="n">
-        <v>17.76</v>
+        <v>17.86</v>
       </c>
       <c r="K49" t="n">
         <v>2025</v>
@@ -2935,13 +2935,17 @@
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="O49" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="P49" s="3" t="n">
+        <v>45928</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2951,49 +2955,49 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31634008541.0</t>
+          <t>1250317939.0</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45930</v>
+        <v>45938</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>284.12</v>
+        <v>647.8</v>
       </c>
       <c r="H50" t="n">
-        <v>233.39</v>
+        <v>532.48</v>
       </c>
       <c r="I50" t="n">
-        <v>50.73</v>
+        <v>115.32</v>
       </c>
       <c r="J50" t="n">
-        <v>17.86</v>
+        <v>17.8</v>
       </c>
       <c r="K50" t="n">
         <v>2025</v>
       </c>
       <c r="L50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" s="3" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3003,29 +3007,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1250317939.0</t>
+          <t>3376774051.0</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45938</v>
+        <v>45943</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>647.8</v>
+        <v>528.24</v>
       </c>
       <c r="H51" t="n">
-        <v>532.48</v>
+        <v>434.14</v>
       </c>
       <c r="I51" t="n">
-        <v>115.32</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>17.8</v>
+        <v>17.81</v>
       </c>
       <c r="K51" t="n">
         <v>2025</v>
@@ -3036,16 +3040,16 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" s="3" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3055,49 +3059,45 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3376774051.0</t>
+          <t>4369912047111.0</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45939</v>
+        <v>46020</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45943</v>
+        <v>46024</v>
       </c>
       <c r="F52" t="n">
         <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>528.24</v>
+        <v>535.24</v>
       </c>
       <c r="H52" t="n">
-        <v>434.14</v>
+        <v>439.86</v>
       </c>
       <c r="I52" t="n">
-        <v>94.09999999999999</v>
+        <v>95.38</v>
       </c>
       <c r="J52" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K52" t="n">
         <v>2025</v>
       </c>
       <c r="L52" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" s="3" t="n">
-        <v>45939</v>
-      </c>
-      <c r="P52" s="3" t="n">
-        <v>45939</v>
-      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3107,35 +3107,35 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4369912047111.0</t>
+          <t>4917661016719.0</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>46020</v>
+        <v>46176</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>46024</v>
+        <v>46181</v>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>535.24</v>
+        <v>657.8</v>
       </c>
       <c r="H53" t="n">
-        <v>439.86</v>
+        <v>540.64</v>
       </c>
       <c r="I53" t="n">
-        <v>95.38</v>
+        <v>117.16</v>
       </c>
       <c r="J53" t="n">
-        <v>17.82</v>
+        <v>17.81</v>
       </c>
       <c r="K53" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="L53" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -3145,7 +3145,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Claudine Fleury</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3155,29 +3155,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4917661016719.0</t>
+          <t>33334691787.0</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>46176</v>
+        <v>46200</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>46181</v>
+        <v>46203</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>657.8</v>
+        <v>468.68</v>
       </c>
       <c r="H54" t="n">
-        <v>540.64</v>
+        <v>374.77</v>
       </c>
       <c r="I54" t="n">
-        <v>117.16</v>
+        <v>93.91</v>
       </c>
       <c r="J54" t="n">
-        <v>17.81</v>
+        <v>20.04</v>
       </c>
       <c r="K54" t="n">
         <v>2026</v>
@@ -3191,83 +3191,35 @@
       <c r="P54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Claudine Fleury</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>33334691787.0</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>46200</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>46203</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3</v>
-      </c>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>468.68</v>
+        <v>18916.8</v>
       </c>
       <c r="H55" t="n">
-        <v>374.77</v>
+        <v>15527.26</v>
       </c>
       <c r="I55" t="n">
-        <v>93.91</v>
+        <v>3389.54</v>
       </c>
       <c r="J55" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2026</v>
-      </c>
-      <c r="L55" t="n">
-        <v>6</v>
-      </c>
+        <v>17.92</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="n">
-        <v>18916.8</v>
-      </c>
-      <c r="H56" t="n">
-        <v>15527.26</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3389.54</v>
-      </c>
-      <c r="J56" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2823,13 +2823,13 @@
         <v>363.38</v>
       </c>
       <c r="H47" t="n">
-        <v>349.7</v>
+        <v>298.84</v>
       </c>
       <c r="I47" t="n">
-        <v>13.68</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>3.76</v>
+        <v>17.76</v>
       </c>
       <c r="K47" t="n">
         <v>2025</v>
@@ -2845,7 +2845,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Uliana Samsonova</t>
+          <t>Andrey Averyanov</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2855,29 +2855,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>79522635119.0</t>
+          <t>31634008541.0</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45920</v>
+        <v>45928</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45923</v>
+        <v>45930</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>363.38</v>
+        <v>284.12</v>
       </c>
       <c r="H48" t="n">
-        <v>298.84</v>
+        <v>233.39</v>
       </c>
       <c r="I48" t="n">
-        <v>64.54000000000001</v>
+        <v>50.73</v>
       </c>
       <c r="J48" t="n">
-        <v>17.76</v>
+        <v>17.86</v>
       </c>
       <c r="K48" t="n">
         <v>2025</v>
@@ -2887,13 +2887,17 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+      <c r="O48" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="P48" s="3" t="n">
+        <v>45928</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Andrey Averyanov</t>
+          <t>Timothy Hoffman</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2903,49 +2907,49 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31634008541.0</t>
+          <t>1250317939.0</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45930</v>
+        <v>45938</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>284.12</v>
+        <v>647.8</v>
       </c>
       <c r="H49" t="n">
-        <v>233.39</v>
+        <v>532.48</v>
       </c>
       <c r="I49" t="n">
-        <v>50.73</v>
+        <v>115.32</v>
       </c>
       <c r="J49" t="n">
-        <v>17.86</v>
+        <v>17.8</v>
       </c>
       <c r="K49" t="n">
         <v>2025</v>
       </c>
       <c r="L49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" s="3" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Timothy Hoffman</t>
+          <t>Enzo Potherat</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2955,29 +2959,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1250317939.0</t>
+          <t>3376774051.0</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45938</v>
+        <v>45943</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>647.8</v>
+        <v>528.24</v>
       </c>
       <c r="H50" t="n">
-        <v>532.48</v>
+        <v>434.14</v>
       </c>
       <c r="I50" t="n">
-        <v>115.32</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>17.8</v>
+        <v>17.81</v>
       </c>
       <c r="K50" t="n">
         <v>2025</v>
@@ -2988,16 +2992,16 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" s="3" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Enzo Potherat</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3007,49 +3011,45 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3376774051.0</t>
+          <t>4369912047111.0</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45939</v>
+        <v>46020</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45943</v>
+        <v>46024</v>
       </c>
       <c r="F51" t="n">
         <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>528.24</v>
+        <v>535.24</v>
       </c>
       <c r="H51" t="n">
-        <v>434.14</v>
+        <v>439.86</v>
       </c>
       <c r="I51" t="n">
-        <v>94.09999999999999</v>
+        <v>95.38</v>
       </c>
       <c r="J51" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
       <c r="K51" t="n">
         <v>2025</v>
       </c>
       <c r="L51" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" s="3" t="n">
-        <v>45939</v>
-      </c>
-      <c r="P51" s="3" t="n">
-        <v>45939</v>
-      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3059,35 +3059,35 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4369912047111.0</t>
+          <t>4917661016719.0</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>46020</v>
+        <v>46176</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>46024</v>
+        <v>46181</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>535.24</v>
+        <v>657.8</v>
       </c>
       <c r="H52" t="n">
-        <v>439.86</v>
+        <v>540.64</v>
       </c>
       <c r="I52" t="n">
-        <v>95.38</v>
+        <v>117.16</v>
       </c>
       <c r="J52" t="n">
-        <v>17.82</v>
+        <v>17.81</v>
       </c>
       <c r="K52" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="L52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -3097,7 +3097,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Claudine Fleury</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3107,29 +3107,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4917661016719.0</t>
+          <t>33334691787.0</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>46176</v>
+        <v>46200</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>46181</v>
+        <v>46203</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>657.8</v>
+        <v>468.68</v>
       </c>
       <c r="H53" t="n">
-        <v>540.64</v>
+        <v>374.77</v>
       </c>
       <c r="I53" t="n">
-        <v>117.16</v>
+        <v>93.91</v>
       </c>
       <c r="J53" t="n">
-        <v>17.81</v>
+        <v>20.04</v>
       </c>
       <c r="K53" t="n">
         <v>2026</v>
@@ -3143,83 +3143,35 @@
       <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Claudine Fleury</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>33334691787.0</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>46200</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>46203</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>468.68</v>
+        <v>18916.8</v>
       </c>
       <c r="H54" t="n">
-        <v>374.77</v>
+        <v>15527.26</v>
       </c>
       <c r="I54" t="n">
-        <v>93.91</v>
+        <v>3389.54</v>
       </c>
       <c r="J54" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2026</v>
-      </c>
-      <c r="L54" t="n">
-        <v>6</v>
-      </c>
+        <v>17.92</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
-        <v>18916.8</v>
-      </c>
-      <c r="H55" t="n">
-        <v>15527.26</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3389.54</v>
-      </c>
-      <c r="J55" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -2775,13 +2775,13 @@
         <v>355.28</v>
       </c>
       <c r="H46" t="n">
-        <v>341.6</v>
+        <v>292.23</v>
       </c>
       <c r="I46" t="n">
-        <v>13.68</v>
+        <v>63.05</v>
       </c>
       <c r="J46" t="n">
-        <v>3.85</v>
+        <v>17.75</v>
       </c>
       <c r="K46" t="n">
         <v>2025</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea844a03bf6b2e0d/Documents/RESERVATIONS VILLA TOBIAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3DF112B3D300DA09B8AF14B1545ED87656CD5184" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5888B211-FB40-4F21-95B8-1BE0C2A452FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5CBA3064-F094-4DEB-B94F-03B156E9D783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>nom_client</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>Claudine Fleury</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -252,7 +249,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -309,7 +306,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2876,23 +2873,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54">
-        <v>18916.8</v>
-      </c>
-      <c r="H54">
-        <v>15527.26</v>
-      </c>
-      <c r="I54">
-        <v>3389.54</v>
-      </c>
-      <c r="J54">
-        <v>17.920000000000002</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea844a03bf6b2e0d/Documents/RESERVATIONS VILLA TOBIAS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea844a03bf6b2e0d/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5CBA3064-F094-4DEB-B94F-03B156E9D783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="14_{5CBA3064-F094-4DEB-B94F-03B156E9D783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F075DD71-74BC-447B-85BC-C1C699DE7B3A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>nom_client</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Claudine Fleury</t>
+  </si>
+  <si>
+    <t>Alina Cecilia Chiy</t>
   </si>
 </sst>
 </file>
@@ -609,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2873,6 +2876,35 @@
         <v>6</v>
       </c>
     </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>40740207071</v>
+      </c>
+      <c r="D54" s="2">
+        <v>46253</v>
+      </c>
+      <c r="E54" s="2">
+        <v>46258</v>
+      </c>
+      <c r="G54">
+        <v>657.5</v>
+      </c>
+      <c r="J54">
+        <v>22.8</v>
+      </c>
+      <c r="K54">
+        <v>2026</v>
+      </c>
+      <c r="L54">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea844a03bf6b2e0d/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea844a03bf6b2e0d/Documents/RESERVATIONS VILLA TOBIAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="14_{5CBA3064-F094-4DEB-B94F-03B156E9D783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F075DD71-74BC-447B-85BC-C1C699DE7B3A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="14_{5CBA3064-F094-4DEB-B94F-03B156E9D783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E891C782-59B9-40DB-82B6-C47B6EF61DFE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>nom_client</t>
   </si>
@@ -241,20 +241,18 @@
   </si>
   <si>
     <t>Claudine Fleury</t>
-  </si>
-  <si>
-    <t>Alina Cecilia Chiy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +264,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,18 +305,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,10 +644,8 @@
     <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="7.1796875" bestFit="1" customWidth="1"/>
@@ -637,56 +653,56 @@
     <col min="17" max="17" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -697,25 +713,25 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>45518</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>45521</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>397</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>323.77999999999997</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>73.22</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>18.440000000000001</v>
       </c>
       <c r="K2">
@@ -732,25 +748,25 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>45548</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>45550</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>274</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>223.47</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>50.53</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>18.440000000000001</v>
       </c>
       <c r="K3">
@@ -770,25 +786,25 @@
       <c r="C4">
         <v>393316017468</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>45597</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>45599</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>244.34</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>200.75</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>43.59</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>17.84</v>
       </c>
       <c r="K4">
@@ -805,25 +821,25 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>45656</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>45660</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>460</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>375.36</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>84.64</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>18.399999999999999</v>
       </c>
       <c r="K5">
@@ -832,10 +848,10 @@
       <c r="L5">
         <v>12</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>45656</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>45656</v>
       </c>
     </row>
@@ -849,25 +865,25 @@
       <c r="C6">
         <v>33624532669</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>45717</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>45718</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>153.5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>125.25</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>28.25</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>18.399999999999999</v>
       </c>
       <c r="K6">
@@ -876,10 +892,10 @@
       <c r="L6">
         <v>3</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>45717</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>45717</v>
       </c>
     </row>
@@ -893,25 +909,25 @@
       <c r="C7">
         <v>33749649080</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>45726</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>45730</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>464</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>378.62</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>85.38</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>18.399999999999999</v>
       </c>
       <c r="K7">
@@ -920,10 +936,10 @@
       <c r="L7">
         <v>3</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>45726</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>45726</v>
       </c>
     </row>
@@ -937,25 +953,25 @@
       <c r="C8">
         <v>34629769069</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>45763</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>45767</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>460</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>375.36</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>84.64</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>18.399999999999999</v>
       </c>
       <c r="K8">
@@ -964,10 +980,10 @@
       <c r="L8">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>45763</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>45763</v>
       </c>
     </row>
@@ -981,25 +997,25 @@
       <c r="C9">
         <v>33617722379</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>45778</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>45780</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>236.3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>192.84</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>43.46</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>18.39</v>
       </c>
       <c r="K9">
@@ -1008,10 +1024,10 @@
       <c r="L9">
         <v>5</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>45778</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>45778</v>
       </c>
     </row>
@@ -1025,25 +1041,25 @@
       <c r="C10">
         <v>37065615323</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>45780</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>45782</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>236.3</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>192.84</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>43.46</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>18.39</v>
       </c>
       <c r="K10">
@@ -1052,10 +1068,10 @@
       <c r="L10">
         <v>5</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>45780</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <v>45780</v>
       </c>
     </row>
@@ -1069,25 +1085,25 @@
       <c r="C11">
         <v>33641153827</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>45785</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>45787</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>236.3</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>192.84</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>43.46</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>18.39</v>
       </c>
       <c r="K11">
@@ -1096,10 +1112,10 @@
       <c r="L11">
         <v>5</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>45785</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>45785</v>
       </c>
     </row>
@@ -1113,25 +1129,25 @@
       <c r="C12">
         <v>33617722379</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>45787</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>45790</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>360.5</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>299.20999999999998</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>61.29</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>17</v>
       </c>
       <c r="K12">
@@ -1140,10 +1156,10 @@
       <c r="L12">
         <v>5</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>45787</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>45787</v>
       </c>
     </row>
@@ -1157,25 +1173,25 @@
       <c r="C13">
         <v>33617722379</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>45790</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>45794</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>422.6</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>356.26</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>66.34</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>15.7</v>
       </c>
       <c r="K13">
@@ -1184,10 +1200,10 @@
       <c r="L13">
         <v>5</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>45790</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <v>45790</v>
       </c>
     </row>
@@ -1201,25 +1217,25 @@
       <c r="C14">
         <v>14382755304</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>45794</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>45801</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>774.5</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>632.5</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>142</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>18.329999999999998</v>
       </c>
       <c r="K14">
@@ -1228,10 +1244,10 @@
       <c r="L14">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="2">
         <v>45794</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <v>45794</v>
       </c>
     </row>
@@ -1245,25 +1261,25 @@
       <c r="C15">
         <v>33617722379</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>45801</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>45802</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>161</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>133.63</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>27.37</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>17</v>
       </c>
       <c r="K15">
@@ -1272,10 +1288,10 @@
       <c r="L15">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>45801</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>45801</v>
       </c>
     </row>
@@ -1289,25 +1305,25 @@
       <c r="C16">
         <v>31686384020</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>45802</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>45805</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>329.45</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>273.44</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>56.01</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>17</v>
       </c>
       <c r="K16">
@@ -1316,10 +1332,10 @@
       <c r="L16">
         <v>5</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <v>45802</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="2">
         <v>45802</v>
       </c>
     </row>
@@ -1333,25 +1349,25 @@
       <c r="C17">
         <v>41799339853</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>45806</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>45809</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>360.5</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>299.20999999999998</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>61.29</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>17</v>
       </c>
       <c r="K17">
@@ -1360,10 +1376,10 @@
       <c r="L17">
         <v>5</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <v>45806</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <v>45806</v>
       </c>
     </row>
@@ -1377,25 +1393,25 @@
       <c r="C18">
         <v>1776721532</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>45811</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>45814</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>387.5</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>321.62</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>65.88</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>17</v>
       </c>
       <c r="K18">
@@ -1404,10 +1420,10 @@
       <c r="L18">
         <v>6</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <v>45811</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <v>45811</v>
       </c>
     </row>
@@ -1421,25 +1437,25 @@
       <c r="C19">
         <v>33650232246</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>45815</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>45816</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>162.5</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>134.87</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>27.63</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>17</v>
       </c>
       <c r="K19">
@@ -1448,10 +1464,10 @@
       <c r="L19">
         <v>6</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="2">
         <v>45815</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="2">
         <v>45815</v>
       </c>
     </row>
@@ -1465,25 +1481,25 @@
       <c r="C20">
         <v>33619201804</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>45816</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>45817</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>162.5</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>134.87</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>27.63</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>17</v>
       </c>
       <c r="K20">
@@ -1492,10 +1508,10 @@
       <c r="L20">
         <v>6</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <v>45816</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <v>45816</v>
       </c>
     </row>
@@ -1506,25 +1522,25 @@
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>45817</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>45820</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>600.66999999999996</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>482</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>118.67</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>19.760000000000002</v>
       </c>
       <c r="K21">
@@ -1533,10 +1549,10 @@
       <c r="L21">
         <v>6</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <v>45817</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <v>45817</v>
       </c>
     </row>
@@ -1550,25 +1566,25 @@
       <c r="C22">
         <v>61402780503</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>45821</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>45825</v>
       </c>
       <c r="F22">
         <v>4</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>415</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>85</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>17</v>
       </c>
       <c r="K22">
@@ -1577,10 +1593,10 @@
       <c r="L22">
         <v>6</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <v>45821</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <v>45821</v>
       </c>
     </row>
@@ -1594,25 +1610,25 @@
       <c r="C23">
         <v>15226502647</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>45825</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>45832</v>
       </c>
       <c r="F23">
         <v>7</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>833.5</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>691.8</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>141.69999999999999</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>17</v>
       </c>
       <c r="K23">
@@ -1621,10 +1637,10 @@
       <c r="L23">
         <v>6</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <v>45825</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <v>45825</v>
       </c>
     </row>
@@ -1638,25 +1654,25 @@
       <c r="C24">
         <v>33666358910</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>45832</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>45839</v>
       </c>
       <c r="F24">
         <v>7</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>837.5</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>696.12</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>141.38</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>16.88</v>
       </c>
       <c r="K24">
@@ -1665,10 +1681,10 @@
       <c r="L24">
         <v>6</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <v>45832</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="2">
         <v>45832</v>
       </c>
     </row>
@@ -1679,25 +1695,25 @@
       <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>45839</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>45841</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>308.79000000000002</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>250.64</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>58.15</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>18.829999999999998</v>
       </c>
       <c r="K25">
@@ -1706,10 +1722,10 @@
       <c r="L25">
         <v>7</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="2">
         <v>45839</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="2">
         <v>45839</v>
       </c>
     </row>
@@ -1723,25 +1739,25 @@
       <c r="C26">
         <v>33617722379</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>45841</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>45842</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>162.5</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>134.87</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>27.63</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <v>17</v>
       </c>
       <c r="K26">
@@ -1750,10 +1766,10 @@
       <c r="L26">
         <v>7</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="2">
         <v>45841</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="2">
         <v>45841</v>
       </c>
     </row>
@@ -1764,25 +1780,25 @@
       <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>45842</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>45846</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>559.94000000000005</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>453.08</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>106.86</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>19.079999999999998</v>
       </c>
       <c r="K27">
@@ -1791,10 +1807,10 @@
       <c r="L27">
         <v>7</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="2">
         <v>45842</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <v>45842</v>
       </c>
     </row>
@@ -1808,25 +1824,25 @@
       <c r="C28">
         <v>33617722379</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>45847</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>45849</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>275</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>224.27</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>50.73</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="4">
         <v>18.45</v>
       </c>
       <c r="K28">
@@ -1835,10 +1851,10 @@
       <c r="L28">
         <v>7</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="2">
         <v>45847</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="2">
         <v>45847</v>
       </c>
     </row>
@@ -1849,25 +1865,25 @@
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>45849</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>45852</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>490.94</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>395.24</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>95.7</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>19.489999999999998</v>
       </c>
       <c r="K29">
@@ -1876,10 +1892,10 @@
       <c r="L29">
         <v>7</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="2">
         <v>45849</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="2">
         <v>45849</v>
       </c>
     </row>
@@ -1893,25 +1909,25 @@
       <c r="C30">
         <v>6140753729</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>45852</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>45854</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>309.12</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>253.79</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>55.33</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="4">
         <v>17.899999999999999</v>
       </c>
       <c r="K30">
@@ -1920,10 +1936,10 @@
       <c r="L30">
         <v>7</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="2">
         <v>45852</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="2">
         <v>45852</v>
       </c>
     </row>
@@ -1937,25 +1953,25 @@
       <c r="C31">
         <v>3363475330</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>45855</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>45859</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>508.04</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>415.93</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>92.11</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="4">
         <v>18.13</v>
       </c>
       <c r="K31">
@@ -1964,10 +1980,10 @@
       <c r="L31">
         <v>7</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="2">
         <v>45855</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="2">
         <v>45855</v>
       </c>
     </row>
@@ -1981,25 +1997,25 @@
       <c r="C32">
         <v>33315713097</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>45860</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>45865</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>697.8</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>573.28</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>124.52</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>17.84</v>
       </c>
       <c r="K32">
@@ -2008,10 +2024,10 @@
       <c r="L32">
         <v>7</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="2">
         <v>45860</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="2">
         <v>45860</v>
       </c>
     </row>
@@ -2025,25 +2041,25 @@
       <c r="C33">
         <v>3364942650</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>45867</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>45870</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>401.18</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>329.68</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>71.5</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <v>17.82</v>
       </c>
       <c r="K33">
@@ -2052,10 +2068,10 @@
       <c r="L33">
         <v>7</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="2">
         <v>45867</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="2">
         <v>45867</v>
       </c>
     </row>
@@ -2069,25 +2085,25 @@
       <c r="C34">
         <v>33685678541</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>45870</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>45871</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>171.56</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>140.77000000000001</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>30.79</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="4">
         <v>17.95</v>
       </c>
       <c r="K34">
@@ -2107,25 +2123,25 @@
       <c r="C35">
         <v>44749116568</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>45871</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>45877</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>752.36</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>618.58000000000004</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>133.78</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>17.78</v>
       </c>
       <c r="K35">
@@ -2134,10 +2150,10 @@
       <c r="L35">
         <v>8</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="2">
         <v>45871</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="2">
         <v>45871</v>
       </c>
     </row>
@@ -2151,25 +2167,25 @@
       <c r="C36">
         <v>33687762155</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>45877</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>45878</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>167.06</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>133.1</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>33.96</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="4">
         <v>20.329999999999998</v>
       </c>
       <c r="K36">
@@ -2186,25 +2202,25 @@
       <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>45878</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>45879</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>0</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>0</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="4">
         <v>0</v>
       </c>
       <c r="K37">
@@ -2224,25 +2240,25 @@
       <c r="C38">
         <v>4178406508</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>45879</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>45884</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>622.54999999999995</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>509.71</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>112.84</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="4">
         <v>18.13</v>
       </c>
       <c r="K38">
@@ -2251,10 +2267,10 @@
       <c r="L38">
         <v>8</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="2">
         <v>45879</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="2">
         <v>45879</v>
       </c>
     </row>
@@ -2268,25 +2284,25 @@
       <c r="C39">
         <v>54911645777</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>45885</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>45891</v>
       </c>
       <c r="F39">
         <v>6</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>671.18</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>550</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>121.18</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="4">
         <v>18.05</v>
       </c>
       <c r="K39">
@@ -2295,10 +2311,10 @@
       <c r="L39">
         <v>8</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="2">
         <v>45885</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="2">
         <v>45885</v>
       </c>
     </row>
@@ -2312,25 +2328,25 @@
       <c r="C40">
         <v>393485814122</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>45891</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>45893</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>261.62</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>215.04</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>46.58</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="4">
         <v>17.8</v>
       </c>
       <c r="K40">
@@ -2350,25 +2366,25 @@
       <c r="C41">
         <v>4178406508</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>45893</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>45900</v>
       </c>
       <c r="F41">
         <v>7</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>869.42</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>714.87</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>154.55000000000001</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="4">
         <v>17.78</v>
       </c>
       <c r="K41">
@@ -2377,10 +2393,10 @@
       <c r="L41">
         <v>8</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="2">
         <v>45893</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="2">
         <v>45893</v>
       </c>
     </row>
@@ -2394,25 +2410,25 @@
       <c r="C42">
         <v>14038525008</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>45900</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>45902</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>261.62</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>215.04</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>46.58</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="4">
         <v>17.8</v>
       </c>
       <c r="K42">
@@ -2432,25 +2448,25 @@
       <c r="C43">
         <v>3164007930</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>45902</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>45908</v>
       </c>
       <c r="F43">
         <v>6</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>752.36</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>618.58000000000004</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>133.78</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="4">
         <v>17.78</v>
       </c>
       <c r="K43">
@@ -2459,10 +2475,10 @@
       <c r="L43">
         <v>9</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="2">
         <v>45902</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="2">
         <v>45902</v>
       </c>
     </row>
@@ -2476,25 +2492,25 @@
       <c r="C44">
         <v>39328785808</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>45909</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>45913</v>
       </c>
       <c r="F44">
         <v>4</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>473.24</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <v>389.26</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>83.98</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="4">
         <v>17.75</v>
       </c>
       <c r="K44">
@@ -2503,10 +2519,10 @@
       <c r="L44">
         <v>9</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="2">
         <v>45909</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="2">
         <v>45909</v>
       </c>
     </row>
@@ -2520,25 +2536,25 @@
       <c r="C45">
         <v>4853000719</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>45914</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>45917</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>401.18</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>329.88</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>71.3</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="4">
         <v>17.77</v>
       </c>
       <c r="K45">
@@ -2547,10 +2563,10 @@
       <c r="L45">
         <v>9</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="2">
         <v>45914</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="2">
         <v>45914</v>
       </c>
     </row>
@@ -2564,25 +2580,25 @@
       <c r="C46">
         <v>393382627120</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>45917</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>45920</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>355.28</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>292.23</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>63.05</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="4">
         <v>17.75</v>
       </c>
       <c r="K46">
@@ -2602,25 +2618,25 @@
       <c r="C47">
         <v>79522635119</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>45920</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>45923</v>
       </c>
       <c r="F47">
         <v>3</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>363.38</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>298.83999999999997</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>64.540000000000006</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="4">
         <v>17.760000000000002</v>
       </c>
       <c r="K47">
@@ -2640,25 +2656,25 @@
       <c r="C48">
         <v>31634008541</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>45928</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>45930</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>284.12</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>233.39</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>50.73</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="4">
         <v>17.86</v>
       </c>
       <c r="K48">
@@ -2667,10 +2683,10 @@
       <c r="L48">
         <v>9</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="2">
         <v>45928</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="2">
         <v>45928</v>
       </c>
     </row>
@@ -2684,25 +2700,25 @@
       <c r="C49">
         <v>1250317939</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>45933</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>45938</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>647.79999999999995</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>532.48</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>115.32</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="4">
         <v>17.8</v>
       </c>
       <c r="K49">
@@ -2711,10 +2727,10 @@
       <c r="L49">
         <v>10</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="2">
         <v>45933</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="2">
         <v>45933</v>
       </c>
     </row>
@@ -2728,25 +2744,25 @@
       <c r="C50">
         <v>3376774051</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>45939</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>45943</v>
       </c>
       <c r="F50">
         <v>4</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>528.24</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>434.14</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>94.1</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="4">
         <v>17.809999999999999</v>
       </c>
       <c r="K50">
@@ -2755,10 +2771,10 @@
       <c r="L50">
         <v>10</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="2">
         <v>45939</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="2">
         <v>45939</v>
       </c>
     </row>
@@ -2772,25 +2788,25 @@
       <c r="C51">
         <v>4369912047111</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>46020</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>46024</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>535.24</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <v>439.86</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>95.38</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="4">
         <v>17.82</v>
       </c>
       <c r="K51">
@@ -2810,25 +2826,25 @@
       <c r="C52">
         <v>4917661016719</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>46176</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>46181</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>657.8</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <v>540.64</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>117.16</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="4">
         <v>17.809999999999999</v>
       </c>
       <c r="K52">
@@ -2848,25 +2864,25 @@
       <c r="C53">
         <v>33334691787</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>46200</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>46203</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <v>468.68</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <v>374.77</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>93.91</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="4">
         <v>20.04</v>
       </c>
       <c r="K53">
@@ -2874,35 +2890,6 @@
       </c>
       <c r="L53">
         <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54">
-        <v>40740207071</v>
-      </c>
-      <c r="D54" s="2">
-        <v>46253</v>
-      </c>
-      <c r="E54" s="2">
-        <v>46258</v>
-      </c>
-      <c r="G54">
-        <v>657.5</v>
-      </c>
-      <c r="J54">
-        <v>22.8</v>
-      </c>
-      <c r="K54">
-        <v>2026</v>
-      </c>
-      <c r="L54">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE71F72B-86C3-43EE-AA31-C31E8FF52860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D08032-D351-4E03-AB01-22BC1B87619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Plateformes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -385,7 +385,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -450,7 +450,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -4120,7 +4120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11CEADA-0502-4A83-B852-5CD6A4FFDEB4}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea844a03bf6b2e0d/Documents/RESERVATIONS VILLA TOBIAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D08032-D351-4E03-AB01-22BC1B87619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_7DB951BAD3305A7BF8CF07B1545ED87656CD84EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AD48941-45FE-4F80-95F4-853ECE67CC4F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
   <si>
     <t>paye</t>
   </si>
@@ -377,6 +377,15 @@
   </si>
   <si>
     <t>couleur</t>
+  </si>
+  <si>
+    <t>#1e90ff</t>
+  </si>
+  <si>
+    <t>#e74c3c</t>
+  </si>
+  <si>
+    <t>#f59e0b</t>
   </si>
 </sst>
 </file>
@@ -387,7 +396,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,14 +408,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -444,16 +445,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -877,10 +875,10 @@
         <v>397</v>
       </c>
       <c r="P2">
-        <v>73.22</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>18.440000000000001</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>2024</v>
@@ -933,10 +931,10 @@
         <v>274</v>
       </c>
       <c r="P3">
-        <v>50.53</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>18.440000000000001</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>2024</v>
@@ -992,10 +990,10 @@
         <v>244.34</v>
       </c>
       <c r="P4">
-        <v>43.59</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>17.84</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>2024</v>
@@ -1048,10 +1046,10 @@
         <v>460</v>
       </c>
       <c r="P5">
-        <v>84.64</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>2024</v>
@@ -1113,10 +1111,10 @@
         <v>153.5</v>
       </c>
       <c r="P6">
-        <v>28.25</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>2025</v>
@@ -1178,10 +1176,10 @@
         <v>464</v>
       </c>
       <c r="P7">
-        <v>85.38</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>2025</v>
@@ -1243,10 +1241,10 @@
         <v>460</v>
       </c>
       <c r="P8">
-        <v>84.64</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>2025</v>
@@ -1308,10 +1306,10 @@
         <v>236.3</v>
       </c>
       <c r="P9">
-        <v>43.46</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>18.39</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>2025</v>
@@ -1373,10 +1371,10 @@
         <v>236.3</v>
       </c>
       <c r="P10">
-        <v>43.46</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>18.39</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>2025</v>
@@ -1438,10 +1436,10 @@
         <v>236.3</v>
       </c>
       <c r="P11">
-        <v>43.46</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>18.39</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>2025</v>
@@ -1503,10 +1501,10 @@
         <v>360.5</v>
       </c>
       <c r="P12">
-        <v>61.29</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>2025</v>
@@ -1568,10 +1566,10 @@
         <v>422.6</v>
       </c>
       <c r="P13">
-        <v>66.34</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>2025</v>
@@ -1633,10 +1631,10 @@
         <v>774.5</v>
       </c>
       <c r="P14">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>18.329999999999998</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>2025</v>
@@ -1698,10 +1696,10 @@
         <v>161</v>
       </c>
       <c r="P15">
-        <v>27.37</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>2025</v>
@@ -1763,10 +1761,10 @@
         <v>329.45</v>
       </c>
       <c r="P16">
-        <v>56.01</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>2025</v>
@@ -1828,10 +1826,10 @@
         <v>360.5</v>
       </c>
       <c r="P17">
-        <v>61.29</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>2025</v>
@@ -1893,10 +1891,10 @@
         <v>387.5</v>
       </c>
       <c r="P18">
-        <v>65.88</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>2025</v>
@@ -1958,10 +1956,10 @@
         <v>162.5</v>
       </c>
       <c r="P19">
-        <v>27.63</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>2025</v>
@@ -2023,10 +2021,10 @@
         <v>162.5</v>
       </c>
       <c r="P20">
-        <v>27.63</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>2025</v>
@@ -2085,10 +2083,10 @@
         <v>600.66999999999996</v>
       </c>
       <c r="P21">
-        <v>118.67</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>19.760000000000002</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>2025</v>
@@ -2150,10 +2148,10 @@
         <v>500</v>
       </c>
       <c r="P22">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>2025</v>
@@ -2215,10 +2213,10 @@
         <v>833.5</v>
       </c>
       <c r="P23">
-        <v>141.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>2025</v>
@@ -2280,10 +2278,10 @@
         <v>837.5</v>
       </c>
       <c r="P24">
-        <v>141.38</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.88</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>2025</v>
@@ -2342,10 +2340,10 @@
         <v>308.79000000000002</v>
       </c>
       <c r="P25">
-        <v>58.15</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>18.829999999999998</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>2025</v>
@@ -2407,10 +2405,10 @@
         <v>162.5</v>
       </c>
       <c r="P26">
-        <v>27.63</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>2025</v>
@@ -2469,10 +2467,10 @@
         <v>559.94000000000005</v>
       </c>
       <c r="P27">
-        <v>106.86</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>19.079999999999998</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <v>2025</v>
@@ -2534,10 +2532,10 @@
         <v>275</v>
       </c>
       <c r="P28">
-        <v>50.73</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>18.45</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>2025</v>
@@ -2596,10 +2594,10 @@
         <v>490.94</v>
       </c>
       <c r="P29">
-        <v>95.7</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>19.489999999999998</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>2025</v>
@@ -2661,10 +2659,10 @@
         <v>309.12</v>
       </c>
       <c r="P30">
-        <v>55.33</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>17.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>2025</v>
@@ -2726,10 +2724,10 @@
         <v>508.04</v>
       </c>
       <c r="P31">
-        <v>92.11</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>18.13</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>2025</v>
@@ -2791,10 +2789,10 @@
         <v>697.8</v>
       </c>
       <c r="P32">
-        <v>124.52</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>17.84</v>
+        <v>0</v>
       </c>
       <c r="R32">
         <v>2025</v>
@@ -2856,10 +2854,10 @@
         <v>401.18</v>
       </c>
       <c r="P33">
-        <v>71.5</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>17.82</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>2025</v>
@@ -2921,10 +2919,10 @@
         <v>171.56</v>
       </c>
       <c r="P34">
-        <v>30.79</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>17.95</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>2025</v>
@@ -2980,10 +2978,10 @@
         <v>752.36</v>
       </c>
       <c r="P35">
-        <v>133.78</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>17.78</v>
+        <v>0</v>
       </c>
       <c r="R35">
         <v>2025</v>
@@ -3045,10 +3043,10 @@
         <v>167.06</v>
       </c>
       <c r="P36">
-        <v>33.96</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>20.329999999999998</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <v>2025</v>
@@ -3160,10 +3158,10 @@
         <v>622.54999999999995</v>
       </c>
       <c r="P38">
-        <v>112.84</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>18.13</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>2025</v>
@@ -3225,10 +3223,10 @@
         <v>671.18</v>
       </c>
       <c r="P39">
-        <v>121.18</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>18.05</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>2025</v>
@@ -3290,10 +3288,10 @@
         <v>261.62</v>
       </c>
       <c r="P40">
-        <v>46.58</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>2025</v>
@@ -3414,10 +3412,10 @@
         <v>261.62</v>
       </c>
       <c r="P42">
-        <v>46.58</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>2025</v>
@@ -3473,10 +3471,10 @@
         <v>752.36</v>
       </c>
       <c r="P43">
-        <v>133.78</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>17.78</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>2025</v>
@@ -3538,10 +3536,10 @@
         <v>473.24</v>
       </c>
       <c r="P44">
-        <v>83.98</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>17.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>2025</v>
@@ -3603,10 +3601,10 @@
         <v>401.18</v>
       </c>
       <c r="P45">
-        <v>71.3</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>17.77</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>2025</v>
@@ -3668,10 +3666,10 @@
         <v>355.28</v>
       </c>
       <c r="P46">
-        <v>63.05</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>17.75</v>
+        <v>0</v>
       </c>
       <c r="R46">
         <v>2025</v>
@@ -3727,10 +3725,10 @@
         <v>363.38</v>
       </c>
       <c r="P47">
-        <v>64.540000000000006</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>17.760000000000002</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>2025</v>
@@ -3786,10 +3784,10 @@
         <v>284.12</v>
       </c>
       <c r="P48">
-        <v>50.73</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>17.86</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>2025</v>
@@ -3851,10 +3849,10 @@
         <v>647.79999999999995</v>
       </c>
       <c r="P49">
-        <v>115.32</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <v>2025</v>
@@ -3916,10 +3914,10 @@
         <v>528.24</v>
       </c>
       <c r="P50">
-        <v>94.1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>17.809999999999999</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>2025</v>
@@ -3981,10 +3979,10 @@
         <v>535.24</v>
       </c>
       <c r="P51">
-        <v>95.38</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>17.82</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>2025</v>
@@ -4040,10 +4038,10 @@
         <v>657.8</v>
       </c>
       <c r="P52">
-        <v>117.16</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>17.809999999999999</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>2026</v>
@@ -4099,10 +4097,10 @@
         <v>468.68</v>
       </c>
       <c r="P53">
-        <v>93.91</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>20.04</v>
+        <v>0</v>
       </c>
       <c r="R53">
         <v>2026</v>
@@ -4117,21 +4115,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11CEADA-0502-4A83-B852-5CD6A4FFDEB4}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D811DD-8E4E-42A9-B1F0-C0AD2BE1DA2F}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea844a03bf6b2e0d/Documents/RESERVATIONS VILLA TOBIAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_7DB951BAD3305A7BF8CF07B1545ED87656CD84EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AD48941-45FE-4F80-95F4-853ECE67CC4F}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_7DB951BAD3305A7BF8CF07B1545ED87656CD84EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C60F9B5-E4DF-4A0D-91FE-6805E8E601FF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
   <si>
     <t>paye</t>
   </si>
@@ -386,6 +386,18 @@
   </si>
   <si>
     <t>#f59e0b</t>
+  </si>
+  <si>
+    <t>Annule/Paye</t>
+  </si>
+  <si>
+    <t>PAP</t>
+  </si>
+  <si>
+    <t>#FF00FF</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
   </si>
 </sst>
 </file>
@@ -4116,13 +4128,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D811DD-8E4E-42A9-B1F0-C0AD2BE1DA2F}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -4156,6 +4171,22 @@
         <v>119</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Lin Chun Lin</t>
+          <t>Gerlinde Weiss</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -4817,29 +4817,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>+886921564548</t>
+          <t>+4369912047111</t>
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45944</v>
+        <v>46020</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45946</v>
+        <v>46024</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>242.52</v>
+        <v>535.24</v>
       </c>
       <c r="J62" t="n">
-        <v>41.23</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>3.52</v>
+        <v>7.49</v>
       </c>
       <c r="L62" t="n">
-        <v>197.77</v>
+        <v>436.76</v>
       </c>
       <c r="M62" t="n">
         <v>50</v>
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>147.77</v>
+        <v>386.76</v>
       </c>
       <c r="P62" t="n">
-        <v>44.75</v>
+        <v>98.48</v>
       </c>
       <c r="Q62" t="n">
-        <v>18.45</v>
+        <v>18.4</v>
       </c>
       <c r="R62" t="n">
         <v>2025</v>
       </c>
       <c r="S62" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Gerlinde Weiss</t>
+          <t>Franziska Lindermeier</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -4886,29 +4886,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>+4369912047111</t>
+          <t>+4917661016719</t>
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>46020</v>
+        <v>46176</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>46024</v>
+        <v>46181</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>535.24</v>
+        <v>657.8</v>
       </c>
       <c r="J63" t="n">
-        <v>90.98999999999999</v>
+        <v>111.83</v>
       </c>
       <c r="K63" t="n">
-        <v>7.49</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>436.76</v>
+        <v>536.76</v>
       </c>
       <c r="M63" t="n">
         <v>50</v>
@@ -4917,19 +4917,19 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>386.76</v>
+        <v>486.76</v>
       </c>
       <c r="P63" t="n">
-        <v>98.48</v>
+        <v>121.04</v>
       </c>
       <c r="Q63" t="n">
         <v>18.4</v>
       </c>
       <c r="R63" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="S63" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Franziska Lindermeier</t>
+          <t>Claudine Fleury</t>
         </is>
       </c>
       <c r="C64" t="b">
@@ -4955,29 +4955,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>+4917661016719</t>
+          <t>+33334691787</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>46176</v>
+        <v>46200</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>46181</v>
+        <v>46203</v>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>657.8</v>
+        <v>468.68</v>
       </c>
       <c r="J64" t="n">
-        <v>111.83</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>9.210000000000001</v>
+        <v>6.56</v>
       </c>
       <c r="L64" t="n">
-        <v>536.76</v>
+        <v>382.44</v>
       </c>
       <c r="M64" t="n">
         <v>50</v>
@@ -4986,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>486.76</v>
+        <v>332.44</v>
       </c>
       <c r="P64" t="n">
-        <v>121.04</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="Q64" t="n">
         <v>18.4</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Claudine Fleury</t>
+          <t>Alina Cecilia Chiu</t>
         </is>
       </c>
       <c r="C65" t="b">
@@ -5024,29 +5024,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>+33334691787</t>
+          <t>+40740207071</t>
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>46200</v>
+        <v>46253</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>46203</v>
+        <v>46258</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>468.68</v>
+        <v>657.5</v>
       </c>
       <c r="J65" t="n">
-        <v>79.68000000000001</v>
+        <v>111.78</v>
       </c>
       <c r="K65" t="n">
-        <v>6.56</v>
+        <v>9.52</v>
       </c>
       <c r="L65" t="n">
-        <v>382.44</v>
+        <v>536.2</v>
       </c>
       <c r="M65" t="n">
         <v>50</v>
@@ -5055,93 +5055,24 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>332.44</v>
+        <v>486.2</v>
       </c>
       <c r="P65" t="n">
-        <v>86.23999999999999</v>
+        <v>121.3</v>
       </c>
       <c r="Q65" t="n">
-        <v>18.4</v>
+        <v>18.45</v>
       </c>
       <c r="R65" t="n">
         <v>2026</v>
       </c>
       <c r="S65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="b">
-        <v>0</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Alina Cecilia Chiu</t>
-        </is>
-      </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>+40740207071</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="n">
-        <v>46253</v>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>46258</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
-      </c>
-      <c r="I66" t="n">
-        <v>657.5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>111.78</v>
-      </c>
-      <c r="K66" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="L66" t="n">
-        <v>536.2</v>
-      </c>
-      <c r="M66" t="n">
-        <v>50</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
-        <v>486.2</v>
-      </c>
-      <c r="P66" t="n">
-        <v>121.3</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2026</v>
-      </c>
-      <c r="S66" t="n">
-        <v>8</v>
-      </c>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
